--- a/template.xlsx
+++ b/template.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Empty" sheetId="1" r:id="rId1"/>
+    <sheet name="Empty" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Attivita Generale" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="122">
   <si>
     <t>sabato 1 dicembre 2018</t>
   </si>
@@ -447,7 +448,2309 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="122">
+  <dxfs count="244">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2764,7 +5067,138 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabella1" displayName="Tabella1" ref="A3:DR51" totalsRowShown="0" headerRowDxfId="121">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabella1" displayName="Tabella1" ref="A3:DR51" totalsRowShown="0" headerRowDxfId="243">
+  <autoFilter ref="A3:DR51"/>
+  <tableColumns count="122">
+    <tableColumn id="1" name="Ora"/>
+    <tableColumn id="2" name="sabato 1 dicembre 2018" dataDxfId="242"/>
+    <tableColumn id="3" name="domenica 2 dicembre 2018" dataDxfId="241"/>
+    <tableColumn id="4" name="lunedì 3 dicembre 2018" dataDxfId="240"/>
+    <tableColumn id="5" name="martedì 4 dicembre 2018" dataDxfId="239"/>
+    <tableColumn id="6" name="mercoledì 5 dicembre 2018" dataDxfId="238"/>
+    <tableColumn id="7" name="giovedì 6 dicembre 2018" dataDxfId="237"/>
+    <tableColumn id="8" name="venerdì 7 dicembre 2018" dataDxfId="236"/>
+    <tableColumn id="9" name="sabato 8 dicembre 2018" dataDxfId="235"/>
+    <tableColumn id="10" name="domenica 9 dicembre 2018" dataDxfId="234"/>
+    <tableColumn id="11" name="lunedì 10 dicembre 2018" dataDxfId="233"/>
+    <tableColumn id="12" name="martedì 11 dicembre 2018" dataDxfId="232"/>
+    <tableColumn id="13" name="mercoledì 12 dicembre 2018" dataDxfId="231"/>
+    <tableColumn id="14" name="giovedì 13 dicembre 2018" dataDxfId="230"/>
+    <tableColumn id="15" name="venerdì 14 dicembre 2018" dataDxfId="229"/>
+    <tableColumn id="16" name="sabato 15 dicembre 2018" dataDxfId="228"/>
+    <tableColumn id="17" name="domenica 16 dicembre 2018" dataDxfId="227"/>
+    <tableColumn id="18" name="lunedì 17 dicembre 2018" dataDxfId="226"/>
+    <tableColumn id="19" name="martedì 18 dicembre 2018" dataDxfId="225"/>
+    <tableColumn id="20" name="mercoledì 19 dicembre 2018" dataDxfId="224"/>
+    <tableColumn id="21" name="giovedì 20 dicembre 2018" dataDxfId="223"/>
+    <tableColumn id="22" name="venerdì 21 dicembre 2018" dataDxfId="222"/>
+    <tableColumn id="23" name="sabato 22 dicembre 2018" dataDxfId="221"/>
+    <tableColumn id="24" name="domenica 23 dicembre 2018" dataDxfId="220"/>
+    <tableColumn id="25" name="lunedì 24 dicembre 2018" dataDxfId="219"/>
+    <tableColumn id="26" name="martedì 25 dicembre 2018" dataDxfId="218"/>
+    <tableColumn id="27" name="mercoledì 26 dicembre 2018" dataDxfId="217"/>
+    <tableColumn id="28" name="giovedì 27 dicembre 2018" dataDxfId="216"/>
+    <tableColumn id="29" name="venerdì 28 dicembre 2018" dataDxfId="215"/>
+    <tableColumn id="30" name="sabato 29 dicembre 2018" dataDxfId="214"/>
+    <tableColumn id="31" name="domenica 30 dicembre 2018" dataDxfId="213"/>
+    <tableColumn id="32" name="lunedì 31 dicembre 2018" dataDxfId="212"/>
+    <tableColumn id="33" name="martedì 1 gennaio 2019" dataDxfId="211"/>
+    <tableColumn id="34" name="mercoledì 2 gennaio 2019" dataDxfId="210"/>
+    <tableColumn id="35" name="giovedì 3 gennaio 2019" dataDxfId="209"/>
+    <tableColumn id="36" name="venerdì 4 gennaio 2019" dataDxfId="208"/>
+    <tableColumn id="37" name="sabato 5 gennaio 2019" dataDxfId="207"/>
+    <tableColumn id="38" name="domenica 6 gennaio 2019" dataDxfId="206"/>
+    <tableColumn id="39" name="lunedì 7 gennaio 2019" dataDxfId="205"/>
+    <tableColumn id="40" name="martedì 8 gennaio 2019" dataDxfId="204"/>
+    <tableColumn id="41" name="mercoledì 9 gennaio 2019" dataDxfId="203"/>
+    <tableColumn id="42" name="giovedì 10 gennaio 2019" dataDxfId="202"/>
+    <tableColumn id="43" name="venerdì 11 gennaio 2019" dataDxfId="201"/>
+    <tableColumn id="44" name="sabato 12 gennaio 2019" dataDxfId="200"/>
+    <tableColumn id="45" name="domenica 13 gennaio 2019" dataDxfId="199"/>
+    <tableColumn id="46" name="lunedì 14 gennaio 2019" dataDxfId="198"/>
+    <tableColumn id="47" name="martedì 15 gennaio 2019" dataDxfId="197"/>
+    <tableColumn id="48" name="mercoledì 16 gennaio 2019" dataDxfId="196"/>
+    <tableColumn id="49" name="giovedì 17 gennaio 2019" dataDxfId="195"/>
+    <tableColumn id="50" name="venerdì 18 gennaio 2019" dataDxfId="194"/>
+    <tableColumn id="51" name="sabato 19 gennaio 2019" dataDxfId="193"/>
+    <tableColumn id="52" name="domenica 20 gennaio 2019" dataDxfId="192"/>
+    <tableColumn id="53" name="lunedì 21 gennaio 2019" dataDxfId="191"/>
+    <tableColumn id="54" name="martedì 22 gennaio 2019" dataDxfId="190"/>
+    <tableColumn id="55" name="mercoledì 23 gennaio 2019" dataDxfId="189"/>
+    <tableColumn id="56" name="giovedì 24 gennaio 2019" dataDxfId="188"/>
+    <tableColumn id="57" name="venerdì 25 gennaio 2019" dataDxfId="187"/>
+    <tableColumn id="58" name="sabato 26 gennaio 2019" dataDxfId="186"/>
+    <tableColumn id="59" name="domenica 27 gennaio 2019" dataDxfId="185"/>
+    <tableColumn id="60" name="lunedì 28 gennaio 2019" dataDxfId="184"/>
+    <tableColumn id="61" name="martedì 29 gennaio 2019" dataDxfId="183"/>
+    <tableColumn id="62" name="mercoledì 30 gennaio 2019" dataDxfId="182"/>
+    <tableColumn id="63" name="giovedì 31 gennaio 2019" dataDxfId="181"/>
+    <tableColumn id="64" name="venerdì 1 febbraio 2019" dataDxfId="180"/>
+    <tableColumn id="65" name="sabato 2 febbraio 2019" dataDxfId="179"/>
+    <tableColumn id="66" name="domenica 3 febbraio 2019" dataDxfId="178"/>
+    <tableColumn id="67" name="lunedì 4 febbraio 2019" dataDxfId="177"/>
+    <tableColumn id="68" name="martedì 5 febbraio 2019" dataDxfId="176"/>
+    <tableColumn id="69" name="mercoledì 6 febbraio 2019" dataDxfId="175"/>
+    <tableColumn id="70" name="giovedì 7 febbraio 2019" dataDxfId="174"/>
+    <tableColumn id="71" name="venerdì 8 febbraio 2019" dataDxfId="173"/>
+    <tableColumn id="72" name="sabato 9 febbraio 2019" dataDxfId="172"/>
+    <tableColumn id="73" name="domenica 10 febbraio 2019" dataDxfId="171"/>
+    <tableColumn id="74" name="lunedì 11 febbraio 2019" dataDxfId="170"/>
+    <tableColumn id="75" name="martedì 12 febbraio 2019" dataDxfId="169"/>
+    <tableColumn id="76" name="mercoledì 13 febbraio 2019" dataDxfId="168"/>
+    <tableColumn id="77" name="giovedì 14 febbraio 2019" dataDxfId="167"/>
+    <tableColumn id="78" name="venerdì 15 febbraio 2019" dataDxfId="166"/>
+    <tableColumn id="79" name="sabato 16 febbraio 2019" dataDxfId="165"/>
+    <tableColumn id="80" name="domenica 17 febbraio 2019" dataDxfId="164"/>
+    <tableColumn id="81" name="lunedì 18 febbraio 2019" dataDxfId="163"/>
+    <tableColumn id="82" name="martedì 19 febbraio 2019" dataDxfId="162"/>
+    <tableColumn id="83" name="mercoledì 20 febbraio 2019" dataDxfId="161"/>
+    <tableColumn id="84" name="giovedì 21 febbraio 2019" dataDxfId="160"/>
+    <tableColumn id="85" name="venerdì 22 febbraio 2019" dataDxfId="159"/>
+    <tableColumn id="86" name="sabato 23 febbraio 2019" dataDxfId="158"/>
+    <tableColumn id="87" name="domenica 24 febbraio 2019" dataDxfId="157"/>
+    <tableColumn id="88" name="lunedì 25 febbraio 2019" dataDxfId="156"/>
+    <tableColumn id="89" name="martedì 26 febbraio 2019" dataDxfId="155"/>
+    <tableColumn id="90" name="mercoledì 27 febbraio 2019" dataDxfId="154"/>
+    <tableColumn id="91" name="giovedì 28 febbraio 2019" dataDxfId="153"/>
+    <tableColumn id="92" name="venerdì 1 marzo 2019" dataDxfId="152"/>
+    <tableColumn id="93" name="sabato 2 marzo 2019" dataDxfId="151"/>
+    <tableColumn id="94" name="domenica 3 marzo 2019" dataDxfId="150"/>
+    <tableColumn id="95" name="lunedì 4 marzo 2019" dataDxfId="149"/>
+    <tableColumn id="96" name="martedì 5 marzo 2019" dataDxfId="148"/>
+    <tableColumn id="97" name="mercoledì 6 marzo 2019" dataDxfId="147"/>
+    <tableColumn id="98" name="giovedì 7 marzo 2019" dataDxfId="146"/>
+    <tableColumn id="99" name="venerdì 8 marzo 2019" dataDxfId="145"/>
+    <tableColumn id="100" name="sabato 9 marzo 2019" dataDxfId="144"/>
+    <tableColumn id="101" name="domenica 10 marzo 2019" dataDxfId="143"/>
+    <tableColumn id="102" name="lunedì 11 marzo 2019" dataDxfId="142"/>
+    <tableColumn id="103" name="martedì 12 marzo 2019" dataDxfId="141"/>
+    <tableColumn id="104" name="mercoledì 13 marzo 2019" dataDxfId="140"/>
+    <tableColumn id="105" name="giovedì 14 marzo 2019" dataDxfId="139"/>
+    <tableColumn id="106" name="venerdì 15 marzo 2019" dataDxfId="138"/>
+    <tableColumn id="107" name="sabato 16 marzo 2019" dataDxfId="137"/>
+    <tableColumn id="108" name="domenica 17 marzo 2019" dataDxfId="136"/>
+    <tableColumn id="109" name="lunedì 18 marzo 2019" dataDxfId="135"/>
+    <tableColumn id="110" name="martedì 19 marzo 2019" dataDxfId="134"/>
+    <tableColumn id="111" name="mercoledì 20 marzo 2019" dataDxfId="133"/>
+    <tableColumn id="112" name="giovedì 21 marzo 2019" dataDxfId="132"/>
+    <tableColumn id="113" name="venerdì 22 marzo 2019" dataDxfId="131"/>
+    <tableColumn id="114" name="sabato 23 marzo 2019" dataDxfId="130"/>
+    <tableColumn id="115" name="domenica 24 marzo 2019" dataDxfId="129"/>
+    <tableColumn id="116" name="lunedì 25 marzo 2019" dataDxfId="128"/>
+    <tableColumn id="117" name="martedì 26 marzo 2019" dataDxfId="127"/>
+    <tableColumn id="118" name="mercoledì 27 marzo 2019" dataDxfId="126"/>
+    <tableColumn id="119" name="giovedì 28 marzo 2019" dataDxfId="125"/>
+    <tableColumn id="120" name="venerdì 29 marzo 2019" dataDxfId="124"/>
+    <tableColumn id="121" name="sabato 30 marzo 2019" dataDxfId="123"/>
+    <tableColumn id="122" name="domenica 31 marzo 2019" dataDxfId="122"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabella13" displayName="Tabella13" ref="A3:DR51" totalsRowShown="0" headerRowDxfId="121">
   <autoFilter ref="A3:DR51"/>
   <tableColumns count="122">
     <tableColumn id="1" name="Ora"/>
@@ -3196,8 +5630,6583 @@
   </sheetPr>
   <dimension ref="A3:DR52"/>
   <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" customWidth="1"/>
+    <col min="11" max="11" width="25.140625" customWidth="1"/>
+    <col min="12" max="12" width="26.42578125" customWidth="1"/>
+    <col min="13" max="13" width="28.42578125" customWidth="1"/>
+    <col min="14" max="14" width="25.85546875" customWidth="1"/>
+    <col min="15" max="15" width="26" customWidth="1"/>
+    <col min="16" max="16" width="25.7109375" customWidth="1"/>
+    <col min="17" max="17" width="28.42578125" customWidth="1"/>
+    <col min="18" max="18" width="25.140625" customWidth="1"/>
+    <col min="19" max="19" width="26.42578125" customWidth="1"/>
+    <col min="20" max="20" width="28.42578125" customWidth="1"/>
+    <col min="21" max="21" width="25.85546875" customWidth="1"/>
+    <col min="22" max="22" width="26" customWidth="1"/>
+    <col min="23" max="23" width="25.7109375" customWidth="1"/>
+    <col min="24" max="24" width="28.42578125" customWidth="1"/>
+    <col min="25" max="25" width="25.140625" customWidth="1"/>
+    <col min="26" max="26" width="26.42578125" customWidth="1"/>
+    <col min="27" max="27" width="28.42578125" customWidth="1"/>
+    <col min="28" max="28" width="25.85546875" customWidth="1"/>
+    <col min="29" max="29" width="26" customWidth="1"/>
+    <col min="30" max="30" width="25.7109375" customWidth="1"/>
+    <col min="31" max="31" width="28.42578125" customWidth="1"/>
+    <col min="32" max="32" width="25.140625" customWidth="1"/>
+    <col min="33" max="33" width="24.42578125" customWidth="1"/>
+    <col min="34" max="34" width="26.42578125" customWidth="1"/>
+    <col min="35" max="35" width="23.85546875" customWidth="1"/>
+    <col min="36" max="36" width="24" customWidth="1"/>
+    <col min="37" max="37" width="23.7109375" customWidth="1"/>
+    <col min="38" max="38" width="26.42578125" customWidth="1"/>
+    <col min="39" max="39" width="23.140625" customWidth="1"/>
+    <col min="40" max="40" width="24.42578125" customWidth="1"/>
+    <col min="41" max="41" width="26.42578125" customWidth="1"/>
+    <col min="42" max="42" width="24.85546875" customWidth="1"/>
+    <col min="43" max="43" width="25" customWidth="1"/>
+    <col min="44" max="44" width="24.7109375" customWidth="1"/>
+    <col min="45" max="45" width="27.42578125" customWidth="1"/>
+    <col min="46" max="46" width="24.140625" customWidth="1"/>
+    <col min="47" max="47" width="25.42578125" customWidth="1"/>
+    <col min="48" max="48" width="27.42578125" customWidth="1"/>
+    <col min="49" max="49" width="24.85546875" customWidth="1"/>
+    <col min="50" max="50" width="25" customWidth="1"/>
+    <col min="51" max="51" width="24.7109375" customWidth="1"/>
+    <col min="52" max="52" width="27.42578125" customWidth="1"/>
+    <col min="53" max="53" width="24.140625" customWidth="1"/>
+    <col min="54" max="54" width="25.42578125" customWidth="1"/>
+    <col min="55" max="55" width="27.42578125" customWidth="1"/>
+    <col min="56" max="56" width="24.85546875" customWidth="1"/>
+    <col min="57" max="57" width="25" customWidth="1"/>
+    <col min="58" max="58" width="24.7109375" customWidth="1"/>
+    <col min="59" max="59" width="27.42578125" customWidth="1"/>
+    <col min="60" max="60" width="24.140625" customWidth="1"/>
+    <col min="61" max="61" width="25.42578125" customWidth="1"/>
+    <col min="62" max="62" width="27.42578125" customWidth="1"/>
+    <col min="63" max="63" width="24.85546875" customWidth="1"/>
+    <col min="64" max="64" width="24.42578125" customWidth="1"/>
+    <col min="65" max="65" width="24" customWidth="1"/>
+    <col min="66" max="66" width="26.7109375" customWidth="1"/>
+    <col min="67" max="67" width="23.5703125" customWidth="1"/>
+    <col min="68" max="68" width="24.7109375" customWidth="1"/>
+    <col min="69" max="69" width="26.7109375" customWidth="1"/>
+    <col min="70" max="70" width="24.140625" customWidth="1"/>
+    <col min="71" max="71" width="24.42578125" customWidth="1"/>
+    <col min="72" max="72" width="24" customWidth="1"/>
+    <col min="73" max="73" width="27.7109375" customWidth="1"/>
+    <col min="74" max="74" width="24.5703125" customWidth="1"/>
+    <col min="75" max="75" width="25.7109375" customWidth="1"/>
+    <col min="76" max="76" width="27.7109375" customWidth="1"/>
+    <col min="77" max="77" width="25.140625" customWidth="1"/>
+    <col min="78" max="78" width="25.42578125" customWidth="1"/>
+    <col min="79" max="79" width="25" customWidth="1"/>
+    <col min="80" max="80" width="27.7109375" customWidth="1"/>
+    <col min="81" max="81" width="24.5703125" customWidth="1"/>
+    <col min="82" max="82" width="25.7109375" customWidth="1"/>
+    <col min="83" max="83" width="27.7109375" customWidth="1"/>
+    <col min="84" max="84" width="25.140625" customWidth="1"/>
+    <col min="85" max="85" width="25.42578125" customWidth="1"/>
+    <col min="86" max="86" width="25" customWidth="1"/>
+    <col min="87" max="87" width="27.7109375" customWidth="1"/>
+    <col min="88" max="88" width="24.5703125" customWidth="1"/>
+    <col min="89" max="89" width="25.7109375" customWidth="1"/>
+    <col min="90" max="90" width="27.7109375" customWidth="1"/>
+    <col min="91" max="91" width="25.140625" customWidth="1"/>
+    <col min="92" max="92" width="22" customWidth="1"/>
+    <col min="93" max="93" width="21.7109375" customWidth="1"/>
+    <col min="94" max="94" width="24.42578125" customWidth="1"/>
+    <col min="95" max="95" width="21.140625" customWidth="1"/>
+    <col min="96" max="96" width="22.28515625" customWidth="1"/>
+    <col min="97" max="97" width="24.42578125" customWidth="1"/>
+    <col min="98" max="98" width="21.85546875" customWidth="1"/>
+    <col min="99" max="99" width="22" customWidth="1"/>
+    <col min="100" max="100" width="21.7109375" customWidth="1"/>
+    <col min="101" max="101" width="25.42578125" customWidth="1"/>
+    <col min="102" max="102" width="22.140625" customWidth="1"/>
+    <col min="103" max="103" width="23.42578125" customWidth="1"/>
+    <col min="104" max="104" width="25.42578125" customWidth="1"/>
+    <col min="105" max="105" width="22.85546875" customWidth="1"/>
+    <col min="106" max="106" width="23" customWidth="1"/>
+    <col min="107" max="107" width="22.7109375" customWidth="1"/>
+    <col min="108" max="108" width="25.42578125" customWidth="1"/>
+    <col min="109" max="109" width="22.140625" customWidth="1"/>
+    <col min="110" max="110" width="23.42578125" customWidth="1"/>
+    <col min="111" max="111" width="25.42578125" customWidth="1"/>
+    <col min="112" max="112" width="22.85546875" customWidth="1"/>
+    <col min="113" max="113" width="23" customWidth="1"/>
+    <col min="114" max="114" width="22.7109375" customWidth="1"/>
+    <col min="115" max="115" width="25.42578125" customWidth="1"/>
+    <col min="116" max="116" width="22.140625" customWidth="1"/>
+    <col min="117" max="117" width="23.42578125" customWidth="1"/>
+    <col min="118" max="118" width="25.42578125" customWidth="1"/>
+    <col min="119" max="119" width="22.85546875" customWidth="1"/>
+    <col min="120" max="120" width="23" customWidth="1"/>
+    <col min="121" max="121" width="22.7109375" customWidth="1"/>
+    <col min="122" max="122" width="25.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DR3" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3"/>
+      <c r="BI4" s="3"/>
+      <c r="BJ4" s="3"/>
+      <c r="BK4" s="3"/>
+      <c r="BL4" s="3"/>
+      <c r="BM4" s="3"/>
+      <c r="BN4" s="3"/>
+      <c r="BO4" s="3"/>
+      <c r="BP4" s="3"/>
+      <c r="BQ4" s="3"/>
+      <c r="BR4" s="3"/>
+      <c r="BS4" s="3"/>
+      <c r="BT4" s="3"/>
+      <c r="BU4" s="3"/>
+      <c r="BV4" s="3"/>
+      <c r="BW4" s="3"/>
+      <c r="BX4" s="3"/>
+      <c r="BY4" s="3"/>
+      <c r="BZ4" s="3"/>
+      <c r="CA4" s="3"/>
+      <c r="CB4" s="3"/>
+      <c r="CC4" s="3"/>
+      <c r="CD4" s="3"/>
+      <c r="CE4" s="3"/>
+      <c r="CF4" s="3"/>
+      <c r="CG4" s="3"/>
+      <c r="CH4" s="3"/>
+      <c r="CI4" s="3"/>
+      <c r="CJ4" s="3"/>
+      <c r="CK4" s="3"/>
+      <c r="CL4" s="3"/>
+      <c r="CM4" s="3"/>
+      <c r="CN4" s="3"/>
+      <c r="CO4" s="3"/>
+      <c r="CP4" s="3"/>
+      <c r="CQ4" s="3"/>
+      <c r="CR4" s="3"/>
+      <c r="CS4" s="3"/>
+      <c r="CT4" s="3"/>
+      <c r="CU4" s="3"/>
+      <c r="CV4" s="3"/>
+      <c r="CW4" s="3"/>
+      <c r="CX4" s="3"/>
+      <c r="CY4" s="3"/>
+      <c r="CZ4" s="3"/>
+      <c r="DA4" s="3"/>
+      <c r="DB4" s="3"/>
+      <c r="DC4" s="3"/>
+      <c r="DD4" s="3"/>
+      <c r="DE4" s="3"/>
+      <c r="DF4" s="3"/>
+      <c r="DG4" s="3"/>
+      <c r="DH4" s="3"/>
+      <c r="DI4" s="3"/>
+      <c r="DJ4" s="3"/>
+      <c r="DK4" s="3"/>
+      <c r="DL4" s="3"/>
+      <c r="DM4" s="3"/>
+      <c r="DN4" s="3"/>
+      <c r="DO4" s="3"/>
+      <c r="DP4" s="3"/>
+      <c r="DQ4" s="3"/>
+      <c r="DR4" s="3"/>
+    </row>
+    <row r="5" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3"/>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="3"/>
+      <c r="AY5" s="3"/>
+      <c r="AZ5" s="3"/>
+      <c r="BA5" s="3"/>
+      <c r="BB5" s="3"/>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
+      <c r="BE5" s="3"/>
+      <c r="BF5" s="3"/>
+      <c r="BG5" s="3"/>
+      <c r="BH5" s="3"/>
+      <c r="BI5" s="3"/>
+      <c r="BJ5" s="3"/>
+      <c r="BK5" s="3"/>
+      <c r="BL5" s="3"/>
+      <c r="BM5" s="3"/>
+      <c r="BN5" s="3"/>
+      <c r="BO5" s="3"/>
+      <c r="BP5" s="3"/>
+      <c r="BQ5" s="3"/>
+      <c r="BR5" s="3"/>
+      <c r="BS5" s="3"/>
+      <c r="BT5" s="3"/>
+      <c r="BU5" s="3"/>
+      <c r="BV5" s="3"/>
+      <c r="BW5" s="3"/>
+      <c r="BX5" s="3"/>
+      <c r="BY5" s="3"/>
+      <c r="BZ5" s="3"/>
+      <c r="CA5" s="3"/>
+      <c r="CB5" s="3"/>
+      <c r="CC5" s="3"/>
+      <c r="CD5" s="3"/>
+      <c r="CE5" s="3"/>
+      <c r="CF5" s="3"/>
+      <c r="CG5" s="3"/>
+      <c r="CH5" s="3"/>
+      <c r="CI5" s="3"/>
+      <c r="CJ5" s="3"/>
+      <c r="CK5" s="3"/>
+      <c r="CL5" s="3"/>
+      <c r="CM5" s="3"/>
+      <c r="CN5" s="3"/>
+      <c r="CO5" s="3"/>
+      <c r="CP5" s="3"/>
+      <c r="CQ5" s="3"/>
+      <c r="CR5" s="3"/>
+      <c r="CS5" s="3"/>
+      <c r="CT5" s="3"/>
+      <c r="CU5" s="3"/>
+      <c r="CV5" s="3"/>
+      <c r="CW5" s="3"/>
+      <c r="CX5" s="3"/>
+      <c r="CY5" s="3"/>
+      <c r="CZ5" s="3"/>
+      <c r="DA5" s="3"/>
+      <c r="DB5" s="3"/>
+      <c r="DC5" s="3"/>
+      <c r="DD5" s="3"/>
+      <c r="DE5" s="3"/>
+      <c r="DF5" s="3"/>
+      <c r="DG5" s="3"/>
+      <c r="DH5" s="3"/>
+      <c r="DI5" s="3"/>
+      <c r="DJ5" s="3"/>
+      <c r="DK5" s="3"/>
+      <c r="DL5" s="3"/>
+      <c r="DM5" s="3"/>
+      <c r="DN5" s="3"/>
+      <c r="DO5" s="3"/>
+      <c r="DP5" s="3"/>
+      <c r="DQ5" s="3"/>
+      <c r="DR5" s="3"/>
+    </row>
+    <row r="6" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="3"/>
+      <c r="AZ6" s="3"/>
+      <c r="BA6" s="3"/>
+      <c r="BB6" s="3"/>
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="3"/>
+      <c r="BE6" s="3"/>
+      <c r="BF6" s="3"/>
+      <c r="BG6" s="3"/>
+      <c r="BH6" s="3"/>
+      <c r="BI6" s="3"/>
+      <c r="BJ6" s="3"/>
+      <c r="BK6" s="3"/>
+      <c r="BL6" s="3"/>
+      <c r="BM6" s="3"/>
+      <c r="BN6" s="3"/>
+      <c r="BO6" s="3"/>
+      <c r="BP6" s="3"/>
+      <c r="BQ6" s="3"/>
+      <c r="BR6" s="3"/>
+      <c r="BS6" s="3"/>
+      <c r="BT6" s="3"/>
+      <c r="BU6" s="3"/>
+      <c r="BV6" s="3"/>
+      <c r="BW6" s="3"/>
+      <c r="BX6" s="3"/>
+      <c r="BY6" s="3"/>
+      <c r="BZ6" s="3"/>
+      <c r="CA6" s="3"/>
+      <c r="CB6" s="3"/>
+      <c r="CC6" s="3"/>
+      <c r="CD6" s="3"/>
+      <c r="CE6" s="3"/>
+      <c r="CF6" s="3"/>
+      <c r="CG6" s="3"/>
+      <c r="CH6" s="3"/>
+      <c r="CI6" s="3"/>
+      <c r="CJ6" s="3"/>
+      <c r="CK6" s="3"/>
+      <c r="CL6" s="3"/>
+      <c r="CM6" s="3"/>
+      <c r="CN6" s="3"/>
+      <c r="CO6" s="3"/>
+      <c r="CP6" s="3"/>
+      <c r="CQ6" s="3"/>
+      <c r="CR6" s="3"/>
+      <c r="CS6" s="3"/>
+      <c r="CT6" s="3"/>
+      <c r="CU6" s="3"/>
+      <c r="CV6" s="3"/>
+      <c r="CW6" s="3"/>
+      <c r="CX6" s="3"/>
+      <c r="CY6" s="3"/>
+      <c r="CZ6" s="3"/>
+      <c r="DA6" s="3"/>
+      <c r="DB6" s="3"/>
+      <c r="DC6" s="3"/>
+      <c r="DD6" s="3"/>
+      <c r="DE6" s="3"/>
+      <c r="DF6" s="3"/>
+      <c r="DG6" s="3"/>
+      <c r="DH6" s="3"/>
+      <c r="DI6" s="3"/>
+      <c r="DJ6" s="3"/>
+      <c r="DK6" s="3"/>
+      <c r="DL6" s="3"/>
+      <c r="DM6" s="3"/>
+      <c r="DN6" s="3"/>
+      <c r="DO6" s="3"/>
+      <c r="DP6" s="3"/>
+      <c r="DQ6" s="3"/>
+      <c r="DR6" s="3"/>
+    </row>
+    <row r="7" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="3"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="3"/>
+      <c r="BA7" s="3"/>
+      <c r="BB7" s="3"/>
+      <c r="BC7" s="3"/>
+      <c r="BD7" s="3"/>
+      <c r="BE7" s="3"/>
+      <c r="BF7" s="3"/>
+      <c r="BG7" s="3"/>
+      <c r="BH7" s="3"/>
+      <c r="BI7" s="3"/>
+      <c r="BJ7" s="3"/>
+      <c r="BK7" s="3"/>
+      <c r="BL7" s="3"/>
+      <c r="BM7" s="3"/>
+      <c r="BN7" s="3"/>
+      <c r="BO7" s="3"/>
+      <c r="BP7" s="3"/>
+      <c r="BQ7" s="3"/>
+      <c r="BR7" s="3"/>
+      <c r="BS7" s="3"/>
+      <c r="BT7" s="3"/>
+      <c r="BU7" s="3"/>
+      <c r="BV7" s="3"/>
+      <c r="BW7" s="3"/>
+      <c r="BX7" s="3"/>
+      <c r="BY7" s="3"/>
+      <c r="BZ7" s="3"/>
+      <c r="CA7" s="3"/>
+      <c r="CB7" s="3"/>
+      <c r="CC7" s="3"/>
+      <c r="CD7" s="3"/>
+      <c r="CE7" s="3"/>
+      <c r="CF7" s="3"/>
+      <c r="CG7" s="3"/>
+      <c r="CH7" s="3"/>
+      <c r="CI7" s="3"/>
+      <c r="CJ7" s="3"/>
+      <c r="CK7" s="3"/>
+      <c r="CL7" s="3"/>
+      <c r="CM7" s="3"/>
+      <c r="CN7" s="3"/>
+      <c r="CO7" s="3"/>
+      <c r="CP7" s="3"/>
+      <c r="CQ7" s="3"/>
+      <c r="CR7" s="3"/>
+      <c r="CS7" s="3"/>
+      <c r="CT7" s="3"/>
+      <c r="CU7" s="3"/>
+      <c r="CV7" s="3"/>
+      <c r="CW7" s="3"/>
+      <c r="CX7" s="3"/>
+      <c r="CY7" s="3"/>
+      <c r="CZ7" s="3"/>
+      <c r="DA7" s="3"/>
+      <c r="DB7" s="3"/>
+      <c r="DC7" s="3"/>
+      <c r="DD7" s="3"/>
+      <c r="DE7" s="3"/>
+      <c r="DF7" s="3"/>
+      <c r="DG7" s="3"/>
+      <c r="DH7" s="3"/>
+      <c r="DI7" s="3"/>
+      <c r="DJ7" s="3"/>
+      <c r="DK7" s="3"/>
+      <c r="DL7" s="3"/>
+      <c r="DM7" s="3"/>
+      <c r="DN7" s="3"/>
+      <c r="DO7" s="3"/>
+      <c r="DP7" s="3"/>
+      <c r="DQ7" s="3"/>
+      <c r="DR7" s="3"/>
+    </row>
+    <row r="8" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
+      <c r="AY8" s="3"/>
+      <c r="AZ8" s="3"/>
+      <c r="BA8" s="3"/>
+      <c r="BB8" s="3"/>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="3"/>
+      <c r="BE8" s="3"/>
+      <c r="BF8" s="3"/>
+      <c r="BG8" s="3"/>
+      <c r="BH8" s="3"/>
+      <c r="BI8" s="3"/>
+      <c r="BJ8" s="3"/>
+      <c r="BK8" s="3"/>
+      <c r="BL8" s="3"/>
+      <c r="BM8" s="3"/>
+      <c r="BN8" s="3"/>
+      <c r="BO8" s="3"/>
+      <c r="BP8" s="3"/>
+      <c r="BQ8" s="3"/>
+      <c r="BR8" s="3"/>
+      <c r="BS8" s="3"/>
+      <c r="BT8" s="3"/>
+      <c r="BU8" s="3"/>
+      <c r="BV8" s="3"/>
+      <c r="BW8" s="3"/>
+      <c r="BX8" s="3"/>
+      <c r="BY8" s="3"/>
+      <c r="BZ8" s="3"/>
+      <c r="CA8" s="3"/>
+      <c r="CB8" s="3"/>
+      <c r="CC8" s="3"/>
+      <c r="CD8" s="3"/>
+      <c r="CE8" s="3"/>
+      <c r="CF8" s="3"/>
+      <c r="CG8" s="3"/>
+      <c r="CH8" s="3"/>
+      <c r="CI8" s="3"/>
+      <c r="CJ8" s="3"/>
+      <c r="CK8" s="3"/>
+      <c r="CL8" s="3"/>
+      <c r="CM8" s="3"/>
+      <c r="CN8" s="3"/>
+      <c r="CO8" s="3"/>
+      <c r="CP8" s="3"/>
+      <c r="CQ8" s="3"/>
+      <c r="CR8" s="3"/>
+      <c r="CS8" s="3"/>
+      <c r="CT8" s="3"/>
+      <c r="CU8" s="3"/>
+      <c r="CV8" s="3"/>
+      <c r="CW8" s="3"/>
+      <c r="CX8" s="3"/>
+      <c r="CY8" s="3"/>
+      <c r="CZ8" s="3"/>
+      <c r="DA8" s="3"/>
+      <c r="DB8" s="3"/>
+      <c r="DC8" s="3"/>
+      <c r="DD8" s="3"/>
+      <c r="DE8" s="3"/>
+      <c r="DF8" s="3"/>
+      <c r="DG8" s="3"/>
+      <c r="DH8" s="3"/>
+      <c r="DI8" s="3"/>
+      <c r="DJ8" s="3"/>
+      <c r="DK8" s="3"/>
+      <c r="DL8" s="3"/>
+      <c r="DM8" s="3"/>
+      <c r="DN8" s="3"/>
+      <c r="DO8" s="3"/>
+      <c r="DP8" s="3"/>
+      <c r="DQ8" s="3"/>
+      <c r="DR8" s="3"/>
+    </row>
+    <row r="9" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3"/>
+      <c r="AW9" s="3"/>
+      <c r="AX9" s="3"/>
+      <c r="AY9" s="3"/>
+      <c r="AZ9" s="3"/>
+      <c r="BA9" s="3"/>
+      <c r="BB9" s="3"/>
+      <c r="BC9" s="3"/>
+      <c r="BD9" s="3"/>
+      <c r="BE9" s="3"/>
+      <c r="BF9" s="3"/>
+      <c r="BG9" s="3"/>
+      <c r="BH9" s="3"/>
+      <c r="BI9" s="3"/>
+      <c r="BJ9" s="3"/>
+      <c r="BK9" s="3"/>
+      <c r="BL9" s="3"/>
+      <c r="BM9" s="3"/>
+      <c r="BN9" s="3"/>
+      <c r="BO9" s="3"/>
+      <c r="BP9" s="3"/>
+      <c r="BQ9" s="3"/>
+      <c r="BR9" s="3"/>
+      <c r="BS9" s="3"/>
+      <c r="BT9" s="3"/>
+      <c r="BU9" s="3"/>
+      <c r="BV9" s="3"/>
+      <c r="BW9" s="3"/>
+      <c r="BX9" s="3"/>
+      <c r="BY9" s="3"/>
+      <c r="BZ9" s="3"/>
+      <c r="CA9" s="3"/>
+      <c r="CB9" s="3"/>
+      <c r="CC9" s="3"/>
+      <c r="CD9" s="3"/>
+      <c r="CE9" s="3"/>
+      <c r="CF9" s="3"/>
+      <c r="CG9" s="3"/>
+      <c r="CH9" s="3"/>
+      <c r="CI9" s="3"/>
+      <c r="CJ9" s="3"/>
+      <c r="CK9" s="3"/>
+      <c r="CL9" s="3"/>
+      <c r="CM9" s="3"/>
+      <c r="CN9" s="3"/>
+      <c r="CO9" s="3"/>
+      <c r="CP9" s="3"/>
+      <c r="CQ9" s="3"/>
+      <c r="CR9" s="3"/>
+      <c r="CS9" s="3"/>
+      <c r="CT9" s="3"/>
+      <c r="CU9" s="3"/>
+      <c r="CV9" s="3"/>
+      <c r="CW9" s="3"/>
+      <c r="CX9" s="3"/>
+      <c r="CY9" s="3"/>
+      <c r="CZ9" s="3"/>
+      <c r="DA9" s="3"/>
+      <c r="DB9" s="3"/>
+      <c r="DC9" s="3"/>
+      <c r="DD9" s="3"/>
+      <c r="DE9" s="3"/>
+      <c r="DF9" s="3"/>
+      <c r="DG9" s="3"/>
+      <c r="DH9" s="3"/>
+      <c r="DI9" s="3"/>
+      <c r="DJ9" s="3"/>
+      <c r="DK9" s="3"/>
+      <c r="DL9" s="3"/>
+      <c r="DM9" s="3"/>
+      <c r="DN9" s="3"/>
+      <c r="DO9" s="3"/>
+      <c r="DP9" s="3"/>
+      <c r="DQ9" s="3"/>
+      <c r="DR9" s="3"/>
+    </row>
+    <row r="10" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="3"/>
+      <c r="AV10" s="3"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
+      <c r="AY10" s="3"/>
+      <c r="AZ10" s="3"/>
+      <c r="BA10" s="3"/>
+      <c r="BB10" s="3"/>
+      <c r="BC10" s="3"/>
+      <c r="BD10" s="3"/>
+      <c r="BE10" s="3"/>
+      <c r="BF10" s="3"/>
+      <c r="BG10" s="3"/>
+      <c r="BH10" s="3"/>
+      <c r="BI10" s="3"/>
+      <c r="BJ10" s="3"/>
+      <c r="BK10" s="3"/>
+      <c r="BL10" s="3"/>
+      <c r="BM10" s="3"/>
+      <c r="BN10" s="3"/>
+      <c r="BO10" s="3"/>
+      <c r="BP10" s="3"/>
+      <c r="BQ10" s="3"/>
+      <c r="BR10" s="3"/>
+      <c r="BS10" s="3"/>
+      <c r="BT10" s="3"/>
+      <c r="BU10" s="3"/>
+      <c r="BV10" s="3"/>
+      <c r="BW10" s="3"/>
+      <c r="BX10" s="3"/>
+      <c r="BY10" s="3"/>
+      <c r="BZ10" s="3"/>
+      <c r="CA10" s="3"/>
+      <c r="CB10" s="3"/>
+      <c r="CC10" s="3"/>
+      <c r="CD10" s="3"/>
+      <c r="CE10" s="3"/>
+      <c r="CF10" s="3"/>
+      <c r="CG10" s="3"/>
+      <c r="CH10" s="3"/>
+      <c r="CI10" s="3"/>
+      <c r="CJ10" s="3"/>
+      <c r="CK10" s="3"/>
+      <c r="CL10" s="3"/>
+      <c r="CM10" s="3"/>
+      <c r="CN10" s="3"/>
+      <c r="CO10" s="3"/>
+      <c r="CP10" s="3"/>
+      <c r="CQ10" s="3"/>
+      <c r="CR10" s="3"/>
+      <c r="CS10" s="3"/>
+      <c r="CT10" s="3"/>
+      <c r="CU10" s="3"/>
+      <c r="CV10" s="3"/>
+      <c r="CW10" s="3"/>
+      <c r="CX10" s="3"/>
+      <c r="CY10" s="3"/>
+      <c r="CZ10" s="3"/>
+      <c r="DA10" s="3"/>
+      <c r="DB10" s="3"/>
+      <c r="DC10" s="3"/>
+      <c r="DD10" s="3"/>
+      <c r="DE10" s="3"/>
+      <c r="DF10" s="3"/>
+      <c r="DG10" s="3"/>
+      <c r="DH10" s="3"/>
+      <c r="DI10" s="3"/>
+      <c r="DJ10" s="3"/>
+      <c r="DK10" s="3"/>
+      <c r="DL10" s="3"/>
+      <c r="DM10" s="3"/>
+      <c r="DN10" s="3"/>
+      <c r="DO10" s="3"/>
+      <c r="DP10" s="3"/>
+      <c r="DQ10" s="3"/>
+      <c r="DR10" s="3"/>
+    </row>
+    <row r="11" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>0.14583333333333301</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="3"/>
+      <c r="AU11" s="3"/>
+      <c r="AV11" s="3"/>
+      <c r="AW11" s="3"/>
+      <c r="AX11" s="3"/>
+      <c r="AY11" s="3"/>
+      <c r="AZ11" s="3"/>
+      <c r="BA11" s="3"/>
+      <c r="BB11" s="3"/>
+      <c r="BC11" s="3"/>
+      <c r="BD11" s="3"/>
+      <c r="BE11" s="3"/>
+      <c r="BF11" s="3"/>
+      <c r="BG11" s="3"/>
+      <c r="BH11" s="3"/>
+      <c r="BI11" s="3"/>
+      <c r="BJ11" s="3"/>
+      <c r="BK11" s="3"/>
+      <c r="BL11" s="3"/>
+      <c r="BM11" s="3"/>
+      <c r="BN11" s="3"/>
+      <c r="BO11" s="3"/>
+      <c r="BP11" s="3"/>
+      <c r="BQ11" s="3"/>
+      <c r="BR11" s="3"/>
+      <c r="BS11" s="3"/>
+      <c r="BT11" s="3"/>
+      <c r="BU11" s="3"/>
+      <c r="BV11" s="3"/>
+      <c r="BW11" s="3"/>
+      <c r="BX11" s="3"/>
+      <c r="BY11" s="3"/>
+      <c r="BZ11" s="3"/>
+      <c r="CA11" s="3"/>
+      <c r="CB11" s="3"/>
+      <c r="CC11" s="3"/>
+      <c r="CD11" s="3"/>
+      <c r="CE11" s="3"/>
+      <c r="CF11" s="3"/>
+      <c r="CG11" s="3"/>
+      <c r="CH11" s="3"/>
+      <c r="CI11" s="3"/>
+      <c r="CJ11" s="3"/>
+      <c r="CK11" s="3"/>
+      <c r="CL11" s="3"/>
+      <c r="CM11" s="3"/>
+      <c r="CN11" s="3"/>
+      <c r="CO11" s="3"/>
+      <c r="CP11" s="3"/>
+      <c r="CQ11" s="3"/>
+      <c r="CR11" s="3"/>
+      <c r="CS11" s="3"/>
+      <c r="CT11" s="3"/>
+      <c r="CU11" s="3"/>
+      <c r="CV11" s="3"/>
+      <c r="CW11" s="3"/>
+      <c r="CX11" s="3"/>
+      <c r="CY11" s="3"/>
+      <c r="CZ11" s="3"/>
+      <c r="DA11" s="3"/>
+      <c r="DB11" s="3"/>
+      <c r="DC11" s="3"/>
+      <c r="DD11" s="3"/>
+      <c r="DE11" s="3"/>
+      <c r="DF11" s="3"/>
+      <c r="DG11" s="3"/>
+      <c r="DH11" s="3"/>
+      <c r="DI11" s="3"/>
+      <c r="DJ11" s="3"/>
+      <c r="DK11" s="3"/>
+      <c r="DL11" s="3"/>
+      <c r="DM11" s="3"/>
+      <c r="DN11" s="3"/>
+      <c r="DO11" s="3"/>
+      <c r="DP11" s="3"/>
+      <c r="DQ11" s="3"/>
+      <c r="DR11" s="3"/>
+    </row>
+    <row r="12" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3"/>
+      <c r="AU12" s="3"/>
+      <c r="AV12" s="3"/>
+      <c r="AW12" s="3"/>
+      <c r="AX12" s="3"/>
+      <c r="AY12" s="3"/>
+      <c r="AZ12" s="3"/>
+      <c r="BA12" s="3"/>
+      <c r="BB12" s="3"/>
+      <c r="BC12" s="3"/>
+      <c r="BD12" s="3"/>
+      <c r="BE12" s="3"/>
+      <c r="BF12" s="3"/>
+      <c r="BG12" s="3"/>
+      <c r="BH12" s="3"/>
+      <c r="BI12" s="3"/>
+      <c r="BJ12" s="3"/>
+      <c r="BK12" s="3"/>
+      <c r="BL12" s="3"/>
+      <c r="BM12" s="3"/>
+      <c r="BN12" s="3"/>
+      <c r="BO12" s="3"/>
+      <c r="BP12" s="3"/>
+      <c r="BQ12" s="3"/>
+      <c r="BR12" s="3"/>
+      <c r="BS12" s="3"/>
+      <c r="BT12" s="3"/>
+      <c r="BU12" s="3"/>
+      <c r="BV12" s="3"/>
+      <c r="BW12" s="3"/>
+      <c r="BX12" s="3"/>
+      <c r="BY12" s="3"/>
+      <c r="BZ12" s="3"/>
+      <c r="CA12" s="3"/>
+      <c r="CB12" s="3"/>
+      <c r="CC12" s="3"/>
+      <c r="CD12" s="3"/>
+      <c r="CE12" s="3"/>
+      <c r="CF12" s="3"/>
+      <c r="CG12" s="3"/>
+      <c r="CH12" s="3"/>
+      <c r="CI12" s="3"/>
+      <c r="CJ12" s="3"/>
+      <c r="CK12" s="3"/>
+      <c r="CL12" s="3"/>
+      <c r="CM12" s="3"/>
+      <c r="CN12" s="3"/>
+      <c r="CO12" s="3"/>
+      <c r="CP12" s="3"/>
+      <c r="CQ12" s="3"/>
+      <c r="CR12" s="3"/>
+      <c r="CS12" s="3"/>
+      <c r="CT12" s="3"/>
+      <c r="CU12" s="3"/>
+      <c r="CV12" s="3"/>
+      <c r="CW12" s="3"/>
+      <c r="CX12" s="3"/>
+      <c r="CY12" s="3"/>
+      <c r="CZ12" s="3"/>
+      <c r="DA12" s="3"/>
+      <c r="DB12" s="3"/>
+      <c r="DC12" s="3"/>
+      <c r="DD12" s="3"/>
+      <c r="DE12" s="3"/>
+      <c r="DF12" s="3"/>
+      <c r="DG12" s="3"/>
+      <c r="DH12" s="3"/>
+      <c r="DI12" s="3"/>
+      <c r="DJ12" s="3"/>
+      <c r="DK12" s="3"/>
+      <c r="DL12" s="3"/>
+      <c r="DM12" s="3"/>
+      <c r="DN12" s="3"/>
+      <c r="DO12" s="3"/>
+      <c r="DP12" s="3"/>
+      <c r="DQ12" s="3"/>
+      <c r="DR12" s="3"/>
+    </row>
+    <row r="13" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>0.1875</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="3"/>
+      <c r="AT13" s="3"/>
+      <c r="AU13" s="3"/>
+      <c r="AV13" s="3"/>
+      <c r="AW13" s="3"/>
+      <c r="AX13" s="3"/>
+      <c r="AY13" s="3"/>
+      <c r="AZ13" s="3"/>
+      <c r="BA13" s="3"/>
+      <c r="BB13" s="3"/>
+      <c r="BC13" s="3"/>
+      <c r="BD13" s="3"/>
+      <c r="BE13" s="3"/>
+      <c r="BF13" s="3"/>
+      <c r="BG13" s="3"/>
+      <c r="BH13" s="3"/>
+      <c r="BI13" s="3"/>
+      <c r="BJ13" s="3"/>
+      <c r="BK13" s="3"/>
+      <c r="BL13" s="3"/>
+      <c r="BM13" s="3"/>
+      <c r="BN13" s="3"/>
+      <c r="BO13" s="3"/>
+      <c r="BP13" s="3"/>
+      <c r="BQ13" s="3"/>
+      <c r="BR13" s="3"/>
+      <c r="BS13" s="3"/>
+      <c r="BT13" s="3"/>
+      <c r="BU13" s="3"/>
+      <c r="BV13" s="3"/>
+      <c r="BW13" s="3"/>
+      <c r="BX13" s="3"/>
+      <c r="BY13" s="3"/>
+      <c r="BZ13" s="3"/>
+      <c r="CA13" s="3"/>
+      <c r="CB13" s="3"/>
+      <c r="CC13" s="3"/>
+      <c r="CD13" s="3"/>
+      <c r="CE13" s="3"/>
+      <c r="CF13" s="3"/>
+      <c r="CG13" s="3"/>
+      <c r="CH13" s="3"/>
+      <c r="CI13" s="3"/>
+      <c r="CJ13" s="3"/>
+      <c r="CK13" s="3"/>
+      <c r="CL13" s="3"/>
+      <c r="CM13" s="3"/>
+      <c r="CN13" s="3"/>
+      <c r="CO13" s="3"/>
+      <c r="CP13" s="3"/>
+      <c r="CQ13" s="3"/>
+      <c r="CR13" s="3"/>
+      <c r="CS13" s="3"/>
+      <c r="CT13" s="3"/>
+      <c r="CU13" s="3"/>
+      <c r="CV13" s="3"/>
+      <c r="CW13" s="3"/>
+      <c r="CX13" s="3"/>
+      <c r="CY13" s="3"/>
+      <c r="CZ13" s="3"/>
+      <c r="DA13" s="3"/>
+      <c r="DB13" s="3"/>
+      <c r="DC13" s="3"/>
+      <c r="DD13" s="3"/>
+      <c r="DE13" s="3"/>
+      <c r="DF13" s="3"/>
+      <c r="DG13" s="3"/>
+      <c r="DH13" s="3"/>
+      <c r="DI13" s="3"/>
+      <c r="DJ13" s="3"/>
+      <c r="DK13" s="3"/>
+      <c r="DL13" s="3"/>
+      <c r="DM13" s="3"/>
+      <c r="DN13" s="3"/>
+      <c r="DO13" s="3"/>
+      <c r="DP13" s="3"/>
+      <c r="DQ13" s="3"/>
+      <c r="DR13" s="3"/>
+    </row>
+    <row r="14" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="3"/>
+      <c r="AU14" s="3"/>
+      <c r="AV14" s="3"/>
+      <c r="AW14" s="3"/>
+      <c r="AX14" s="3"/>
+      <c r="AY14" s="3"/>
+      <c r="AZ14" s="3"/>
+      <c r="BA14" s="3"/>
+      <c r="BB14" s="3"/>
+      <c r="BC14" s="3"/>
+      <c r="BD14" s="3"/>
+      <c r="BE14" s="3"/>
+      <c r="BF14" s="3"/>
+      <c r="BG14" s="3"/>
+      <c r="BH14" s="3"/>
+      <c r="BI14" s="3"/>
+      <c r="BJ14" s="3"/>
+      <c r="BK14" s="3"/>
+      <c r="BL14" s="3"/>
+      <c r="BM14" s="3"/>
+      <c r="BN14" s="3"/>
+      <c r="BO14" s="3"/>
+      <c r="BP14" s="3"/>
+      <c r="BQ14" s="3"/>
+      <c r="BR14" s="3"/>
+      <c r="BS14" s="3"/>
+      <c r="BT14" s="3"/>
+      <c r="BU14" s="3"/>
+      <c r="BV14" s="3"/>
+      <c r="BW14" s="3"/>
+      <c r="BX14" s="3"/>
+      <c r="BY14" s="3"/>
+      <c r="BZ14" s="3"/>
+      <c r="CA14" s="3"/>
+      <c r="CB14" s="3"/>
+      <c r="CC14" s="3"/>
+      <c r="CD14" s="3"/>
+      <c r="CE14" s="3"/>
+      <c r="CF14" s="3"/>
+      <c r="CG14" s="3"/>
+      <c r="CH14" s="3"/>
+      <c r="CI14" s="3"/>
+      <c r="CJ14" s="3"/>
+      <c r="CK14" s="3"/>
+      <c r="CL14" s="3"/>
+      <c r="CM14" s="3"/>
+      <c r="CN14" s="3"/>
+      <c r="CO14" s="3"/>
+      <c r="CP14" s="3"/>
+      <c r="CQ14" s="3"/>
+      <c r="CR14" s="3"/>
+      <c r="CS14" s="3"/>
+      <c r="CT14" s="3"/>
+      <c r="CU14" s="3"/>
+      <c r="CV14" s="3"/>
+      <c r="CW14" s="3"/>
+      <c r="CX14" s="3"/>
+      <c r="CY14" s="3"/>
+      <c r="CZ14" s="3"/>
+      <c r="DA14" s="3"/>
+      <c r="DB14" s="3"/>
+      <c r="DC14" s="3"/>
+      <c r="DD14" s="3"/>
+      <c r="DE14" s="3"/>
+      <c r="DF14" s="3"/>
+      <c r="DG14" s="3"/>
+      <c r="DH14" s="3"/>
+      <c r="DI14" s="3"/>
+      <c r="DJ14" s="3"/>
+      <c r="DK14" s="3"/>
+      <c r="DL14" s="3"/>
+      <c r="DM14" s="3"/>
+      <c r="DN14" s="3"/>
+      <c r="DO14" s="3"/>
+      <c r="DP14" s="3"/>
+      <c r="DQ14" s="3"/>
+      <c r="DR14" s="3"/>
+    </row>
+    <row r="15" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>0.22916666666666699</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="3"/>
+      <c r="AU15" s="3"/>
+      <c r="AV15" s="3"/>
+      <c r="AW15" s="3"/>
+      <c r="AX15" s="3"/>
+      <c r="AY15" s="3"/>
+      <c r="AZ15" s="3"/>
+      <c r="BA15" s="3"/>
+      <c r="BB15" s="3"/>
+      <c r="BC15" s="3"/>
+      <c r="BD15" s="3"/>
+      <c r="BE15" s="3"/>
+      <c r="BF15" s="3"/>
+      <c r="BG15" s="3"/>
+      <c r="BH15" s="3"/>
+      <c r="BI15" s="3"/>
+      <c r="BJ15" s="3"/>
+      <c r="BK15" s="3"/>
+      <c r="BL15" s="3"/>
+      <c r="BM15" s="3"/>
+      <c r="BN15" s="3"/>
+      <c r="BO15" s="3"/>
+      <c r="BP15" s="3"/>
+      <c r="BQ15" s="3"/>
+      <c r="BR15" s="3"/>
+      <c r="BS15" s="3"/>
+      <c r="BT15" s="3"/>
+      <c r="BU15" s="3"/>
+      <c r="BV15" s="3"/>
+      <c r="BW15" s="3"/>
+      <c r="BX15" s="3"/>
+      <c r="BY15" s="3"/>
+      <c r="BZ15" s="3"/>
+      <c r="CA15" s="3"/>
+      <c r="CB15" s="3"/>
+      <c r="CC15" s="3"/>
+      <c r="CD15" s="3"/>
+      <c r="CE15" s="3"/>
+      <c r="CF15" s="3"/>
+      <c r="CG15" s="3"/>
+      <c r="CH15" s="3"/>
+      <c r="CI15" s="3"/>
+      <c r="CJ15" s="3"/>
+      <c r="CK15" s="3"/>
+      <c r="CL15" s="3"/>
+      <c r="CM15" s="3"/>
+      <c r="CN15" s="3"/>
+      <c r="CO15" s="3"/>
+      <c r="CP15" s="3"/>
+      <c r="CQ15" s="3"/>
+      <c r="CR15" s="3"/>
+      <c r="CS15" s="3"/>
+      <c r="CT15" s="3"/>
+      <c r="CU15" s="3"/>
+      <c r="CV15" s="3"/>
+      <c r="CW15" s="3"/>
+      <c r="CX15" s="3"/>
+      <c r="CY15" s="3"/>
+      <c r="CZ15" s="3"/>
+      <c r="DA15" s="3"/>
+      <c r="DB15" s="3"/>
+      <c r="DC15" s="3"/>
+      <c r="DD15" s="3"/>
+      <c r="DE15" s="3"/>
+      <c r="DF15" s="3"/>
+      <c r="DG15" s="3"/>
+      <c r="DH15" s="3"/>
+      <c r="DI15" s="3"/>
+      <c r="DJ15" s="3"/>
+      <c r="DK15" s="3"/>
+      <c r="DL15" s="3"/>
+      <c r="DM15" s="3"/>
+      <c r="DN15" s="3"/>
+      <c r="DO15" s="3"/>
+      <c r="DP15" s="3"/>
+      <c r="DQ15" s="3"/>
+      <c r="DR15" s="3"/>
+    </row>
+    <row r="16" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
+      <c r="AO16" s="3"/>
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="3"/>
+      <c r="AR16" s="3"/>
+      <c r="AS16" s="3"/>
+      <c r="AT16" s="3"/>
+      <c r="AU16" s="3"/>
+      <c r="AV16" s="3"/>
+      <c r="AW16" s="3"/>
+      <c r="AX16" s="3"/>
+      <c r="AY16" s="3"/>
+      <c r="AZ16" s="3"/>
+      <c r="BA16" s="3"/>
+      <c r="BB16" s="3"/>
+      <c r="BC16" s="3"/>
+      <c r="BD16" s="3"/>
+      <c r="BE16" s="3"/>
+      <c r="BF16" s="3"/>
+      <c r="BG16" s="3"/>
+      <c r="BH16" s="3"/>
+      <c r="BI16" s="3"/>
+      <c r="BJ16" s="3"/>
+      <c r="BK16" s="3"/>
+      <c r="BL16" s="3"/>
+      <c r="BM16" s="3"/>
+      <c r="BN16" s="3"/>
+      <c r="BO16" s="3"/>
+      <c r="BP16" s="3"/>
+      <c r="BQ16" s="3"/>
+      <c r="BR16" s="3"/>
+      <c r="BS16" s="3"/>
+      <c r="BT16" s="3"/>
+      <c r="BU16" s="3"/>
+      <c r="BV16" s="3"/>
+      <c r="BW16" s="3"/>
+      <c r="BX16" s="3"/>
+      <c r="BY16" s="3"/>
+      <c r="BZ16" s="3"/>
+      <c r="CA16" s="3"/>
+      <c r="CB16" s="3"/>
+      <c r="CC16" s="3"/>
+      <c r="CD16" s="3"/>
+      <c r="CE16" s="3"/>
+      <c r="CF16" s="3"/>
+      <c r="CG16" s="3"/>
+      <c r="CH16" s="3"/>
+      <c r="CI16" s="3"/>
+      <c r="CJ16" s="3"/>
+      <c r="CK16" s="3"/>
+      <c r="CL16" s="3"/>
+      <c r="CM16" s="3"/>
+      <c r="CN16" s="3"/>
+      <c r="CO16" s="3"/>
+      <c r="CP16" s="3"/>
+      <c r="CQ16" s="3"/>
+      <c r="CR16" s="3"/>
+      <c r="CS16" s="3"/>
+      <c r="CT16" s="3"/>
+      <c r="CU16" s="3"/>
+      <c r="CV16" s="3"/>
+      <c r="CW16" s="3"/>
+      <c r="CX16" s="3"/>
+      <c r="CY16" s="3"/>
+      <c r="CZ16" s="3"/>
+      <c r="DA16" s="3"/>
+      <c r="DB16" s="3"/>
+      <c r="DC16" s="3"/>
+      <c r="DD16" s="3"/>
+      <c r="DE16" s="3"/>
+      <c r="DF16" s="3"/>
+      <c r="DG16" s="3"/>
+      <c r="DH16" s="3"/>
+      <c r="DI16" s="3"/>
+      <c r="DJ16" s="3"/>
+      <c r="DK16" s="3"/>
+      <c r="DL16" s="3"/>
+      <c r="DM16" s="3"/>
+      <c r="DN16" s="3"/>
+      <c r="DO16" s="3"/>
+      <c r="DP16" s="3"/>
+      <c r="DQ16" s="3"/>
+      <c r="DR16" s="3"/>
+    </row>
+    <row r="17" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>0.27083333333333298</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="3"/>
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="3"/>
+      <c r="AR17" s="3"/>
+      <c r="AS17" s="3"/>
+      <c r="AT17" s="3"/>
+      <c r="AU17" s="3"/>
+      <c r="AV17" s="3"/>
+      <c r="AW17" s="3"/>
+      <c r="AX17" s="3"/>
+      <c r="AY17" s="3"/>
+      <c r="AZ17" s="3"/>
+      <c r="BA17" s="3"/>
+      <c r="BB17" s="3"/>
+      <c r="BC17" s="3"/>
+      <c r="BD17" s="3"/>
+      <c r="BE17" s="3"/>
+      <c r="BF17" s="3"/>
+      <c r="BG17" s="3"/>
+      <c r="BH17" s="3"/>
+      <c r="BI17" s="3"/>
+      <c r="BJ17" s="3"/>
+      <c r="BK17" s="3"/>
+      <c r="BL17" s="3"/>
+      <c r="BM17" s="3"/>
+      <c r="BN17" s="3"/>
+      <c r="BO17" s="3"/>
+      <c r="BP17" s="3"/>
+      <c r="BQ17" s="3"/>
+      <c r="BR17" s="3"/>
+      <c r="BS17" s="3"/>
+      <c r="BT17" s="3"/>
+      <c r="BU17" s="3"/>
+      <c r="BV17" s="3"/>
+      <c r="BW17" s="3"/>
+      <c r="BX17" s="3"/>
+      <c r="BY17" s="3"/>
+      <c r="BZ17" s="3"/>
+      <c r="CA17" s="3"/>
+      <c r="CB17" s="3"/>
+      <c r="CC17" s="3"/>
+      <c r="CD17" s="3"/>
+      <c r="CE17" s="3"/>
+      <c r="CF17" s="3"/>
+      <c r="CG17" s="3"/>
+      <c r="CH17" s="3"/>
+      <c r="CI17" s="3"/>
+      <c r="CJ17" s="3"/>
+      <c r="CK17" s="3"/>
+      <c r="CL17" s="3"/>
+      <c r="CM17" s="3"/>
+      <c r="CN17" s="3"/>
+      <c r="CO17" s="3"/>
+      <c r="CP17" s="3"/>
+      <c r="CQ17" s="3"/>
+      <c r="CR17" s="3"/>
+      <c r="CS17" s="3"/>
+      <c r="CT17" s="3"/>
+      <c r="CU17" s="3"/>
+      <c r="CV17" s="3"/>
+      <c r="CW17" s="3"/>
+      <c r="CX17" s="3"/>
+      <c r="CY17" s="3"/>
+      <c r="CZ17" s="3"/>
+      <c r="DA17" s="3"/>
+      <c r="DB17" s="3"/>
+      <c r="DC17" s="3"/>
+      <c r="DD17" s="3"/>
+      <c r="DE17" s="3"/>
+      <c r="DF17" s="3"/>
+      <c r="DG17" s="3"/>
+      <c r="DH17" s="3"/>
+      <c r="DI17" s="3"/>
+      <c r="DJ17" s="3"/>
+      <c r="DK17" s="3"/>
+      <c r="DL17" s="3"/>
+      <c r="DM17" s="3"/>
+      <c r="DN17" s="3"/>
+      <c r="DO17" s="3"/>
+      <c r="DP17" s="3"/>
+      <c r="DQ17" s="3"/>
+      <c r="DR17" s="3"/>
+    </row>
+    <row r="18" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="3"/>
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="3"/>
+      <c r="AR18" s="3"/>
+      <c r="AS18" s="3"/>
+      <c r="AT18" s="3"/>
+      <c r="AU18" s="3"/>
+      <c r="AV18" s="3"/>
+      <c r="AW18" s="3"/>
+      <c r="AX18" s="3"/>
+      <c r="AY18" s="3"/>
+      <c r="AZ18" s="3"/>
+      <c r="BA18" s="3"/>
+      <c r="BB18" s="3"/>
+      <c r="BC18" s="3"/>
+      <c r="BD18" s="3"/>
+      <c r="BE18" s="3"/>
+      <c r="BF18" s="3"/>
+      <c r="BG18" s="3"/>
+      <c r="BH18" s="3"/>
+      <c r="BI18" s="3"/>
+      <c r="BJ18" s="3"/>
+      <c r="BK18" s="3"/>
+      <c r="BL18" s="3"/>
+      <c r="BM18" s="3"/>
+      <c r="BN18" s="3"/>
+      <c r="BO18" s="3"/>
+      <c r="BP18" s="3"/>
+      <c r="BQ18" s="3"/>
+      <c r="BR18" s="3"/>
+      <c r="BS18" s="3"/>
+      <c r="BT18" s="3"/>
+      <c r="BU18" s="3"/>
+      <c r="BV18" s="3"/>
+      <c r="BW18" s="3"/>
+      <c r="BX18" s="3"/>
+      <c r="BY18" s="3"/>
+      <c r="BZ18" s="3"/>
+      <c r="CA18" s="3"/>
+      <c r="CB18" s="3"/>
+      <c r="CC18" s="3"/>
+      <c r="CD18" s="3"/>
+      <c r="CE18" s="3"/>
+      <c r="CF18" s="3"/>
+      <c r="CG18" s="3"/>
+      <c r="CH18" s="3"/>
+      <c r="CI18" s="3"/>
+      <c r="CJ18" s="3"/>
+      <c r="CK18" s="3"/>
+      <c r="CL18" s="3"/>
+      <c r="CM18" s="3"/>
+      <c r="CN18" s="3"/>
+      <c r="CO18" s="3"/>
+      <c r="CP18" s="3"/>
+      <c r="CQ18" s="3"/>
+      <c r="CR18" s="3"/>
+      <c r="CS18" s="3"/>
+      <c r="CT18" s="3"/>
+      <c r="CU18" s="3"/>
+      <c r="CV18" s="3"/>
+      <c r="CW18" s="3"/>
+      <c r="CX18" s="3"/>
+      <c r="CY18" s="3"/>
+      <c r="CZ18" s="3"/>
+      <c r="DA18" s="3"/>
+      <c r="DB18" s="3"/>
+      <c r="DC18" s="3"/>
+      <c r="DD18" s="3"/>
+      <c r="DE18" s="3"/>
+      <c r="DF18" s="3"/>
+      <c r="DG18" s="3"/>
+      <c r="DH18" s="3"/>
+      <c r="DI18" s="3"/>
+      <c r="DJ18" s="3"/>
+      <c r="DK18" s="3"/>
+      <c r="DL18" s="3"/>
+      <c r="DM18" s="3"/>
+      <c r="DN18" s="3"/>
+      <c r="DO18" s="3"/>
+      <c r="DP18" s="3"/>
+      <c r="DQ18" s="3"/>
+      <c r="DR18" s="3"/>
+    </row>
+    <row r="19" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="3"/>
+      <c r="AR19" s="3"/>
+      <c r="AS19" s="3"/>
+      <c r="AT19" s="3"/>
+      <c r="AU19" s="3"/>
+      <c r="AV19" s="3"/>
+      <c r="AW19" s="3"/>
+      <c r="AX19" s="3"/>
+      <c r="AY19" s="3"/>
+      <c r="AZ19" s="3"/>
+      <c r="BA19" s="3"/>
+      <c r="BB19" s="3"/>
+      <c r="BC19" s="3"/>
+      <c r="BD19" s="3"/>
+      <c r="BE19" s="3"/>
+      <c r="BF19" s="3"/>
+      <c r="BG19" s="3"/>
+      <c r="BH19" s="3"/>
+      <c r="BI19" s="3"/>
+      <c r="BJ19" s="3"/>
+      <c r="BK19" s="3"/>
+      <c r="BL19" s="3"/>
+      <c r="BM19" s="3"/>
+      <c r="BN19" s="3"/>
+      <c r="BO19" s="3"/>
+      <c r="BP19" s="3"/>
+      <c r="BQ19" s="3"/>
+      <c r="BR19" s="3"/>
+      <c r="BS19" s="3"/>
+      <c r="BT19" s="3"/>
+      <c r="BU19" s="3"/>
+      <c r="BV19" s="3"/>
+      <c r="BW19" s="3"/>
+      <c r="BX19" s="3"/>
+      <c r="BY19" s="3"/>
+      <c r="BZ19" s="3"/>
+      <c r="CA19" s="3"/>
+      <c r="CB19" s="3"/>
+      <c r="CC19" s="3"/>
+      <c r="CD19" s="3"/>
+      <c r="CE19" s="3"/>
+      <c r="CF19" s="3"/>
+      <c r="CG19" s="3"/>
+      <c r="CH19" s="3"/>
+      <c r="CI19" s="3"/>
+      <c r="CJ19" s="3"/>
+      <c r="CK19" s="3"/>
+      <c r="CL19" s="3"/>
+      <c r="CM19" s="3"/>
+      <c r="CN19" s="3"/>
+      <c r="CO19" s="3"/>
+      <c r="CP19" s="3"/>
+      <c r="CQ19" s="3"/>
+      <c r="CR19" s="3"/>
+      <c r="CS19" s="3"/>
+      <c r="CT19" s="3"/>
+      <c r="CU19" s="3"/>
+      <c r="CV19" s="3"/>
+      <c r="CW19" s="3"/>
+      <c r="CX19" s="3"/>
+      <c r="CY19" s="3"/>
+      <c r="CZ19" s="3"/>
+      <c r="DA19" s="3"/>
+      <c r="DB19" s="3"/>
+      <c r="DC19" s="3"/>
+      <c r="DD19" s="3"/>
+      <c r="DE19" s="3"/>
+      <c r="DF19" s="3"/>
+      <c r="DG19" s="3"/>
+      <c r="DH19" s="3"/>
+      <c r="DI19" s="3"/>
+      <c r="DJ19" s="3"/>
+      <c r="DK19" s="3"/>
+      <c r="DL19" s="3"/>
+      <c r="DM19" s="3"/>
+      <c r="DN19" s="3"/>
+      <c r="DO19" s="3"/>
+      <c r="DP19" s="3"/>
+      <c r="DQ19" s="3"/>
+      <c r="DR19" s="3"/>
+    </row>
+    <row r="20" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
+      <c r="AY20" s="3"/>
+      <c r="AZ20" s="3"/>
+      <c r="BA20" s="3"/>
+      <c r="BB20" s="3"/>
+      <c r="BC20" s="3"/>
+      <c r="BD20" s="3"/>
+      <c r="BE20" s="3"/>
+      <c r="BF20" s="3"/>
+      <c r="BG20" s="3"/>
+      <c r="BH20" s="3"/>
+      <c r="BI20" s="3"/>
+      <c r="BJ20" s="3"/>
+      <c r="BK20" s="3"/>
+      <c r="BL20" s="3"/>
+      <c r="BM20" s="3"/>
+      <c r="BN20" s="3"/>
+      <c r="BO20" s="3"/>
+      <c r="BP20" s="3"/>
+      <c r="BQ20" s="3"/>
+      <c r="BR20" s="3"/>
+      <c r="BS20" s="3"/>
+      <c r="BT20" s="3"/>
+      <c r="BU20" s="3"/>
+      <c r="BV20" s="3"/>
+      <c r="BW20" s="3"/>
+      <c r="BX20" s="3"/>
+      <c r="BY20" s="3"/>
+      <c r="BZ20" s="3"/>
+      <c r="CA20" s="3"/>
+      <c r="CB20" s="3"/>
+      <c r="CC20" s="3"/>
+      <c r="CD20" s="3"/>
+      <c r="CE20" s="3"/>
+      <c r="CF20" s="3"/>
+      <c r="CG20" s="3"/>
+      <c r="CH20" s="3"/>
+      <c r="CI20" s="3"/>
+      <c r="CJ20" s="3"/>
+      <c r="CK20" s="3"/>
+      <c r="CL20" s="3"/>
+      <c r="CM20" s="3"/>
+      <c r="CN20" s="3"/>
+      <c r="CO20" s="3"/>
+      <c r="CP20" s="3"/>
+      <c r="CQ20" s="3"/>
+      <c r="CR20" s="3"/>
+      <c r="CS20" s="3"/>
+      <c r="CT20" s="3"/>
+      <c r="CU20" s="3"/>
+      <c r="CV20" s="3"/>
+      <c r="CW20" s="3"/>
+      <c r="CX20" s="3"/>
+      <c r="CY20" s="3"/>
+      <c r="CZ20" s="3"/>
+      <c r="DA20" s="3"/>
+      <c r="DB20" s="3"/>
+      <c r="DC20" s="3"/>
+      <c r="DD20" s="3"/>
+      <c r="DE20" s="3"/>
+      <c r="DF20" s="3"/>
+      <c r="DG20" s="3"/>
+      <c r="DH20" s="3"/>
+      <c r="DI20" s="3"/>
+      <c r="DJ20" s="3"/>
+      <c r="DK20" s="3"/>
+      <c r="DL20" s="3"/>
+      <c r="DM20" s="3"/>
+      <c r="DN20" s="3"/>
+      <c r="DO20" s="3"/>
+      <c r="DP20" s="3"/>
+      <c r="DQ20" s="3"/>
+      <c r="DR20" s="3"/>
+    </row>
+    <row r="21" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>0.35416666666666702</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3"/>
+      <c r="AW21" s="3"/>
+      <c r="AX21" s="3"/>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="3"/>
+      <c r="BA21" s="3"/>
+      <c r="BB21" s="3"/>
+      <c r="BC21" s="3"/>
+      <c r="BD21" s="3"/>
+      <c r="BE21" s="3"/>
+      <c r="BF21" s="3"/>
+      <c r="BG21" s="3"/>
+      <c r="BH21" s="3"/>
+      <c r="BI21" s="3"/>
+      <c r="BJ21" s="3"/>
+      <c r="BK21" s="3"/>
+      <c r="BL21" s="3"/>
+      <c r="BM21" s="3"/>
+      <c r="BN21" s="3"/>
+      <c r="BO21" s="3"/>
+      <c r="BP21" s="3"/>
+      <c r="BQ21" s="3"/>
+      <c r="BR21" s="3"/>
+      <c r="BS21" s="3"/>
+      <c r="BT21" s="3"/>
+      <c r="BU21" s="3"/>
+      <c r="BV21" s="3"/>
+      <c r="BW21" s="3"/>
+      <c r="BX21" s="3"/>
+      <c r="BY21" s="3"/>
+      <c r="BZ21" s="3"/>
+      <c r="CA21" s="3"/>
+      <c r="CB21" s="3"/>
+      <c r="CC21" s="3"/>
+      <c r="CD21" s="3"/>
+      <c r="CE21" s="3"/>
+      <c r="CF21" s="3"/>
+      <c r="CG21" s="3"/>
+      <c r="CH21" s="3"/>
+      <c r="CI21" s="3"/>
+      <c r="CJ21" s="3"/>
+      <c r="CK21" s="3"/>
+      <c r="CL21" s="3"/>
+      <c r="CM21" s="3"/>
+      <c r="CN21" s="3"/>
+      <c r="CO21" s="3"/>
+      <c r="CP21" s="3"/>
+      <c r="CQ21" s="3"/>
+      <c r="CR21" s="3"/>
+      <c r="CS21" s="3"/>
+      <c r="CT21" s="3"/>
+      <c r="CU21" s="3"/>
+      <c r="CV21" s="3"/>
+      <c r="CW21" s="3"/>
+      <c r="CX21" s="3"/>
+      <c r="CY21" s="3"/>
+      <c r="CZ21" s="3"/>
+      <c r="DA21" s="3"/>
+      <c r="DB21" s="3"/>
+      <c r="DC21" s="3"/>
+      <c r="DD21" s="3"/>
+      <c r="DE21" s="3"/>
+      <c r="DF21" s="3"/>
+      <c r="DG21" s="3"/>
+      <c r="DH21" s="3"/>
+      <c r="DI21" s="3"/>
+      <c r="DJ21" s="3"/>
+      <c r="DK21" s="3"/>
+      <c r="DL21" s="3"/>
+      <c r="DM21" s="3"/>
+      <c r="DN21" s="3"/>
+      <c r="DO21" s="3"/>
+      <c r="DP21" s="3"/>
+      <c r="DQ21" s="3"/>
+      <c r="DR21" s="3"/>
+    </row>
+    <row r="22" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
+      <c r="BA22" s="3"/>
+      <c r="BB22" s="3"/>
+      <c r="BC22" s="3"/>
+      <c r="BD22" s="3"/>
+      <c r="BE22" s="3"/>
+      <c r="BF22" s="3"/>
+      <c r="BG22" s="3"/>
+      <c r="BH22" s="3"/>
+      <c r="BI22" s="3"/>
+      <c r="BJ22" s="3"/>
+      <c r="BK22" s="3"/>
+      <c r="BL22" s="3"/>
+      <c r="BM22" s="3"/>
+      <c r="BN22" s="3"/>
+      <c r="BO22" s="3"/>
+      <c r="BP22" s="3"/>
+      <c r="BQ22" s="3"/>
+      <c r="BR22" s="3"/>
+      <c r="BS22" s="3"/>
+      <c r="BT22" s="3"/>
+      <c r="BU22" s="3"/>
+      <c r="BV22" s="3"/>
+      <c r="BW22" s="3"/>
+      <c r="BX22" s="3"/>
+      <c r="BY22" s="3"/>
+      <c r="BZ22" s="3"/>
+      <c r="CA22" s="3"/>
+      <c r="CB22" s="3"/>
+      <c r="CC22" s="3"/>
+      <c r="CD22" s="3"/>
+      <c r="CE22" s="3"/>
+      <c r="CF22" s="3"/>
+      <c r="CG22" s="3"/>
+      <c r="CH22" s="3"/>
+      <c r="CI22" s="3"/>
+      <c r="CJ22" s="3"/>
+      <c r="CK22" s="3"/>
+      <c r="CL22" s="3"/>
+      <c r="CM22" s="3"/>
+      <c r="CN22" s="3"/>
+      <c r="CO22" s="3"/>
+      <c r="CP22" s="3"/>
+      <c r="CQ22" s="3"/>
+      <c r="CR22" s="3"/>
+      <c r="CS22" s="3"/>
+      <c r="CT22" s="3"/>
+      <c r="CU22" s="3"/>
+      <c r="CV22" s="3"/>
+      <c r="CW22" s="3"/>
+      <c r="CX22" s="3"/>
+      <c r="CY22" s="3"/>
+      <c r="CZ22" s="3"/>
+      <c r="DA22" s="3"/>
+      <c r="DB22" s="3"/>
+      <c r="DC22" s="3"/>
+      <c r="DD22" s="3"/>
+      <c r="DE22" s="3"/>
+      <c r="DF22" s="3"/>
+      <c r="DG22" s="3"/>
+      <c r="DH22" s="3"/>
+      <c r="DI22" s="3"/>
+      <c r="DJ22" s="3"/>
+      <c r="DK22" s="3"/>
+      <c r="DL22" s="3"/>
+      <c r="DM22" s="3"/>
+      <c r="DN22" s="3"/>
+      <c r="DO22" s="3"/>
+      <c r="DP22" s="3"/>
+      <c r="DQ22" s="3"/>
+      <c r="DR22" s="3"/>
+    </row>
+    <row r="23" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+      <c r="AS23" s="3"/>
+      <c r="AT23" s="3"/>
+      <c r="AU23" s="3"/>
+      <c r="AV23" s="3"/>
+      <c r="AW23" s="3"/>
+      <c r="AX23" s="3"/>
+      <c r="AY23" s="3"/>
+      <c r="AZ23" s="3"/>
+      <c r="BA23" s="3"/>
+      <c r="BB23" s="3"/>
+      <c r="BC23" s="3"/>
+      <c r="BD23" s="3"/>
+      <c r="BE23" s="3"/>
+      <c r="BF23" s="3"/>
+      <c r="BG23" s="3"/>
+      <c r="BH23" s="3"/>
+      <c r="BI23" s="3"/>
+      <c r="BJ23" s="3"/>
+      <c r="BK23" s="3"/>
+      <c r="BL23" s="3"/>
+      <c r="BM23" s="3"/>
+      <c r="BN23" s="3"/>
+      <c r="BO23" s="3"/>
+      <c r="BP23" s="3"/>
+      <c r="BQ23" s="3"/>
+      <c r="BR23" s="3"/>
+      <c r="BS23" s="3"/>
+      <c r="BT23" s="3"/>
+      <c r="BU23" s="3"/>
+      <c r="BV23" s="3"/>
+      <c r="BW23" s="3"/>
+      <c r="BX23" s="3"/>
+      <c r="BY23" s="3"/>
+      <c r="BZ23" s="3"/>
+      <c r="CA23" s="3"/>
+      <c r="CB23" s="3"/>
+      <c r="CC23" s="3"/>
+      <c r="CD23" s="3"/>
+      <c r="CE23" s="3"/>
+      <c r="CF23" s="3"/>
+      <c r="CG23" s="3"/>
+      <c r="CH23" s="3"/>
+      <c r="CI23" s="3"/>
+      <c r="CJ23" s="3"/>
+      <c r="CK23" s="3"/>
+      <c r="CL23" s="3"/>
+      <c r="CM23" s="3"/>
+      <c r="CN23" s="3"/>
+      <c r="CO23" s="3"/>
+      <c r="CP23" s="3"/>
+      <c r="CQ23" s="3"/>
+      <c r="CR23" s="3"/>
+      <c r="CS23" s="3"/>
+      <c r="CT23" s="3"/>
+      <c r="CU23" s="3"/>
+      <c r="CV23" s="3"/>
+      <c r="CW23" s="3"/>
+      <c r="CX23" s="3"/>
+      <c r="CY23" s="3"/>
+      <c r="CZ23" s="3"/>
+      <c r="DA23" s="3"/>
+      <c r="DB23" s="3"/>
+      <c r="DC23" s="3"/>
+      <c r="DD23" s="3"/>
+      <c r="DE23" s="3"/>
+      <c r="DF23" s="3"/>
+      <c r="DG23" s="3"/>
+      <c r="DH23" s="3"/>
+      <c r="DI23" s="3"/>
+      <c r="DJ23" s="3"/>
+      <c r="DK23" s="3"/>
+      <c r="DL23" s="3"/>
+      <c r="DM23" s="3"/>
+      <c r="DN23" s="3"/>
+      <c r="DO23" s="3"/>
+      <c r="DP23" s="3"/>
+      <c r="DQ23" s="3"/>
+      <c r="DR23" s="3"/>
+    </row>
+    <row r="24" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="3"/>
+      <c r="AT24" s="3"/>
+      <c r="AU24" s="3"/>
+      <c r="AV24" s="3"/>
+      <c r="AW24" s="3"/>
+      <c r="AX24" s="3"/>
+      <c r="AY24" s="3"/>
+      <c r="AZ24" s="3"/>
+      <c r="BA24" s="3"/>
+      <c r="BB24" s="3"/>
+      <c r="BC24" s="3"/>
+      <c r="BD24" s="3"/>
+      <c r="BE24" s="3"/>
+      <c r="BF24" s="3"/>
+      <c r="BG24" s="3"/>
+      <c r="BH24" s="3"/>
+      <c r="BI24" s="3"/>
+      <c r="BJ24" s="3"/>
+      <c r="BK24" s="3"/>
+      <c r="BL24" s="3"/>
+      <c r="BM24" s="3"/>
+      <c r="BN24" s="3"/>
+      <c r="BO24" s="3"/>
+      <c r="BP24" s="3"/>
+      <c r="BQ24" s="3"/>
+      <c r="BR24" s="3"/>
+      <c r="BS24" s="3"/>
+      <c r="BT24" s="3"/>
+      <c r="BU24" s="3"/>
+      <c r="BV24" s="3"/>
+      <c r="BW24" s="3"/>
+      <c r="BX24" s="3"/>
+      <c r="BY24" s="3"/>
+      <c r="BZ24" s="3"/>
+      <c r="CA24" s="3"/>
+      <c r="CB24" s="3"/>
+      <c r="CC24" s="3"/>
+      <c r="CD24" s="3"/>
+      <c r="CE24" s="3"/>
+      <c r="CF24" s="3"/>
+      <c r="CG24" s="3"/>
+      <c r="CH24" s="3"/>
+      <c r="CI24" s="3"/>
+      <c r="CJ24" s="3"/>
+      <c r="CK24" s="3"/>
+      <c r="CL24" s="3"/>
+      <c r="CM24" s="3"/>
+      <c r="CN24" s="3"/>
+      <c r="CO24" s="3"/>
+      <c r="CP24" s="3"/>
+      <c r="CQ24" s="3"/>
+      <c r="CR24" s="3"/>
+      <c r="CS24" s="3"/>
+      <c r="CT24" s="3"/>
+      <c r="CU24" s="3"/>
+      <c r="CV24" s="3"/>
+      <c r="CW24" s="3"/>
+      <c r="CX24" s="3"/>
+      <c r="CY24" s="3"/>
+      <c r="CZ24" s="3"/>
+      <c r="DA24" s="3"/>
+      <c r="DB24" s="3"/>
+      <c r="DC24" s="3"/>
+      <c r="DD24" s="3"/>
+      <c r="DE24" s="3"/>
+      <c r="DF24" s="3"/>
+      <c r="DG24" s="3"/>
+      <c r="DH24" s="3"/>
+      <c r="DI24" s="3"/>
+      <c r="DJ24" s="3"/>
+      <c r="DK24" s="3"/>
+      <c r="DL24" s="3"/>
+      <c r="DM24" s="3"/>
+      <c r="DN24" s="3"/>
+      <c r="DO24" s="3"/>
+      <c r="DP24" s="3"/>
+      <c r="DQ24" s="3"/>
+      <c r="DR24" s="3"/>
+    </row>
+    <row r="25" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="3"/>
+      <c r="AS25" s="3"/>
+      <c r="AT25" s="3"/>
+      <c r="AU25" s="3"/>
+      <c r="AV25" s="3"/>
+      <c r="AW25" s="3"/>
+      <c r="AX25" s="3"/>
+      <c r="AY25" s="3"/>
+      <c r="AZ25" s="3"/>
+      <c r="BA25" s="3"/>
+      <c r="BB25" s="3"/>
+      <c r="BC25" s="3"/>
+      <c r="BD25" s="3"/>
+      <c r="BE25" s="3"/>
+      <c r="BF25" s="3"/>
+      <c r="BG25" s="3"/>
+      <c r="BH25" s="3"/>
+      <c r="BI25" s="3"/>
+      <c r="BJ25" s="3"/>
+      <c r="BK25" s="3"/>
+      <c r="BL25" s="3"/>
+      <c r="BM25" s="3"/>
+      <c r="BN25" s="3"/>
+      <c r="BO25" s="3"/>
+      <c r="BP25" s="3"/>
+      <c r="BQ25" s="3"/>
+      <c r="BR25" s="3"/>
+      <c r="BS25" s="3"/>
+      <c r="BT25" s="3"/>
+      <c r="BU25" s="3"/>
+      <c r="BV25" s="3"/>
+      <c r="BW25" s="3"/>
+      <c r="BX25" s="3"/>
+      <c r="BY25" s="3"/>
+      <c r="BZ25" s="3"/>
+      <c r="CA25" s="3"/>
+      <c r="CB25" s="3"/>
+      <c r="CC25" s="3"/>
+      <c r="CD25" s="3"/>
+      <c r="CE25" s="3"/>
+      <c r="CF25" s="3"/>
+      <c r="CG25" s="3"/>
+      <c r="CH25" s="3"/>
+      <c r="CI25" s="3"/>
+      <c r="CJ25" s="3"/>
+      <c r="CK25" s="3"/>
+      <c r="CL25" s="3"/>
+      <c r="CM25" s="3"/>
+      <c r="CN25" s="3"/>
+      <c r="CO25" s="3"/>
+      <c r="CP25" s="3"/>
+      <c r="CQ25" s="3"/>
+      <c r="CR25" s="3"/>
+      <c r="CS25" s="3"/>
+      <c r="CT25" s="3"/>
+      <c r="CU25" s="3"/>
+      <c r="CV25" s="3"/>
+      <c r="CW25" s="3"/>
+      <c r="CX25" s="3"/>
+      <c r="CY25" s="3"/>
+      <c r="CZ25" s="3"/>
+      <c r="DA25" s="3"/>
+      <c r="DB25" s="3"/>
+      <c r="DC25" s="3"/>
+      <c r="DD25" s="3"/>
+      <c r="DE25" s="3"/>
+      <c r="DF25" s="3"/>
+      <c r="DG25" s="3"/>
+      <c r="DH25" s="3"/>
+      <c r="DI25" s="3"/>
+      <c r="DJ25" s="3"/>
+      <c r="DK25" s="3"/>
+      <c r="DL25" s="3"/>
+      <c r="DM25" s="3"/>
+      <c r="DN25" s="3"/>
+      <c r="DO25" s="3"/>
+      <c r="DP25" s="3"/>
+      <c r="DQ25" s="3"/>
+      <c r="DR25" s="3"/>
+    </row>
+    <row r="26" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="3"/>
+      <c r="AS26" s="3"/>
+      <c r="AT26" s="3"/>
+      <c r="AU26" s="3"/>
+      <c r="AV26" s="3"/>
+      <c r="AW26" s="3"/>
+      <c r="AX26" s="3"/>
+      <c r="AY26" s="3"/>
+      <c r="AZ26" s="3"/>
+      <c r="BA26" s="3"/>
+      <c r="BB26" s="3"/>
+      <c r="BC26" s="3"/>
+      <c r="BD26" s="3"/>
+      <c r="BE26" s="3"/>
+      <c r="BF26" s="3"/>
+      <c r="BG26" s="3"/>
+      <c r="BH26" s="3"/>
+      <c r="BI26" s="3"/>
+      <c r="BJ26" s="3"/>
+      <c r="BK26" s="3"/>
+      <c r="BL26" s="3"/>
+      <c r="BM26" s="3"/>
+      <c r="BN26" s="3"/>
+      <c r="BO26" s="3"/>
+      <c r="BP26" s="3"/>
+      <c r="BQ26" s="3"/>
+      <c r="BR26" s="3"/>
+      <c r="BS26" s="3"/>
+      <c r="BT26" s="3"/>
+      <c r="BU26" s="3"/>
+      <c r="BV26" s="3"/>
+      <c r="BW26" s="3"/>
+      <c r="BX26" s="3"/>
+      <c r="BY26" s="3"/>
+      <c r="BZ26" s="3"/>
+      <c r="CA26" s="3"/>
+      <c r="CB26" s="3"/>
+      <c r="CC26" s="3"/>
+      <c r="CD26" s="3"/>
+      <c r="CE26" s="3"/>
+      <c r="CF26" s="3"/>
+      <c r="CG26" s="3"/>
+      <c r="CH26" s="3"/>
+      <c r="CI26" s="3"/>
+      <c r="CJ26" s="3"/>
+      <c r="CK26" s="3"/>
+      <c r="CL26" s="3"/>
+      <c r="CM26" s="3"/>
+      <c r="CN26" s="3"/>
+      <c r="CO26" s="3"/>
+      <c r="CP26" s="3"/>
+      <c r="CQ26" s="3"/>
+      <c r="CR26" s="3"/>
+      <c r="CS26" s="3"/>
+      <c r="CT26" s="3"/>
+      <c r="CU26" s="3"/>
+      <c r="CV26" s="3"/>
+      <c r="CW26" s="3"/>
+      <c r="CX26" s="3"/>
+      <c r="CY26" s="3"/>
+      <c r="CZ26" s="3"/>
+      <c r="DA26" s="3"/>
+      <c r="DB26" s="3"/>
+      <c r="DC26" s="3"/>
+      <c r="DD26" s="3"/>
+      <c r="DE26" s="3"/>
+      <c r="DF26" s="3"/>
+      <c r="DG26" s="3"/>
+      <c r="DH26" s="3"/>
+      <c r="DI26" s="3"/>
+      <c r="DJ26" s="3"/>
+      <c r="DK26" s="3"/>
+      <c r="DL26" s="3"/>
+      <c r="DM26" s="3"/>
+      <c r="DN26" s="3"/>
+      <c r="DO26" s="3"/>
+      <c r="DP26" s="3"/>
+      <c r="DQ26" s="3"/>
+      <c r="DR26" s="3"/>
+    </row>
+    <row r="27" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="3"/>
+      <c r="AR27" s="3"/>
+      <c r="AS27" s="3"/>
+      <c r="AT27" s="3"/>
+      <c r="AU27" s="3"/>
+      <c r="AV27" s="3"/>
+      <c r="AW27" s="3"/>
+      <c r="AX27" s="3"/>
+      <c r="AY27" s="3"/>
+      <c r="AZ27" s="3"/>
+      <c r="BA27" s="3"/>
+      <c r="BB27" s="3"/>
+      <c r="BC27" s="3"/>
+      <c r="BD27" s="3"/>
+      <c r="BE27" s="3"/>
+      <c r="BF27" s="3"/>
+      <c r="BG27" s="3"/>
+      <c r="BH27" s="3"/>
+      <c r="BI27" s="3"/>
+      <c r="BJ27" s="3"/>
+      <c r="BK27" s="3"/>
+      <c r="BL27" s="3"/>
+      <c r="BM27" s="3"/>
+      <c r="BN27" s="3"/>
+      <c r="BO27" s="3"/>
+      <c r="BP27" s="3"/>
+      <c r="BQ27" s="3"/>
+      <c r="BR27" s="3"/>
+      <c r="BS27" s="3"/>
+      <c r="BT27" s="3"/>
+      <c r="BU27" s="3"/>
+      <c r="BV27" s="3"/>
+      <c r="BW27" s="3"/>
+      <c r="BX27" s="3"/>
+      <c r="BY27" s="3"/>
+      <c r="BZ27" s="3"/>
+      <c r="CA27" s="3"/>
+      <c r="CB27" s="3"/>
+      <c r="CC27" s="3"/>
+      <c r="CD27" s="3"/>
+      <c r="CE27" s="3"/>
+      <c r="CF27" s="3"/>
+      <c r="CG27" s="3"/>
+      <c r="CH27" s="3"/>
+      <c r="CI27" s="3"/>
+      <c r="CJ27" s="3"/>
+      <c r="CK27" s="3"/>
+      <c r="CL27" s="3"/>
+      <c r="CM27" s="3"/>
+      <c r="CN27" s="3"/>
+      <c r="CO27" s="3"/>
+      <c r="CP27" s="3"/>
+      <c r="CQ27" s="3"/>
+      <c r="CR27" s="3"/>
+      <c r="CS27" s="3"/>
+      <c r="CT27" s="3"/>
+      <c r="CU27" s="3"/>
+      <c r="CV27" s="3"/>
+      <c r="CW27" s="3"/>
+      <c r="CX27" s="3"/>
+      <c r="CY27" s="3"/>
+      <c r="CZ27" s="3"/>
+      <c r="DA27" s="3"/>
+      <c r="DB27" s="3"/>
+      <c r="DC27" s="3"/>
+      <c r="DD27" s="3"/>
+      <c r="DE27" s="3"/>
+      <c r="DF27" s="3"/>
+      <c r="DG27" s="3"/>
+      <c r="DH27" s="3"/>
+      <c r="DI27" s="3"/>
+      <c r="DJ27" s="3"/>
+      <c r="DK27" s="3"/>
+      <c r="DL27" s="3"/>
+      <c r="DM27" s="3"/>
+      <c r="DN27" s="3"/>
+      <c r="DO27" s="3"/>
+      <c r="DP27" s="3"/>
+      <c r="DQ27" s="3"/>
+      <c r="DR27" s="3"/>
+    </row>
+    <row r="28" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="3"/>
+      <c r="AR28" s="3"/>
+      <c r="AS28" s="3"/>
+      <c r="AT28" s="3"/>
+      <c r="AU28" s="3"/>
+      <c r="AV28" s="3"/>
+      <c r="AW28" s="3"/>
+      <c r="AX28" s="3"/>
+      <c r="AY28" s="3"/>
+      <c r="AZ28" s="3"/>
+      <c r="BA28" s="3"/>
+      <c r="BB28" s="3"/>
+      <c r="BC28" s="3"/>
+      <c r="BD28" s="3"/>
+      <c r="BE28" s="3"/>
+      <c r="BF28" s="3"/>
+      <c r="BG28" s="3"/>
+      <c r="BH28" s="3"/>
+      <c r="BI28" s="3"/>
+      <c r="BJ28" s="3"/>
+      <c r="BK28" s="3"/>
+      <c r="BL28" s="3"/>
+      <c r="BM28" s="3"/>
+      <c r="BN28" s="3"/>
+      <c r="BO28" s="3"/>
+      <c r="BP28" s="3"/>
+      <c r="BQ28" s="3"/>
+      <c r="BR28" s="3"/>
+      <c r="BS28" s="3"/>
+      <c r="BT28" s="3"/>
+      <c r="BU28" s="3"/>
+      <c r="BV28" s="3"/>
+      <c r="BW28" s="3"/>
+      <c r="BX28" s="3"/>
+      <c r="BY28" s="3"/>
+      <c r="BZ28" s="3"/>
+      <c r="CA28" s="3"/>
+      <c r="CB28" s="3"/>
+      <c r="CC28" s="3"/>
+      <c r="CD28" s="3"/>
+      <c r="CE28" s="3"/>
+      <c r="CF28" s="3"/>
+      <c r="CG28" s="3"/>
+      <c r="CH28" s="3"/>
+      <c r="CI28" s="3"/>
+      <c r="CJ28" s="3"/>
+      <c r="CK28" s="3"/>
+      <c r="CL28" s="3"/>
+      <c r="CM28" s="3"/>
+      <c r="CN28" s="3"/>
+      <c r="CO28" s="3"/>
+      <c r="CP28" s="3"/>
+      <c r="CQ28" s="3"/>
+      <c r="CR28" s="3"/>
+      <c r="CS28" s="3"/>
+      <c r="CT28" s="3"/>
+      <c r="CU28" s="3"/>
+      <c r="CV28" s="3"/>
+      <c r="CW28" s="3"/>
+      <c r="CX28" s="3"/>
+      <c r="CY28" s="3"/>
+      <c r="CZ28" s="3"/>
+      <c r="DA28" s="3"/>
+      <c r="DB28" s="3"/>
+      <c r="DC28" s="3"/>
+      <c r="DD28" s="3"/>
+      <c r="DE28" s="3"/>
+      <c r="DF28" s="3"/>
+      <c r="DG28" s="3"/>
+      <c r="DH28" s="3"/>
+      <c r="DI28" s="3"/>
+      <c r="DJ28" s="3"/>
+      <c r="DK28" s="3"/>
+      <c r="DL28" s="3"/>
+      <c r="DM28" s="3"/>
+      <c r="DN28" s="3"/>
+      <c r="DO28" s="3"/>
+      <c r="DP28" s="3"/>
+      <c r="DQ28" s="3"/>
+      <c r="DR28" s="3"/>
+    </row>
+    <row r="29" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="3"/>
+      <c r="AR29" s="3"/>
+      <c r="AS29" s="3"/>
+      <c r="AT29" s="3"/>
+      <c r="AU29" s="3"/>
+      <c r="AV29" s="3"/>
+      <c r="AW29" s="3"/>
+      <c r="AX29" s="3"/>
+      <c r="AY29" s="3"/>
+      <c r="AZ29" s="3"/>
+      <c r="BA29" s="3"/>
+      <c r="BB29" s="3"/>
+      <c r="BC29" s="3"/>
+      <c r="BD29" s="3"/>
+      <c r="BE29" s="3"/>
+      <c r="BF29" s="3"/>
+      <c r="BG29" s="3"/>
+      <c r="BH29" s="3"/>
+      <c r="BI29" s="3"/>
+      <c r="BJ29" s="3"/>
+      <c r="BK29" s="3"/>
+      <c r="BL29" s="3"/>
+      <c r="BM29" s="3"/>
+      <c r="BN29" s="3"/>
+      <c r="BO29" s="3"/>
+      <c r="BP29" s="3"/>
+      <c r="BQ29" s="3"/>
+      <c r="BR29" s="3"/>
+      <c r="BS29" s="3"/>
+      <c r="BT29" s="3"/>
+      <c r="BU29" s="3"/>
+      <c r="BV29" s="3"/>
+      <c r="BW29" s="3"/>
+      <c r="BX29" s="3"/>
+      <c r="BY29" s="3"/>
+      <c r="BZ29" s="3"/>
+      <c r="CA29" s="3"/>
+      <c r="CB29" s="3"/>
+      <c r="CC29" s="3"/>
+      <c r="CD29" s="3"/>
+      <c r="CE29" s="3"/>
+      <c r="CF29" s="3"/>
+      <c r="CG29" s="3"/>
+      <c r="CH29" s="3"/>
+      <c r="CI29" s="3"/>
+      <c r="CJ29" s="3"/>
+      <c r="CK29" s="3"/>
+      <c r="CL29" s="3"/>
+      <c r="CM29" s="3"/>
+      <c r="CN29" s="3"/>
+      <c r="CO29" s="3"/>
+      <c r="CP29" s="3"/>
+      <c r="CQ29" s="3"/>
+      <c r="CR29" s="3"/>
+      <c r="CS29" s="3"/>
+      <c r="CT29" s="3"/>
+      <c r="CU29" s="3"/>
+      <c r="CV29" s="3"/>
+      <c r="CW29" s="3"/>
+      <c r="CX29" s="3"/>
+      <c r="CY29" s="3"/>
+      <c r="CZ29" s="3"/>
+      <c r="DA29" s="3"/>
+      <c r="DB29" s="3"/>
+      <c r="DC29" s="3"/>
+      <c r="DD29" s="3"/>
+      <c r="DE29" s="3"/>
+      <c r="DF29" s="3"/>
+      <c r="DG29" s="3"/>
+      <c r="DH29" s="3"/>
+      <c r="DI29" s="3"/>
+      <c r="DJ29" s="3"/>
+      <c r="DK29" s="3"/>
+      <c r="DL29" s="3"/>
+      <c r="DM29" s="3"/>
+      <c r="DN29" s="3"/>
+      <c r="DO29" s="3"/>
+      <c r="DP29" s="3"/>
+      <c r="DQ29" s="3"/>
+      <c r="DR29" s="3"/>
+    </row>
+    <row r="30" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="3"/>
+      <c r="AO30" s="3"/>
+      <c r="AP30" s="3"/>
+      <c r="AQ30" s="3"/>
+      <c r="AR30" s="3"/>
+      <c r="AS30" s="3"/>
+      <c r="AT30" s="3"/>
+      <c r="AU30" s="3"/>
+      <c r="AV30" s="3"/>
+      <c r="AW30" s="3"/>
+      <c r="AX30" s="3"/>
+      <c r="AY30" s="3"/>
+      <c r="AZ30" s="3"/>
+      <c r="BA30" s="3"/>
+      <c r="BB30" s="3"/>
+      <c r="BC30" s="3"/>
+      <c r="BD30" s="3"/>
+      <c r="BE30" s="3"/>
+      <c r="BF30" s="3"/>
+      <c r="BG30" s="3"/>
+      <c r="BH30" s="3"/>
+      <c r="BI30" s="3"/>
+      <c r="BJ30" s="3"/>
+      <c r="BK30" s="3"/>
+      <c r="BL30" s="3"/>
+      <c r="BM30" s="3"/>
+      <c r="BN30" s="3"/>
+      <c r="BO30" s="3"/>
+      <c r="BP30" s="3"/>
+      <c r="BQ30" s="3"/>
+      <c r="BR30" s="3"/>
+      <c r="BS30" s="3"/>
+      <c r="BT30" s="3"/>
+      <c r="BU30" s="3"/>
+      <c r="BV30" s="3"/>
+      <c r="BW30" s="3"/>
+      <c r="BX30" s="3"/>
+      <c r="BY30" s="3"/>
+      <c r="BZ30" s="3"/>
+      <c r="CA30" s="3"/>
+      <c r="CB30" s="3"/>
+      <c r="CC30" s="3"/>
+      <c r="CD30" s="3"/>
+      <c r="CE30" s="3"/>
+      <c r="CF30" s="3"/>
+      <c r="CG30" s="3"/>
+      <c r="CH30" s="3"/>
+      <c r="CI30" s="3"/>
+      <c r="CJ30" s="3"/>
+      <c r="CK30" s="3"/>
+      <c r="CL30" s="3"/>
+      <c r="CM30" s="3"/>
+      <c r="CN30" s="3"/>
+      <c r="CO30" s="3"/>
+      <c r="CP30" s="3"/>
+      <c r="CQ30" s="3"/>
+      <c r="CR30" s="3"/>
+      <c r="CS30" s="3"/>
+      <c r="CT30" s="3"/>
+      <c r="CU30" s="3"/>
+      <c r="CV30" s="3"/>
+      <c r="CW30" s="3"/>
+      <c r="CX30" s="3"/>
+      <c r="CY30" s="3"/>
+      <c r="CZ30" s="3"/>
+      <c r="DA30" s="3"/>
+      <c r="DB30" s="3"/>
+      <c r="DC30" s="3"/>
+      <c r="DD30" s="3"/>
+      <c r="DE30" s="3"/>
+      <c r="DF30" s="3"/>
+      <c r="DG30" s="3"/>
+      <c r="DH30" s="3"/>
+      <c r="DI30" s="3"/>
+      <c r="DJ30" s="3"/>
+      <c r="DK30" s="3"/>
+      <c r="DL30" s="3"/>
+      <c r="DM30" s="3"/>
+      <c r="DN30" s="3"/>
+      <c r="DO30" s="3"/>
+      <c r="DP30" s="3"/>
+      <c r="DQ30" s="3"/>
+      <c r="DR30" s="3"/>
+    </row>
+    <row r="31" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="3"/>
+      <c r="AO31" s="3"/>
+      <c r="AP31" s="3"/>
+      <c r="AQ31" s="3"/>
+      <c r="AR31" s="3"/>
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="3"/>
+      <c r="AU31" s="3"/>
+      <c r="AV31" s="3"/>
+      <c r="AW31" s="3"/>
+      <c r="AX31" s="3"/>
+      <c r="AY31" s="3"/>
+      <c r="AZ31" s="3"/>
+      <c r="BA31" s="3"/>
+      <c r="BB31" s="3"/>
+      <c r="BC31" s="3"/>
+      <c r="BD31" s="3"/>
+      <c r="BE31" s="3"/>
+      <c r="BF31" s="3"/>
+      <c r="BG31" s="3"/>
+      <c r="BH31" s="3"/>
+      <c r="BI31" s="3"/>
+      <c r="BJ31" s="3"/>
+      <c r="BK31" s="3"/>
+      <c r="BL31" s="3"/>
+      <c r="BM31" s="3"/>
+      <c r="BN31" s="3"/>
+      <c r="BO31" s="3"/>
+      <c r="BP31" s="3"/>
+      <c r="BQ31" s="3"/>
+      <c r="BR31" s="3"/>
+      <c r="BS31" s="3"/>
+      <c r="BT31" s="3"/>
+      <c r="BU31" s="3"/>
+      <c r="BV31" s="3"/>
+      <c r="BW31" s="3"/>
+      <c r="BX31" s="3"/>
+      <c r="BY31" s="3"/>
+      <c r="BZ31" s="3"/>
+      <c r="CA31" s="3"/>
+      <c r="CB31" s="3"/>
+      <c r="CC31" s="3"/>
+      <c r="CD31" s="3"/>
+      <c r="CE31" s="3"/>
+      <c r="CF31" s="3"/>
+      <c r="CG31" s="3"/>
+      <c r="CH31" s="3"/>
+      <c r="CI31" s="3"/>
+      <c r="CJ31" s="3"/>
+      <c r="CK31" s="3"/>
+      <c r="CL31" s="3"/>
+      <c r="CM31" s="3"/>
+      <c r="CN31" s="3"/>
+      <c r="CO31" s="3"/>
+      <c r="CP31" s="3"/>
+      <c r="CQ31" s="3"/>
+      <c r="CR31" s="3"/>
+      <c r="CS31" s="3"/>
+      <c r="CT31" s="3"/>
+      <c r="CU31" s="3"/>
+      <c r="CV31" s="3"/>
+      <c r="CW31" s="3"/>
+      <c r="CX31" s="3"/>
+      <c r="CY31" s="3"/>
+      <c r="CZ31" s="3"/>
+      <c r="DA31" s="3"/>
+      <c r="DB31" s="3"/>
+      <c r="DC31" s="3"/>
+      <c r="DD31" s="3"/>
+      <c r="DE31" s="3"/>
+      <c r="DF31" s="3"/>
+      <c r="DG31" s="3"/>
+      <c r="DH31" s="3"/>
+      <c r="DI31" s="3"/>
+      <c r="DJ31" s="3"/>
+      <c r="DK31" s="3"/>
+      <c r="DL31" s="3"/>
+      <c r="DM31" s="3"/>
+      <c r="DN31" s="3"/>
+      <c r="DO31" s="3"/>
+      <c r="DP31" s="3"/>
+      <c r="DQ31" s="3"/>
+      <c r="DR31" s="3"/>
+    </row>
+    <row r="32" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="3"/>
+      <c r="AL32" s="3"/>
+      <c r="AM32" s="3"/>
+      <c r="AN32" s="3"/>
+      <c r="AO32" s="3"/>
+      <c r="AP32" s="3"/>
+      <c r="AQ32" s="3"/>
+      <c r="AR32" s="3"/>
+      <c r="AS32" s="3"/>
+      <c r="AT32" s="3"/>
+      <c r="AU32" s="3"/>
+      <c r="AV32" s="3"/>
+      <c r="AW32" s="3"/>
+      <c r="AX32" s="3"/>
+      <c r="AY32" s="3"/>
+      <c r="AZ32" s="3"/>
+      <c r="BA32" s="3"/>
+      <c r="BB32" s="3"/>
+      <c r="BC32" s="3"/>
+      <c r="BD32" s="3"/>
+      <c r="BE32" s="3"/>
+      <c r="BF32" s="3"/>
+      <c r="BG32" s="3"/>
+      <c r="BH32" s="3"/>
+      <c r="BI32" s="3"/>
+      <c r="BJ32" s="3"/>
+      <c r="BK32" s="3"/>
+      <c r="BL32" s="3"/>
+      <c r="BM32" s="3"/>
+      <c r="BN32" s="3"/>
+      <c r="BO32" s="3"/>
+      <c r="BP32" s="3"/>
+      <c r="BQ32" s="3"/>
+      <c r="BR32" s="3"/>
+      <c r="BS32" s="3"/>
+      <c r="BT32" s="3"/>
+      <c r="BU32" s="3"/>
+      <c r="BV32" s="3"/>
+      <c r="BW32" s="3"/>
+      <c r="BX32" s="3"/>
+      <c r="BY32" s="3"/>
+      <c r="BZ32" s="3"/>
+      <c r="CA32" s="3"/>
+      <c r="CB32" s="3"/>
+      <c r="CC32" s="3"/>
+      <c r="CD32" s="3"/>
+      <c r="CE32" s="3"/>
+      <c r="CF32" s="3"/>
+      <c r="CG32" s="3"/>
+      <c r="CH32" s="3"/>
+      <c r="CI32" s="3"/>
+      <c r="CJ32" s="3"/>
+      <c r="CK32" s="3"/>
+      <c r="CL32" s="3"/>
+      <c r="CM32" s="3"/>
+      <c r="CN32" s="3"/>
+      <c r="CO32" s="3"/>
+      <c r="CP32" s="3"/>
+      <c r="CQ32" s="3"/>
+      <c r="CR32" s="3"/>
+      <c r="CS32" s="3"/>
+      <c r="CT32" s="3"/>
+      <c r="CU32" s="3"/>
+      <c r="CV32" s="3"/>
+      <c r="CW32" s="3"/>
+      <c r="CX32" s="3"/>
+      <c r="CY32" s="3"/>
+      <c r="CZ32" s="3"/>
+      <c r="DA32" s="3"/>
+      <c r="DB32" s="3"/>
+      <c r="DC32" s="3"/>
+      <c r="DD32" s="3"/>
+      <c r="DE32" s="3"/>
+      <c r="DF32" s="3"/>
+      <c r="DG32" s="3"/>
+      <c r="DH32" s="3"/>
+      <c r="DI32" s="3"/>
+      <c r="DJ32" s="3"/>
+      <c r="DK32" s="3"/>
+      <c r="DL32" s="3"/>
+      <c r="DM32" s="3"/>
+      <c r="DN32" s="3"/>
+      <c r="DO32" s="3"/>
+      <c r="DP32" s="3"/>
+      <c r="DQ32" s="3"/>
+      <c r="DR32" s="3"/>
+    </row>
+    <row r="33" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3"/>
+      <c r="AM33" s="3"/>
+      <c r="AN33" s="3"/>
+      <c r="AO33" s="3"/>
+      <c r="AP33" s="3"/>
+      <c r="AQ33" s="3"/>
+      <c r="AR33" s="3"/>
+      <c r="AS33" s="3"/>
+      <c r="AT33" s="3"/>
+      <c r="AU33" s="3"/>
+      <c r="AV33" s="3"/>
+      <c r="AW33" s="3"/>
+      <c r="AX33" s="3"/>
+      <c r="AY33" s="3"/>
+      <c r="AZ33" s="3"/>
+      <c r="BA33" s="3"/>
+      <c r="BB33" s="3"/>
+      <c r="BC33" s="3"/>
+      <c r="BD33" s="3"/>
+      <c r="BE33" s="3"/>
+      <c r="BF33" s="3"/>
+      <c r="BG33" s="3"/>
+      <c r="BH33" s="3"/>
+      <c r="BI33" s="3"/>
+      <c r="BJ33" s="3"/>
+      <c r="BK33" s="3"/>
+      <c r="BL33" s="3"/>
+      <c r="BM33" s="3"/>
+      <c r="BN33" s="3"/>
+      <c r="BO33" s="3"/>
+      <c r="BP33" s="3"/>
+      <c r="BQ33" s="3"/>
+      <c r="BR33" s="3"/>
+      <c r="BS33" s="3"/>
+      <c r="BT33" s="3"/>
+      <c r="BU33" s="3"/>
+      <c r="BV33" s="3"/>
+      <c r="BW33" s="3"/>
+      <c r="BX33" s="3"/>
+      <c r="BY33" s="3"/>
+      <c r="BZ33" s="3"/>
+      <c r="CA33" s="3"/>
+      <c r="CB33" s="3"/>
+      <c r="CC33" s="3"/>
+      <c r="CD33" s="3"/>
+      <c r="CE33" s="3"/>
+      <c r="CF33" s="3"/>
+      <c r="CG33" s="3"/>
+      <c r="CH33" s="3"/>
+      <c r="CI33" s="3"/>
+      <c r="CJ33" s="3"/>
+      <c r="CK33" s="3"/>
+      <c r="CL33" s="3"/>
+      <c r="CM33" s="3"/>
+      <c r="CN33" s="3"/>
+      <c r="CO33" s="3"/>
+      <c r="CP33" s="3"/>
+      <c r="CQ33" s="3"/>
+      <c r="CR33" s="3"/>
+      <c r="CS33" s="3"/>
+      <c r="CT33" s="3"/>
+      <c r="CU33" s="3"/>
+      <c r="CV33" s="3"/>
+      <c r="CW33" s="3"/>
+      <c r="CX33" s="3"/>
+      <c r="CY33" s="3"/>
+      <c r="CZ33" s="3"/>
+      <c r="DA33" s="3"/>
+      <c r="DB33" s="3"/>
+      <c r="DC33" s="3"/>
+      <c r="DD33" s="3"/>
+      <c r="DE33" s="3"/>
+      <c r="DF33" s="3"/>
+      <c r="DG33" s="3"/>
+      <c r="DH33" s="3"/>
+      <c r="DI33" s="3"/>
+      <c r="DJ33" s="3"/>
+      <c r="DK33" s="3"/>
+      <c r="DL33" s="3"/>
+      <c r="DM33" s="3"/>
+      <c r="DN33" s="3"/>
+      <c r="DO33" s="3"/>
+      <c r="DP33" s="3"/>
+      <c r="DQ33" s="3"/>
+      <c r="DR33" s="3"/>
+    </row>
+    <row r="34" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="3"/>
+      <c r="AL34" s="3"/>
+      <c r="AM34" s="3"/>
+      <c r="AN34" s="3"/>
+      <c r="AO34" s="3"/>
+      <c r="AP34" s="3"/>
+      <c r="AQ34" s="3"/>
+      <c r="AR34" s="3"/>
+      <c r="AS34" s="3"/>
+      <c r="AT34" s="3"/>
+      <c r="AU34" s="3"/>
+      <c r="AV34" s="3"/>
+      <c r="AW34" s="3"/>
+      <c r="AX34" s="3"/>
+      <c r="AY34" s="3"/>
+      <c r="AZ34" s="3"/>
+      <c r="BA34" s="3"/>
+      <c r="BB34" s="3"/>
+      <c r="BC34" s="3"/>
+      <c r="BD34" s="3"/>
+      <c r="BE34" s="3"/>
+      <c r="BF34" s="3"/>
+      <c r="BG34" s="3"/>
+      <c r="BH34" s="3"/>
+      <c r="BI34" s="3"/>
+      <c r="BJ34" s="3"/>
+      <c r="BK34" s="3"/>
+      <c r="BL34" s="3"/>
+      <c r="BM34" s="3"/>
+      <c r="BN34" s="3"/>
+      <c r="BO34" s="3"/>
+      <c r="BP34" s="3"/>
+      <c r="BQ34" s="3"/>
+      <c r="BR34" s="3"/>
+      <c r="BS34" s="3"/>
+      <c r="BT34" s="3"/>
+      <c r="BU34" s="3"/>
+      <c r="BV34" s="3"/>
+      <c r="BW34" s="3"/>
+      <c r="BX34" s="3"/>
+      <c r="BY34" s="3"/>
+      <c r="BZ34" s="3"/>
+      <c r="CA34" s="3"/>
+      <c r="CB34" s="3"/>
+      <c r="CC34" s="3"/>
+      <c r="CD34" s="3"/>
+      <c r="CE34" s="3"/>
+      <c r="CF34" s="3"/>
+      <c r="CG34" s="3"/>
+      <c r="CH34" s="3"/>
+      <c r="CI34" s="3"/>
+      <c r="CJ34" s="3"/>
+      <c r="CK34" s="3"/>
+      <c r="CL34" s="3"/>
+      <c r="CM34" s="3"/>
+      <c r="CN34" s="3"/>
+      <c r="CO34" s="3"/>
+      <c r="CP34" s="3"/>
+      <c r="CQ34" s="3"/>
+      <c r="CR34" s="3"/>
+      <c r="CS34" s="3"/>
+      <c r="CT34" s="3"/>
+      <c r="CU34" s="3"/>
+      <c r="CV34" s="3"/>
+      <c r="CW34" s="3"/>
+      <c r="CX34" s="3"/>
+      <c r="CY34" s="3"/>
+      <c r="CZ34" s="3"/>
+      <c r="DA34" s="3"/>
+      <c r="DB34" s="3"/>
+      <c r="DC34" s="3"/>
+      <c r="DD34" s="3"/>
+      <c r="DE34" s="3"/>
+      <c r="DF34" s="3"/>
+      <c r="DG34" s="3"/>
+      <c r="DH34" s="3"/>
+      <c r="DI34" s="3"/>
+      <c r="DJ34" s="3"/>
+      <c r="DK34" s="3"/>
+      <c r="DL34" s="3"/>
+      <c r="DM34" s="3"/>
+      <c r="DN34" s="3"/>
+      <c r="DO34" s="3"/>
+      <c r="DP34" s="3"/>
+      <c r="DQ34" s="3"/>
+      <c r="DR34" s="3"/>
+    </row>
+    <row r="35" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3"/>
+      <c r="AI35" s="3"/>
+      <c r="AJ35" s="3"/>
+      <c r="AK35" s="3"/>
+      <c r="AL35" s="3"/>
+      <c r="AM35" s="3"/>
+      <c r="AN35" s="3"/>
+      <c r="AO35" s="3"/>
+      <c r="AP35" s="3"/>
+      <c r="AQ35" s="3"/>
+      <c r="AR35" s="3"/>
+      <c r="AS35" s="3"/>
+      <c r="AT35" s="3"/>
+      <c r="AU35" s="3"/>
+      <c r="AV35" s="3"/>
+      <c r="AW35" s="3"/>
+      <c r="AX35" s="3"/>
+      <c r="AY35" s="3"/>
+      <c r="AZ35" s="3"/>
+      <c r="BA35" s="3"/>
+      <c r="BB35" s="3"/>
+      <c r="BC35" s="3"/>
+      <c r="BD35" s="3"/>
+      <c r="BE35" s="3"/>
+      <c r="BF35" s="3"/>
+      <c r="BG35" s="3"/>
+      <c r="BH35" s="3"/>
+      <c r="BI35" s="3"/>
+      <c r="BJ35" s="3"/>
+      <c r="BK35" s="3"/>
+      <c r="BL35" s="3"/>
+      <c r="BM35" s="3"/>
+      <c r="BN35" s="3"/>
+      <c r="BO35" s="3"/>
+      <c r="BP35" s="3"/>
+      <c r="BQ35" s="3"/>
+      <c r="BR35" s="3"/>
+      <c r="BS35" s="3"/>
+      <c r="BT35" s="3"/>
+      <c r="BU35" s="3"/>
+      <c r="BV35" s="3"/>
+      <c r="BW35" s="3"/>
+      <c r="BX35" s="3"/>
+      <c r="BY35" s="3"/>
+      <c r="BZ35" s="3"/>
+      <c r="CA35" s="3"/>
+      <c r="CB35" s="3"/>
+      <c r="CC35" s="3"/>
+      <c r="CD35" s="3"/>
+      <c r="CE35" s="3"/>
+      <c r="CF35" s="3"/>
+      <c r="CG35" s="3"/>
+      <c r="CH35" s="3"/>
+      <c r="CI35" s="3"/>
+      <c r="CJ35" s="3"/>
+      <c r="CK35" s="3"/>
+      <c r="CL35" s="3"/>
+      <c r="CM35" s="3"/>
+      <c r="CN35" s="3"/>
+      <c r="CO35" s="3"/>
+      <c r="CP35" s="3"/>
+      <c r="CQ35" s="3"/>
+      <c r="CR35" s="3"/>
+      <c r="CS35" s="3"/>
+      <c r="CT35" s="3"/>
+      <c r="CU35" s="3"/>
+      <c r="CV35" s="3"/>
+      <c r="CW35" s="3"/>
+      <c r="CX35" s="3"/>
+      <c r="CY35" s="3"/>
+      <c r="CZ35" s="3"/>
+      <c r="DA35" s="3"/>
+      <c r="DB35" s="3"/>
+      <c r="DC35" s="3"/>
+      <c r="DD35" s="3"/>
+      <c r="DE35" s="3"/>
+      <c r="DF35" s="3"/>
+      <c r="DG35" s="3"/>
+      <c r="DH35" s="3"/>
+      <c r="DI35" s="3"/>
+      <c r="DJ35" s="3"/>
+      <c r="DK35" s="3"/>
+      <c r="DL35" s="3"/>
+      <c r="DM35" s="3"/>
+      <c r="DN35" s="3"/>
+      <c r="DO35" s="3"/>
+      <c r="DP35" s="3"/>
+      <c r="DQ35" s="3"/>
+      <c r="DR35" s="3"/>
+    </row>
+    <row r="36" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3"/>
+      <c r="AG36" s="3"/>
+      <c r="AH36" s="3"/>
+      <c r="AI36" s="3"/>
+      <c r="AJ36" s="3"/>
+      <c r="AK36" s="3"/>
+      <c r="AL36" s="3"/>
+      <c r="AM36" s="3"/>
+      <c r="AN36" s="3"/>
+      <c r="AO36" s="3"/>
+      <c r="AP36" s="3"/>
+      <c r="AQ36" s="3"/>
+      <c r="AR36" s="3"/>
+      <c r="AS36" s="3"/>
+      <c r="AT36" s="3"/>
+      <c r="AU36" s="3"/>
+      <c r="AV36" s="3"/>
+      <c r="AW36" s="3"/>
+      <c r="AX36" s="3"/>
+      <c r="AY36" s="3"/>
+      <c r="AZ36" s="3"/>
+      <c r="BA36" s="3"/>
+      <c r="BB36" s="3"/>
+      <c r="BC36" s="3"/>
+      <c r="BD36" s="3"/>
+      <c r="BE36" s="3"/>
+      <c r="BF36" s="3"/>
+      <c r="BG36" s="3"/>
+      <c r="BH36" s="3"/>
+      <c r="BI36" s="3"/>
+      <c r="BJ36" s="3"/>
+      <c r="BK36" s="3"/>
+      <c r="BL36" s="3"/>
+      <c r="BM36" s="3"/>
+      <c r="BN36" s="3"/>
+      <c r="BO36" s="3"/>
+      <c r="BP36" s="3"/>
+      <c r="BQ36" s="3"/>
+      <c r="BR36" s="3"/>
+      <c r="BS36" s="3"/>
+      <c r="BT36" s="3"/>
+      <c r="BU36" s="3"/>
+      <c r="BV36" s="3"/>
+      <c r="BW36" s="3"/>
+      <c r="BX36" s="3"/>
+      <c r="BY36" s="3"/>
+      <c r="BZ36" s="3"/>
+      <c r="CA36" s="3"/>
+      <c r="CB36" s="3"/>
+      <c r="CC36" s="3"/>
+      <c r="CD36" s="3"/>
+      <c r="CE36" s="3"/>
+      <c r="CF36" s="3"/>
+      <c r="CG36" s="3"/>
+      <c r="CH36" s="3"/>
+      <c r="CI36" s="3"/>
+      <c r="CJ36" s="3"/>
+      <c r="CK36" s="3"/>
+      <c r="CL36" s="3"/>
+      <c r="CM36" s="3"/>
+      <c r="CN36" s="3"/>
+      <c r="CO36" s="3"/>
+      <c r="CP36" s="3"/>
+      <c r="CQ36" s="3"/>
+      <c r="CR36" s="3"/>
+      <c r="CS36" s="3"/>
+      <c r="CT36" s="3"/>
+      <c r="CU36" s="3"/>
+      <c r="CV36" s="3"/>
+      <c r="CW36" s="3"/>
+      <c r="CX36" s="3"/>
+      <c r="CY36" s="3"/>
+      <c r="CZ36" s="3"/>
+      <c r="DA36" s="3"/>
+      <c r="DB36" s="3"/>
+      <c r="DC36" s="3"/>
+      <c r="DD36" s="3"/>
+      <c r="DE36" s="3"/>
+      <c r="DF36" s="3"/>
+      <c r="DG36" s="3"/>
+      <c r="DH36" s="3"/>
+      <c r="DI36" s="3"/>
+      <c r="DJ36" s="3"/>
+      <c r="DK36" s="3"/>
+      <c r="DL36" s="3"/>
+      <c r="DM36" s="3"/>
+      <c r="DN36" s="3"/>
+      <c r="DO36" s="3"/>
+      <c r="DP36" s="3"/>
+      <c r="DQ36" s="3"/>
+      <c r="DR36" s="3"/>
+    </row>
+    <row r="37" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
+      <c r="AG37" s="3"/>
+      <c r="AH37" s="3"/>
+      <c r="AI37" s="3"/>
+      <c r="AJ37" s="3"/>
+      <c r="AK37" s="3"/>
+      <c r="AL37" s="3"/>
+      <c r="AM37" s="3"/>
+      <c r="AN37" s="3"/>
+      <c r="AO37" s="3"/>
+      <c r="AP37" s="3"/>
+      <c r="AQ37" s="3"/>
+      <c r="AR37" s="3"/>
+      <c r="AS37" s="3"/>
+      <c r="AT37" s="3"/>
+      <c r="AU37" s="3"/>
+      <c r="AV37" s="3"/>
+      <c r="AW37" s="3"/>
+      <c r="AX37" s="3"/>
+      <c r="AY37" s="3"/>
+      <c r="AZ37" s="3"/>
+      <c r="BA37" s="3"/>
+      <c r="BB37" s="3"/>
+      <c r="BC37" s="3"/>
+      <c r="BD37" s="3"/>
+      <c r="BE37" s="3"/>
+      <c r="BF37" s="3"/>
+      <c r="BG37" s="3"/>
+      <c r="BH37" s="3"/>
+      <c r="BI37" s="3"/>
+      <c r="BJ37" s="3"/>
+      <c r="BK37" s="3"/>
+      <c r="BL37" s="3"/>
+      <c r="BM37" s="3"/>
+      <c r="BN37" s="3"/>
+      <c r="BO37" s="3"/>
+      <c r="BP37" s="3"/>
+      <c r="BQ37" s="3"/>
+      <c r="BR37" s="3"/>
+      <c r="BS37" s="3"/>
+      <c r="BT37" s="3"/>
+      <c r="BU37" s="3"/>
+      <c r="BV37" s="3"/>
+      <c r="BW37" s="3"/>
+      <c r="BX37" s="3"/>
+      <c r="BY37" s="3"/>
+      <c r="BZ37" s="3"/>
+      <c r="CA37" s="3"/>
+      <c r="CB37" s="3"/>
+      <c r="CC37" s="3"/>
+      <c r="CD37" s="3"/>
+      <c r="CE37" s="3"/>
+      <c r="CF37" s="3"/>
+      <c r="CG37" s="3"/>
+      <c r="CH37" s="3"/>
+      <c r="CI37" s="3"/>
+      <c r="CJ37" s="3"/>
+      <c r="CK37" s="3"/>
+      <c r="CL37" s="3"/>
+      <c r="CM37" s="3"/>
+      <c r="CN37" s="3"/>
+      <c r="CO37" s="3"/>
+      <c r="CP37" s="3"/>
+      <c r="CQ37" s="3"/>
+      <c r="CR37" s="3"/>
+      <c r="CS37" s="3"/>
+      <c r="CT37" s="3"/>
+      <c r="CU37" s="3"/>
+      <c r="CV37" s="3"/>
+      <c r="CW37" s="3"/>
+      <c r="CX37" s="3"/>
+      <c r="CY37" s="3"/>
+      <c r="CZ37" s="3"/>
+      <c r="DA37" s="3"/>
+      <c r="DB37" s="3"/>
+      <c r="DC37" s="3"/>
+      <c r="DD37" s="3"/>
+      <c r="DE37" s="3"/>
+      <c r="DF37" s="3"/>
+      <c r="DG37" s="3"/>
+      <c r="DH37" s="3"/>
+      <c r="DI37" s="3"/>
+      <c r="DJ37" s="3"/>
+      <c r="DK37" s="3"/>
+      <c r="DL37" s="3"/>
+      <c r="DM37" s="3"/>
+      <c r="DN37" s="3"/>
+      <c r="DO37" s="3"/>
+      <c r="DP37" s="3"/>
+      <c r="DQ37" s="3"/>
+      <c r="DR37" s="3"/>
+    </row>
+    <row r="38" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="3"/>
+      <c r="AG38" s="3"/>
+      <c r="AH38" s="3"/>
+      <c r="AI38" s="3"/>
+      <c r="AJ38" s="3"/>
+      <c r="AK38" s="3"/>
+      <c r="AL38" s="3"/>
+      <c r="AM38" s="3"/>
+      <c r="AN38" s="3"/>
+      <c r="AO38" s="3"/>
+      <c r="AP38" s="3"/>
+      <c r="AQ38" s="3"/>
+      <c r="AR38" s="3"/>
+      <c r="AS38" s="3"/>
+      <c r="AT38" s="3"/>
+      <c r="AU38" s="3"/>
+      <c r="AV38" s="3"/>
+      <c r="AW38" s="3"/>
+      <c r="AX38" s="3"/>
+      <c r="AY38" s="3"/>
+      <c r="AZ38" s="3"/>
+      <c r="BA38" s="3"/>
+      <c r="BB38" s="3"/>
+      <c r="BC38" s="3"/>
+      <c r="BD38" s="3"/>
+      <c r="BE38" s="3"/>
+      <c r="BF38" s="3"/>
+      <c r="BG38" s="3"/>
+      <c r="BH38" s="3"/>
+      <c r="BI38" s="3"/>
+      <c r="BJ38" s="3"/>
+      <c r="BK38" s="3"/>
+      <c r="BL38" s="3"/>
+      <c r="BM38" s="3"/>
+      <c r="BN38" s="3"/>
+      <c r="BO38" s="3"/>
+      <c r="BP38" s="3"/>
+      <c r="BQ38" s="3"/>
+      <c r="BR38" s="3"/>
+      <c r="BS38" s="3"/>
+      <c r="BT38" s="3"/>
+      <c r="BU38" s="3"/>
+      <c r="BV38" s="3"/>
+      <c r="BW38" s="3"/>
+      <c r="BX38" s="3"/>
+      <c r="BY38" s="3"/>
+      <c r="BZ38" s="3"/>
+      <c r="CA38" s="3"/>
+      <c r="CB38" s="3"/>
+      <c r="CC38" s="3"/>
+      <c r="CD38" s="3"/>
+      <c r="CE38" s="3"/>
+      <c r="CF38" s="3"/>
+      <c r="CG38" s="3"/>
+      <c r="CH38" s="3"/>
+      <c r="CI38" s="3"/>
+      <c r="CJ38" s="3"/>
+      <c r="CK38" s="3"/>
+      <c r="CL38" s="3"/>
+      <c r="CM38" s="3"/>
+      <c r="CN38" s="3"/>
+      <c r="CO38" s="3"/>
+      <c r="CP38" s="3"/>
+      <c r="CQ38" s="3"/>
+      <c r="CR38" s="3"/>
+      <c r="CS38" s="3"/>
+      <c r="CT38" s="3"/>
+      <c r="CU38" s="3"/>
+      <c r="CV38" s="3"/>
+      <c r="CW38" s="3"/>
+      <c r="CX38" s="3"/>
+      <c r="CY38" s="3"/>
+      <c r="CZ38" s="3"/>
+      <c r="DA38" s="3"/>
+      <c r="DB38" s="3"/>
+      <c r="DC38" s="3"/>
+      <c r="DD38" s="3"/>
+      <c r="DE38" s="3"/>
+      <c r="DF38" s="3"/>
+      <c r="DG38" s="3"/>
+      <c r="DH38" s="3"/>
+      <c r="DI38" s="3"/>
+      <c r="DJ38" s="3"/>
+      <c r="DK38" s="3"/>
+      <c r="DL38" s="3"/>
+      <c r="DM38" s="3"/>
+      <c r="DN38" s="3"/>
+      <c r="DO38" s="3"/>
+      <c r="DP38" s="3"/>
+      <c r="DQ38" s="3"/>
+      <c r="DR38" s="3"/>
+    </row>
+    <row r="39" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+      <c r="AG39" s="3"/>
+      <c r="AH39" s="3"/>
+      <c r="AI39" s="3"/>
+      <c r="AJ39" s="3"/>
+      <c r="AK39" s="3"/>
+      <c r="AL39" s="3"/>
+      <c r="AM39" s="3"/>
+      <c r="AN39" s="3"/>
+      <c r="AO39" s="3"/>
+      <c r="AP39" s="3"/>
+      <c r="AQ39" s="3"/>
+      <c r="AR39" s="3"/>
+      <c r="AS39" s="3"/>
+      <c r="AT39" s="3"/>
+      <c r="AU39" s="3"/>
+      <c r="AV39" s="3"/>
+      <c r="AW39" s="3"/>
+      <c r="AX39" s="3"/>
+      <c r="AY39" s="3"/>
+      <c r="AZ39" s="3"/>
+      <c r="BA39" s="3"/>
+      <c r="BB39" s="3"/>
+      <c r="BC39" s="3"/>
+      <c r="BD39" s="3"/>
+      <c r="BE39" s="3"/>
+      <c r="BF39" s="3"/>
+      <c r="BG39" s="3"/>
+      <c r="BH39" s="3"/>
+      <c r="BI39" s="3"/>
+      <c r="BJ39" s="3"/>
+      <c r="BK39" s="3"/>
+      <c r="BL39" s="3"/>
+      <c r="BM39" s="3"/>
+      <c r="BN39" s="3"/>
+      <c r="BO39" s="3"/>
+      <c r="BP39" s="3"/>
+      <c r="BQ39" s="3"/>
+      <c r="BR39" s="3"/>
+      <c r="BS39" s="3"/>
+      <c r="BT39" s="3"/>
+      <c r="BU39" s="3"/>
+      <c r="BV39" s="3"/>
+      <c r="BW39" s="3"/>
+      <c r="BX39" s="3"/>
+      <c r="BY39" s="3"/>
+      <c r="BZ39" s="3"/>
+      <c r="CA39" s="3"/>
+      <c r="CB39" s="3"/>
+      <c r="CC39" s="3"/>
+      <c r="CD39" s="3"/>
+      <c r="CE39" s="3"/>
+      <c r="CF39" s="3"/>
+      <c r="CG39" s="3"/>
+      <c r="CH39" s="3"/>
+      <c r="CI39" s="3"/>
+      <c r="CJ39" s="3"/>
+      <c r="CK39" s="3"/>
+      <c r="CL39" s="3"/>
+      <c r="CM39" s="3"/>
+      <c r="CN39" s="3"/>
+      <c r="CO39" s="3"/>
+      <c r="CP39" s="3"/>
+      <c r="CQ39" s="3"/>
+      <c r="CR39" s="3"/>
+      <c r="CS39" s="3"/>
+      <c r="CT39" s="3"/>
+      <c r="CU39" s="3"/>
+      <c r="CV39" s="3"/>
+      <c r="CW39" s="3"/>
+      <c r="CX39" s="3"/>
+      <c r="CY39" s="3"/>
+      <c r="CZ39" s="3"/>
+      <c r="DA39" s="3"/>
+      <c r="DB39" s="3"/>
+      <c r="DC39" s="3"/>
+      <c r="DD39" s="3"/>
+      <c r="DE39" s="3"/>
+      <c r="DF39" s="3"/>
+      <c r="DG39" s="3"/>
+      <c r="DH39" s="3"/>
+      <c r="DI39" s="3"/>
+      <c r="DJ39" s="3"/>
+      <c r="DK39" s="3"/>
+      <c r="DL39" s="3"/>
+      <c r="DM39" s="3"/>
+      <c r="DN39" s="3"/>
+      <c r="DO39" s="3"/>
+      <c r="DP39" s="3"/>
+      <c r="DQ39" s="3"/>
+      <c r="DR39" s="3"/>
+    </row>
+    <row r="40" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+      <c r="AG40" s="3"/>
+      <c r="AH40" s="3"/>
+      <c r="AI40" s="3"/>
+      <c r="AJ40" s="3"/>
+      <c r="AK40" s="3"/>
+      <c r="AL40" s="3"/>
+      <c r="AM40" s="3"/>
+      <c r="AN40" s="3"/>
+      <c r="AO40" s="3"/>
+      <c r="AP40" s="3"/>
+      <c r="AQ40" s="3"/>
+      <c r="AR40" s="3"/>
+      <c r="AS40" s="3"/>
+      <c r="AT40" s="3"/>
+      <c r="AU40" s="3"/>
+      <c r="AV40" s="3"/>
+      <c r="AW40" s="3"/>
+      <c r="AX40" s="3"/>
+      <c r="AY40" s="3"/>
+      <c r="AZ40" s="3"/>
+      <c r="BA40" s="3"/>
+      <c r="BB40" s="3"/>
+      <c r="BC40" s="3"/>
+      <c r="BD40" s="3"/>
+      <c r="BE40" s="3"/>
+      <c r="BF40" s="3"/>
+      <c r="BG40" s="3"/>
+      <c r="BH40" s="3"/>
+      <c r="BI40" s="3"/>
+      <c r="BJ40" s="3"/>
+      <c r="BK40" s="3"/>
+      <c r="BL40" s="3"/>
+      <c r="BM40" s="3"/>
+      <c r="BN40" s="3"/>
+      <c r="BO40" s="3"/>
+      <c r="BP40" s="3"/>
+      <c r="BQ40" s="3"/>
+      <c r="BR40" s="3"/>
+      <c r="BS40" s="3"/>
+      <c r="BT40" s="3"/>
+      <c r="BU40" s="3"/>
+      <c r="BV40" s="3"/>
+      <c r="BW40" s="3"/>
+      <c r="BX40" s="3"/>
+      <c r="BY40" s="3"/>
+      <c r="BZ40" s="3"/>
+      <c r="CA40" s="3"/>
+      <c r="CB40" s="3"/>
+      <c r="CC40" s="3"/>
+      <c r="CD40" s="3"/>
+      <c r="CE40" s="3"/>
+      <c r="CF40" s="3"/>
+      <c r="CG40" s="3"/>
+      <c r="CH40" s="3"/>
+      <c r="CI40" s="3"/>
+      <c r="CJ40" s="3"/>
+      <c r="CK40" s="3"/>
+      <c r="CL40" s="3"/>
+      <c r="CM40" s="3"/>
+      <c r="CN40" s="3"/>
+      <c r="CO40" s="3"/>
+      <c r="CP40" s="3"/>
+      <c r="CQ40" s="3"/>
+      <c r="CR40" s="3"/>
+      <c r="CS40" s="3"/>
+      <c r="CT40" s="3"/>
+      <c r="CU40" s="3"/>
+      <c r="CV40" s="3"/>
+      <c r="CW40" s="3"/>
+      <c r="CX40" s="3"/>
+      <c r="CY40" s="3"/>
+      <c r="CZ40" s="3"/>
+      <c r="DA40" s="3"/>
+      <c r="DB40" s="3"/>
+      <c r="DC40" s="3"/>
+      <c r="DD40" s="3"/>
+      <c r="DE40" s="3"/>
+      <c r="DF40" s="3"/>
+      <c r="DG40" s="3"/>
+      <c r="DH40" s="3"/>
+      <c r="DI40" s="3"/>
+      <c r="DJ40" s="3"/>
+      <c r="DK40" s="3"/>
+      <c r="DL40" s="3"/>
+      <c r="DM40" s="3"/>
+      <c r="DN40" s="3"/>
+      <c r="DO40" s="3"/>
+      <c r="DP40" s="3"/>
+      <c r="DQ40" s="3"/>
+      <c r="DR40" s="3"/>
+    </row>
+    <row r="41" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="3"/>
+      <c r="AE41" s="3"/>
+      <c r="AF41" s="3"/>
+      <c r="AG41" s="3"/>
+      <c r="AH41" s="3"/>
+      <c r="AI41" s="3"/>
+      <c r="AJ41" s="3"/>
+      <c r="AK41" s="3"/>
+      <c r="AL41" s="3"/>
+      <c r="AM41" s="3"/>
+      <c r="AN41" s="3"/>
+      <c r="AO41" s="3"/>
+      <c r="AP41" s="3"/>
+      <c r="AQ41" s="3"/>
+      <c r="AR41" s="3"/>
+      <c r="AS41" s="3"/>
+      <c r="AT41" s="3"/>
+      <c r="AU41" s="3"/>
+      <c r="AV41" s="3"/>
+      <c r="AW41" s="3"/>
+      <c r="AX41" s="3"/>
+      <c r="AY41" s="3"/>
+      <c r="AZ41" s="3"/>
+      <c r="BA41" s="3"/>
+      <c r="BB41" s="3"/>
+      <c r="BC41" s="3"/>
+      <c r="BD41" s="3"/>
+      <c r="BE41" s="3"/>
+      <c r="BF41" s="3"/>
+      <c r="BG41" s="3"/>
+      <c r="BH41" s="3"/>
+      <c r="BI41" s="3"/>
+      <c r="BJ41" s="3"/>
+      <c r="BK41" s="3"/>
+      <c r="BL41" s="3"/>
+      <c r="BM41" s="3"/>
+      <c r="BN41" s="3"/>
+      <c r="BO41" s="3"/>
+      <c r="BP41" s="3"/>
+      <c r="BQ41" s="3"/>
+      <c r="BR41" s="3"/>
+      <c r="BS41" s="3"/>
+      <c r="BT41" s="3"/>
+      <c r="BU41" s="3"/>
+      <c r="BV41" s="3"/>
+      <c r="BW41" s="3"/>
+      <c r="BX41" s="3"/>
+      <c r="BY41" s="3"/>
+      <c r="BZ41" s="3"/>
+      <c r="CA41" s="3"/>
+      <c r="CB41" s="3"/>
+      <c r="CC41" s="3"/>
+      <c r="CD41" s="3"/>
+      <c r="CE41" s="3"/>
+      <c r="CF41" s="3"/>
+      <c r="CG41" s="3"/>
+      <c r="CH41" s="3"/>
+      <c r="CI41" s="3"/>
+      <c r="CJ41" s="3"/>
+      <c r="CK41" s="3"/>
+      <c r="CL41" s="3"/>
+      <c r="CM41" s="3"/>
+      <c r="CN41" s="3"/>
+      <c r="CO41" s="3"/>
+      <c r="CP41" s="3"/>
+      <c r="CQ41" s="3"/>
+      <c r="CR41" s="3"/>
+      <c r="CS41" s="3"/>
+      <c r="CT41" s="3"/>
+      <c r="CU41" s="3"/>
+      <c r="CV41" s="3"/>
+      <c r="CW41" s="3"/>
+      <c r="CX41" s="3"/>
+      <c r="CY41" s="3"/>
+      <c r="CZ41" s="3"/>
+      <c r="DA41" s="3"/>
+      <c r="DB41" s="3"/>
+      <c r="DC41" s="3"/>
+      <c r="DD41" s="3"/>
+      <c r="DE41" s="3"/>
+      <c r="DF41" s="3"/>
+      <c r="DG41" s="3"/>
+      <c r="DH41" s="3"/>
+      <c r="DI41" s="3"/>
+      <c r="DJ41" s="3"/>
+      <c r="DK41" s="3"/>
+      <c r="DL41" s="3"/>
+      <c r="DM41" s="3"/>
+      <c r="DN41" s="3"/>
+      <c r="DO41" s="3"/>
+      <c r="DP41" s="3"/>
+      <c r="DQ41" s="3"/>
+      <c r="DR41" s="3"/>
+    </row>
+    <row r="42" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3"/>
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="3"/>
+      <c r="AE42" s="3"/>
+      <c r="AF42" s="3"/>
+      <c r="AG42" s="3"/>
+      <c r="AH42" s="3"/>
+      <c r="AI42" s="3"/>
+      <c r="AJ42" s="3"/>
+      <c r="AK42" s="3"/>
+      <c r="AL42" s="3"/>
+      <c r="AM42" s="3"/>
+      <c r="AN42" s="3"/>
+      <c r="AO42" s="3"/>
+      <c r="AP42" s="3"/>
+      <c r="AQ42" s="3"/>
+      <c r="AR42" s="3"/>
+      <c r="AS42" s="3"/>
+      <c r="AT42" s="3"/>
+      <c r="AU42" s="3"/>
+      <c r="AV42" s="3"/>
+      <c r="AW42" s="3"/>
+      <c r="AX42" s="3"/>
+      <c r="AY42" s="3"/>
+      <c r="AZ42" s="3"/>
+      <c r="BA42" s="3"/>
+      <c r="BB42" s="3"/>
+      <c r="BC42" s="3"/>
+      <c r="BD42" s="3"/>
+      <c r="BE42" s="3"/>
+      <c r="BF42" s="3"/>
+      <c r="BG42" s="3"/>
+      <c r="BH42" s="3"/>
+      <c r="BI42" s="3"/>
+      <c r="BJ42" s="3"/>
+      <c r="BK42" s="3"/>
+      <c r="BL42" s="3"/>
+      <c r="BM42" s="3"/>
+      <c r="BN42" s="3"/>
+      <c r="BO42" s="3"/>
+      <c r="BP42" s="3"/>
+      <c r="BQ42" s="3"/>
+      <c r="BR42" s="3"/>
+      <c r="BS42" s="3"/>
+      <c r="BT42" s="3"/>
+      <c r="BU42" s="3"/>
+      <c r="BV42" s="3"/>
+      <c r="BW42" s="3"/>
+      <c r="BX42" s="3"/>
+      <c r="BY42" s="3"/>
+      <c r="BZ42" s="3"/>
+      <c r="CA42" s="3"/>
+      <c r="CB42" s="3"/>
+      <c r="CC42" s="3"/>
+      <c r="CD42" s="3"/>
+      <c r="CE42" s="3"/>
+      <c r="CF42" s="3"/>
+      <c r="CG42" s="3"/>
+      <c r="CH42" s="3"/>
+      <c r="CI42" s="3"/>
+      <c r="CJ42" s="3"/>
+      <c r="CK42" s="3"/>
+      <c r="CL42" s="3"/>
+      <c r="CM42" s="3"/>
+      <c r="CN42" s="3"/>
+      <c r="CO42" s="3"/>
+      <c r="CP42" s="3"/>
+      <c r="CQ42" s="3"/>
+      <c r="CR42" s="3"/>
+      <c r="CS42" s="3"/>
+      <c r="CT42" s="3"/>
+      <c r="CU42" s="3"/>
+      <c r="CV42" s="3"/>
+      <c r="CW42" s="3"/>
+      <c r="CX42" s="3"/>
+      <c r="CY42" s="3"/>
+      <c r="CZ42" s="3"/>
+      <c r="DA42" s="3"/>
+      <c r="DB42" s="3"/>
+      <c r="DC42" s="3"/>
+      <c r="DD42" s="3"/>
+      <c r="DE42" s="3"/>
+      <c r="DF42" s="3"/>
+      <c r="DG42" s="3"/>
+      <c r="DH42" s="3"/>
+      <c r="DI42" s="3"/>
+      <c r="DJ42" s="3"/>
+      <c r="DK42" s="3"/>
+      <c r="DL42" s="3"/>
+      <c r="DM42" s="3"/>
+      <c r="DN42" s="3"/>
+      <c r="DO42" s="3"/>
+      <c r="DP42" s="3"/>
+      <c r="DQ42" s="3"/>
+      <c r="DR42" s="3"/>
+    </row>
+    <row r="43" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3"/>
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="3"/>
+      <c r="AE43" s="3"/>
+      <c r="AF43" s="3"/>
+      <c r="AG43" s="3"/>
+      <c r="AH43" s="3"/>
+      <c r="AI43" s="3"/>
+      <c r="AJ43" s="3"/>
+      <c r="AK43" s="3"/>
+      <c r="AL43" s="3"/>
+      <c r="AM43" s="3"/>
+      <c r="AN43" s="3"/>
+      <c r="AO43" s="3"/>
+      <c r="AP43" s="3"/>
+      <c r="AQ43" s="3"/>
+      <c r="AR43" s="3"/>
+      <c r="AS43" s="3"/>
+      <c r="AT43" s="3"/>
+      <c r="AU43" s="3"/>
+      <c r="AV43" s="3"/>
+      <c r="AW43" s="3"/>
+      <c r="AX43" s="3"/>
+      <c r="AY43" s="3"/>
+      <c r="AZ43" s="3"/>
+      <c r="BA43" s="3"/>
+      <c r="BB43" s="3"/>
+      <c r="BC43" s="3"/>
+      <c r="BD43" s="3"/>
+      <c r="BE43" s="3"/>
+      <c r="BF43" s="3"/>
+      <c r="BG43" s="3"/>
+      <c r="BH43" s="3"/>
+      <c r="BI43" s="3"/>
+      <c r="BJ43" s="3"/>
+      <c r="BK43" s="3"/>
+      <c r="BL43" s="3"/>
+      <c r="BM43" s="3"/>
+      <c r="BN43" s="3"/>
+      <c r="BO43" s="3"/>
+      <c r="BP43" s="3"/>
+      <c r="BQ43" s="3"/>
+      <c r="BR43" s="3"/>
+      <c r="BS43" s="3"/>
+      <c r="BT43" s="3"/>
+      <c r="BU43" s="3"/>
+      <c r="BV43" s="3"/>
+      <c r="BW43" s="3"/>
+      <c r="BX43" s="3"/>
+      <c r="BY43" s="3"/>
+      <c r="BZ43" s="3"/>
+      <c r="CA43" s="3"/>
+      <c r="CB43" s="3"/>
+      <c r="CC43" s="3"/>
+      <c r="CD43" s="3"/>
+      <c r="CE43" s="3"/>
+      <c r="CF43" s="3"/>
+      <c r="CG43" s="3"/>
+      <c r="CH43" s="3"/>
+      <c r="CI43" s="3"/>
+      <c r="CJ43" s="3"/>
+      <c r="CK43" s="3"/>
+      <c r="CL43" s="3"/>
+      <c r="CM43" s="3"/>
+      <c r="CN43" s="3"/>
+      <c r="CO43" s="3"/>
+      <c r="CP43" s="3"/>
+      <c r="CQ43" s="3"/>
+      <c r="CR43" s="3"/>
+      <c r="CS43" s="3"/>
+      <c r="CT43" s="3"/>
+      <c r="CU43" s="3"/>
+      <c r="CV43" s="3"/>
+      <c r="CW43" s="3"/>
+      <c r="CX43" s="3"/>
+      <c r="CY43" s="3"/>
+      <c r="CZ43" s="3"/>
+      <c r="DA43" s="3"/>
+      <c r="DB43" s="3"/>
+      <c r="DC43" s="3"/>
+      <c r="DD43" s="3"/>
+      <c r="DE43" s="3"/>
+      <c r="DF43" s="3"/>
+      <c r="DG43" s="3"/>
+      <c r="DH43" s="3"/>
+      <c r="DI43" s="3"/>
+      <c r="DJ43" s="3"/>
+      <c r="DK43" s="3"/>
+      <c r="DL43" s="3"/>
+      <c r="DM43" s="3"/>
+      <c r="DN43" s="3"/>
+      <c r="DO43" s="3"/>
+      <c r="DP43" s="3"/>
+      <c r="DQ43" s="3"/>
+      <c r="DR43" s="3"/>
+    </row>
+    <row r="44" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="3"/>
+      <c r="AC44" s="3"/>
+      <c r="AD44" s="3"/>
+      <c r="AE44" s="3"/>
+      <c r="AF44" s="3"/>
+      <c r="AG44" s="3"/>
+      <c r="AH44" s="3"/>
+      <c r="AI44" s="3"/>
+      <c r="AJ44" s="3"/>
+      <c r="AK44" s="3"/>
+      <c r="AL44" s="3"/>
+      <c r="AM44" s="3"/>
+      <c r="AN44" s="3"/>
+      <c r="AO44" s="3"/>
+      <c r="AP44" s="3"/>
+      <c r="AQ44" s="3"/>
+      <c r="AR44" s="3"/>
+      <c r="AS44" s="3"/>
+      <c r="AT44" s="3"/>
+      <c r="AU44" s="3"/>
+      <c r="AV44" s="3"/>
+      <c r="AW44" s="3"/>
+      <c r="AX44" s="3"/>
+      <c r="AY44" s="3"/>
+      <c r="AZ44" s="3"/>
+      <c r="BA44" s="3"/>
+      <c r="BB44" s="3"/>
+      <c r="BC44" s="3"/>
+      <c r="BD44" s="3"/>
+      <c r="BE44" s="3"/>
+      <c r="BF44" s="3"/>
+      <c r="BG44" s="3"/>
+      <c r="BH44" s="3"/>
+      <c r="BI44" s="3"/>
+      <c r="BJ44" s="3"/>
+      <c r="BK44" s="3"/>
+      <c r="BL44" s="3"/>
+      <c r="BM44" s="3"/>
+      <c r="BN44" s="3"/>
+      <c r="BO44" s="3"/>
+      <c r="BP44" s="3"/>
+      <c r="BQ44" s="3"/>
+      <c r="BR44" s="3"/>
+      <c r="BS44" s="3"/>
+      <c r="BT44" s="3"/>
+      <c r="BU44" s="3"/>
+      <c r="BV44" s="3"/>
+      <c r="BW44" s="3"/>
+      <c r="BX44" s="3"/>
+      <c r="BY44" s="3"/>
+      <c r="BZ44" s="3"/>
+      <c r="CA44" s="3"/>
+      <c r="CB44" s="3"/>
+      <c r="CC44" s="3"/>
+      <c r="CD44" s="3"/>
+      <c r="CE44" s="3"/>
+      <c r="CF44" s="3"/>
+      <c r="CG44" s="3"/>
+      <c r="CH44" s="3"/>
+      <c r="CI44" s="3"/>
+      <c r="CJ44" s="3"/>
+      <c r="CK44" s="3"/>
+      <c r="CL44" s="3"/>
+      <c r="CM44" s="3"/>
+      <c r="CN44" s="3"/>
+      <c r="CO44" s="3"/>
+      <c r="CP44" s="3"/>
+      <c r="CQ44" s="3"/>
+      <c r="CR44" s="3"/>
+      <c r="CS44" s="3"/>
+      <c r="CT44" s="3"/>
+      <c r="CU44" s="3"/>
+      <c r="CV44" s="3"/>
+      <c r="CW44" s="3"/>
+      <c r="CX44" s="3"/>
+      <c r="CY44" s="3"/>
+      <c r="CZ44" s="3"/>
+      <c r="DA44" s="3"/>
+      <c r="DB44" s="3"/>
+      <c r="DC44" s="3"/>
+      <c r="DD44" s="3"/>
+      <c r="DE44" s="3"/>
+      <c r="DF44" s="3"/>
+      <c r="DG44" s="3"/>
+      <c r="DH44" s="3"/>
+      <c r="DI44" s="3"/>
+      <c r="DJ44" s="3"/>
+      <c r="DK44" s="3"/>
+      <c r="DL44" s="3"/>
+      <c r="DM44" s="3"/>
+      <c r="DN44" s="3"/>
+      <c r="DO44" s="3"/>
+      <c r="DP44" s="3"/>
+      <c r="DQ44" s="3"/>
+      <c r="DR44" s="3"/>
+    </row>
+    <row r="45" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>0.85416666666666696</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3"/>
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="3"/>
+      <c r="AF45" s="3"/>
+      <c r="AG45" s="3"/>
+      <c r="AH45" s="3"/>
+      <c r="AI45" s="3"/>
+      <c r="AJ45" s="3"/>
+      <c r="AK45" s="3"/>
+      <c r="AL45" s="3"/>
+      <c r="AM45" s="3"/>
+      <c r="AN45" s="3"/>
+      <c r="AO45" s="3"/>
+      <c r="AP45" s="3"/>
+      <c r="AQ45" s="3"/>
+      <c r="AR45" s="3"/>
+      <c r="AS45" s="3"/>
+      <c r="AT45" s="3"/>
+      <c r="AU45" s="3"/>
+      <c r="AV45" s="3"/>
+      <c r="AW45" s="3"/>
+      <c r="AX45" s="3"/>
+      <c r="AY45" s="3"/>
+      <c r="AZ45" s="3"/>
+      <c r="BA45" s="3"/>
+      <c r="BB45" s="3"/>
+      <c r="BC45" s="3"/>
+      <c r="BD45" s="3"/>
+      <c r="BE45" s="3"/>
+      <c r="BF45" s="3"/>
+      <c r="BG45" s="3"/>
+      <c r="BH45" s="3"/>
+      <c r="BI45" s="3"/>
+      <c r="BJ45" s="3"/>
+      <c r="BK45" s="3"/>
+      <c r="BL45" s="3"/>
+      <c r="BM45" s="3"/>
+      <c r="BN45" s="3"/>
+      <c r="BO45" s="3"/>
+      <c r="BP45" s="3"/>
+      <c r="BQ45" s="3"/>
+      <c r="BR45" s="3"/>
+      <c r="BS45" s="3"/>
+      <c r="BT45" s="3"/>
+      <c r="BU45" s="3"/>
+      <c r="BV45" s="3"/>
+      <c r="BW45" s="3"/>
+      <c r="BX45" s="3"/>
+      <c r="BY45" s="3"/>
+      <c r="BZ45" s="3"/>
+      <c r="CA45" s="3"/>
+      <c r="CB45" s="3"/>
+      <c r="CC45" s="3"/>
+      <c r="CD45" s="3"/>
+      <c r="CE45" s="3"/>
+      <c r="CF45" s="3"/>
+      <c r="CG45" s="3"/>
+      <c r="CH45" s="3"/>
+      <c r="CI45" s="3"/>
+      <c r="CJ45" s="3"/>
+      <c r="CK45" s="3"/>
+      <c r="CL45" s="3"/>
+      <c r="CM45" s="3"/>
+      <c r="CN45" s="3"/>
+      <c r="CO45" s="3"/>
+      <c r="CP45" s="3"/>
+      <c r="CQ45" s="3"/>
+      <c r="CR45" s="3"/>
+      <c r="CS45" s="3"/>
+      <c r="CT45" s="3"/>
+      <c r="CU45" s="3"/>
+      <c r="CV45" s="3"/>
+      <c r="CW45" s="3"/>
+      <c r="CX45" s="3"/>
+      <c r="CY45" s="3"/>
+      <c r="CZ45" s="3"/>
+      <c r="DA45" s="3"/>
+      <c r="DB45" s="3"/>
+      <c r="DC45" s="3"/>
+      <c r="DD45" s="3"/>
+      <c r="DE45" s="3"/>
+      <c r="DF45" s="3"/>
+      <c r="DG45" s="3"/>
+      <c r="DH45" s="3"/>
+      <c r="DI45" s="3"/>
+      <c r="DJ45" s="3"/>
+      <c r="DK45" s="3"/>
+      <c r="DL45" s="3"/>
+      <c r="DM45" s="3"/>
+      <c r="DN45" s="3"/>
+      <c r="DO45" s="3"/>
+      <c r="DP45" s="3"/>
+      <c r="DQ45" s="3"/>
+      <c r="DR45" s="3"/>
+    </row>
+    <row r="46" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="3"/>
+      <c r="AC46" s="3"/>
+      <c r="AD46" s="3"/>
+      <c r="AE46" s="3"/>
+      <c r="AF46" s="3"/>
+      <c r="AG46" s="3"/>
+      <c r="AH46" s="3"/>
+      <c r="AI46" s="3"/>
+      <c r="AJ46" s="3"/>
+      <c r="AK46" s="3"/>
+      <c r="AL46" s="3"/>
+      <c r="AM46" s="3"/>
+      <c r="AN46" s="3"/>
+      <c r="AO46" s="3"/>
+      <c r="AP46" s="3"/>
+      <c r="AQ46" s="3"/>
+      <c r="AR46" s="3"/>
+      <c r="AS46" s="3"/>
+      <c r="AT46" s="3"/>
+      <c r="AU46" s="3"/>
+      <c r="AV46" s="3"/>
+      <c r="AW46" s="3"/>
+      <c r="AX46" s="3"/>
+      <c r="AY46" s="3"/>
+      <c r="AZ46" s="3"/>
+      <c r="BA46" s="3"/>
+      <c r="BB46" s="3"/>
+      <c r="BC46" s="3"/>
+      <c r="BD46" s="3"/>
+      <c r="BE46" s="3"/>
+      <c r="BF46" s="3"/>
+      <c r="BG46" s="3"/>
+      <c r="BH46" s="3"/>
+      <c r="BI46" s="3"/>
+      <c r="BJ46" s="3"/>
+      <c r="BK46" s="3"/>
+      <c r="BL46" s="3"/>
+      <c r="BM46" s="3"/>
+      <c r="BN46" s="3"/>
+      <c r="BO46" s="3"/>
+      <c r="BP46" s="3"/>
+      <c r="BQ46" s="3"/>
+      <c r="BR46" s="3"/>
+      <c r="BS46" s="3"/>
+      <c r="BT46" s="3"/>
+      <c r="BU46" s="3"/>
+      <c r="BV46" s="3"/>
+      <c r="BW46" s="3"/>
+      <c r="BX46" s="3"/>
+      <c r="BY46" s="3"/>
+      <c r="BZ46" s="3"/>
+      <c r="CA46" s="3"/>
+      <c r="CB46" s="3"/>
+      <c r="CC46" s="3"/>
+      <c r="CD46" s="3"/>
+      <c r="CE46" s="3"/>
+      <c r="CF46" s="3"/>
+      <c r="CG46" s="3"/>
+      <c r="CH46" s="3"/>
+      <c r="CI46" s="3"/>
+      <c r="CJ46" s="3"/>
+      <c r="CK46" s="3"/>
+      <c r="CL46" s="3"/>
+      <c r="CM46" s="3"/>
+      <c r="CN46" s="3"/>
+      <c r="CO46" s="3"/>
+      <c r="CP46" s="3"/>
+      <c r="CQ46" s="3"/>
+      <c r="CR46" s="3"/>
+      <c r="CS46" s="3"/>
+      <c r="CT46" s="3"/>
+      <c r="CU46" s="3"/>
+      <c r="CV46" s="3"/>
+      <c r="CW46" s="3"/>
+      <c r="CX46" s="3"/>
+      <c r="CY46" s="3"/>
+      <c r="CZ46" s="3"/>
+      <c r="DA46" s="3"/>
+      <c r="DB46" s="3"/>
+      <c r="DC46" s="3"/>
+      <c r="DD46" s="3"/>
+      <c r="DE46" s="3"/>
+      <c r="DF46" s="3"/>
+      <c r="DG46" s="3"/>
+      <c r="DH46" s="3"/>
+      <c r="DI46" s="3"/>
+      <c r="DJ46" s="3"/>
+      <c r="DK46" s="3"/>
+      <c r="DL46" s="3"/>
+      <c r="DM46" s="3"/>
+      <c r="DN46" s="3"/>
+      <c r="DO46" s="3"/>
+      <c r="DP46" s="3"/>
+      <c r="DQ46" s="3"/>
+      <c r="DR46" s="3"/>
+    </row>
+    <row r="47" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>0.89583333333333304</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
+      <c r="AB47" s="3"/>
+      <c r="AC47" s="3"/>
+      <c r="AD47" s="3"/>
+      <c r="AE47" s="3"/>
+      <c r="AF47" s="3"/>
+      <c r="AG47" s="3"/>
+      <c r="AH47" s="3"/>
+      <c r="AI47" s="3"/>
+      <c r="AJ47" s="3"/>
+      <c r="AK47" s="3"/>
+      <c r="AL47" s="3"/>
+      <c r="AM47" s="3"/>
+      <c r="AN47" s="3"/>
+      <c r="AO47" s="3"/>
+      <c r="AP47" s="3"/>
+      <c r="AQ47" s="3"/>
+      <c r="AR47" s="3"/>
+      <c r="AS47" s="3"/>
+      <c r="AT47" s="3"/>
+      <c r="AU47" s="3"/>
+      <c r="AV47" s="3"/>
+      <c r="AW47" s="3"/>
+      <c r="AX47" s="3"/>
+      <c r="AY47" s="3"/>
+      <c r="AZ47" s="3"/>
+      <c r="BA47" s="3"/>
+      <c r="BB47" s="3"/>
+      <c r="BC47" s="3"/>
+      <c r="BD47" s="3"/>
+      <c r="BE47" s="3"/>
+      <c r="BF47" s="3"/>
+      <c r="BG47" s="3"/>
+      <c r="BH47" s="3"/>
+      <c r="BI47" s="3"/>
+      <c r="BJ47" s="3"/>
+      <c r="BK47" s="3"/>
+      <c r="BL47" s="3"/>
+      <c r="BM47" s="3"/>
+      <c r="BN47" s="3"/>
+      <c r="BO47" s="3"/>
+      <c r="BP47" s="3"/>
+      <c r="BQ47" s="3"/>
+      <c r="BR47" s="3"/>
+      <c r="BS47" s="3"/>
+      <c r="BT47" s="3"/>
+      <c r="BU47" s="3"/>
+      <c r="BV47" s="3"/>
+      <c r="BW47" s="3"/>
+      <c r="BX47" s="3"/>
+      <c r="BY47" s="3"/>
+      <c r="BZ47" s="3"/>
+      <c r="CA47" s="3"/>
+      <c r="CB47" s="3"/>
+      <c r="CC47" s="3"/>
+      <c r="CD47" s="3"/>
+      <c r="CE47" s="3"/>
+      <c r="CF47" s="3"/>
+      <c r="CG47" s="3"/>
+      <c r="CH47" s="3"/>
+      <c r="CI47" s="3"/>
+      <c r="CJ47" s="3"/>
+      <c r="CK47" s="3"/>
+      <c r="CL47" s="3"/>
+      <c r="CM47" s="3"/>
+      <c r="CN47" s="3"/>
+      <c r="CO47" s="3"/>
+      <c r="CP47" s="3"/>
+      <c r="CQ47" s="3"/>
+      <c r="CR47" s="3"/>
+      <c r="CS47" s="3"/>
+      <c r="CT47" s="3"/>
+      <c r="CU47" s="3"/>
+      <c r="CV47" s="3"/>
+      <c r="CW47" s="3"/>
+      <c r="CX47" s="3"/>
+      <c r="CY47" s="3"/>
+      <c r="CZ47" s="3"/>
+      <c r="DA47" s="3"/>
+      <c r="DB47" s="3"/>
+      <c r="DC47" s="3"/>
+      <c r="DD47" s="3"/>
+      <c r="DE47" s="3"/>
+      <c r="DF47" s="3"/>
+      <c r="DG47" s="3"/>
+      <c r="DH47" s="3"/>
+      <c r="DI47" s="3"/>
+      <c r="DJ47" s="3"/>
+      <c r="DK47" s="3"/>
+      <c r="DL47" s="3"/>
+      <c r="DM47" s="3"/>
+      <c r="DN47" s="3"/>
+      <c r="DO47" s="3"/>
+      <c r="DP47" s="3"/>
+      <c r="DQ47" s="3"/>
+      <c r="DR47" s="3"/>
+    </row>
+    <row r="48" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="3"/>
+      <c r="AC48" s="3"/>
+      <c r="AD48" s="3"/>
+      <c r="AE48" s="3"/>
+      <c r="AF48" s="3"/>
+      <c r="AG48" s="3"/>
+      <c r="AH48" s="3"/>
+      <c r="AI48" s="3"/>
+      <c r="AJ48" s="3"/>
+      <c r="AK48" s="3"/>
+      <c r="AL48" s="3"/>
+      <c r="AM48" s="3"/>
+      <c r="AN48" s="3"/>
+      <c r="AO48" s="3"/>
+      <c r="AP48" s="3"/>
+      <c r="AQ48" s="3"/>
+      <c r="AR48" s="3"/>
+      <c r="AS48" s="3"/>
+      <c r="AT48" s="3"/>
+      <c r="AU48" s="3"/>
+      <c r="AV48" s="3"/>
+      <c r="AW48" s="3"/>
+      <c r="AX48" s="3"/>
+      <c r="AY48" s="3"/>
+      <c r="AZ48" s="3"/>
+      <c r="BA48" s="3"/>
+      <c r="BB48" s="3"/>
+      <c r="BC48" s="3"/>
+      <c r="BD48" s="3"/>
+      <c r="BE48" s="3"/>
+      <c r="BF48" s="3"/>
+      <c r="BG48" s="3"/>
+      <c r="BH48" s="3"/>
+      <c r="BI48" s="3"/>
+      <c r="BJ48" s="3"/>
+      <c r="BK48" s="3"/>
+      <c r="BL48" s="3"/>
+      <c r="BM48" s="3"/>
+      <c r="BN48" s="3"/>
+      <c r="BO48" s="3"/>
+      <c r="BP48" s="3"/>
+      <c r="BQ48" s="3"/>
+      <c r="BR48" s="3"/>
+      <c r="BS48" s="3"/>
+      <c r="BT48" s="3"/>
+      <c r="BU48" s="3"/>
+      <c r="BV48" s="3"/>
+      <c r="BW48" s="3"/>
+      <c r="BX48" s="3"/>
+      <c r="BY48" s="3"/>
+      <c r="BZ48" s="3"/>
+      <c r="CA48" s="3"/>
+      <c r="CB48" s="3"/>
+      <c r="CC48" s="3"/>
+      <c r="CD48" s="3"/>
+      <c r="CE48" s="3"/>
+      <c r="CF48" s="3"/>
+      <c r="CG48" s="3"/>
+      <c r="CH48" s="3"/>
+      <c r="CI48" s="3"/>
+      <c r="CJ48" s="3"/>
+      <c r="CK48" s="3"/>
+      <c r="CL48" s="3"/>
+      <c r="CM48" s="3"/>
+      <c r="CN48" s="3"/>
+      <c r="CO48" s="3"/>
+      <c r="CP48" s="3"/>
+      <c r="CQ48" s="3"/>
+      <c r="CR48" s="3"/>
+      <c r="CS48" s="3"/>
+      <c r="CT48" s="3"/>
+      <c r="CU48" s="3"/>
+      <c r="CV48" s="3"/>
+      <c r="CW48" s="3"/>
+      <c r="CX48" s="3"/>
+      <c r="CY48" s="3"/>
+      <c r="CZ48" s="3"/>
+      <c r="DA48" s="3"/>
+      <c r="DB48" s="3"/>
+      <c r="DC48" s="3"/>
+      <c r="DD48" s="3"/>
+      <c r="DE48" s="3"/>
+      <c r="DF48" s="3"/>
+      <c r="DG48" s="3"/>
+      <c r="DH48" s="3"/>
+      <c r="DI48" s="3"/>
+      <c r="DJ48" s="3"/>
+      <c r="DK48" s="3"/>
+      <c r="DL48" s="3"/>
+      <c r="DM48" s="3"/>
+      <c r="DN48" s="3"/>
+      <c r="DO48" s="3"/>
+      <c r="DP48" s="3"/>
+      <c r="DQ48" s="3"/>
+      <c r="DR48" s="3"/>
+    </row>
+    <row r="49" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="3"/>
+      <c r="AB49" s="3"/>
+      <c r="AC49" s="3"/>
+      <c r="AD49" s="3"/>
+      <c r="AE49" s="3"/>
+      <c r="AF49" s="3"/>
+      <c r="AG49" s="3"/>
+      <c r="AH49" s="3"/>
+      <c r="AI49" s="3"/>
+      <c r="AJ49" s="3"/>
+      <c r="AK49" s="3"/>
+      <c r="AL49" s="3"/>
+      <c r="AM49" s="3"/>
+      <c r="AN49" s="3"/>
+      <c r="AO49" s="3"/>
+      <c r="AP49" s="3"/>
+      <c r="AQ49" s="3"/>
+      <c r="AR49" s="3"/>
+      <c r="AS49" s="3"/>
+      <c r="AT49" s="3"/>
+      <c r="AU49" s="3"/>
+      <c r="AV49" s="3"/>
+      <c r="AW49" s="3"/>
+      <c r="AX49" s="3"/>
+      <c r="AY49" s="3"/>
+      <c r="AZ49" s="3"/>
+      <c r="BA49" s="3"/>
+      <c r="BB49" s="3"/>
+      <c r="BC49" s="3"/>
+      <c r="BD49" s="3"/>
+      <c r="BE49" s="3"/>
+      <c r="BF49" s="3"/>
+      <c r="BG49" s="3"/>
+      <c r="BH49" s="3"/>
+      <c r="BI49" s="3"/>
+      <c r="BJ49" s="3"/>
+      <c r="BK49" s="3"/>
+      <c r="BL49" s="3"/>
+      <c r="BM49" s="3"/>
+      <c r="BN49" s="3"/>
+      <c r="BO49" s="3"/>
+      <c r="BP49" s="3"/>
+      <c r="BQ49" s="3"/>
+      <c r="BR49" s="3"/>
+      <c r="BS49" s="3"/>
+      <c r="BT49" s="3"/>
+      <c r="BU49" s="3"/>
+      <c r="BV49" s="3"/>
+      <c r="BW49" s="3"/>
+      <c r="BX49" s="3"/>
+      <c r="BY49" s="3"/>
+      <c r="BZ49" s="3"/>
+      <c r="CA49" s="3"/>
+      <c r="CB49" s="3"/>
+      <c r="CC49" s="3"/>
+      <c r="CD49" s="3"/>
+      <c r="CE49" s="3"/>
+      <c r="CF49" s="3"/>
+      <c r="CG49" s="3"/>
+      <c r="CH49" s="3"/>
+      <c r="CI49" s="3"/>
+      <c r="CJ49" s="3"/>
+      <c r="CK49" s="3"/>
+      <c r="CL49" s="3"/>
+      <c r="CM49" s="3"/>
+      <c r="CN49" s="3"/>
+      <c r="CO49" s="3"/>
+      <c r="CP49" s="3"/>
+      <c r="CQ49" s="3"/>
+      <c r="CR49" s="3"/>
+      <c r="CS49" s="3"/>
+      <c r="CT49" s="3"/>
+      <c r="CU49" s="3"/>
+      <c r="CV49" s="3"/>
+      <c r="CW49" s="3"/>
+      <c r="CX49" s="3"/>
+      <c r="CY49" s="3"/>
+      <c r="CZ49" s="3"/>
+      <c r="DA49" s="3"/>
+      <c r="DB49" s="3"/>
+      <c r="DC49" s="3"/>
+      <c r="DD49" s="3"/>
+      <c r="DE49" s="3"/>
+      <c r="DF49" s="3"/>
+      <c r="DG49" s="3"/>
+      <c r="DH49" s="3"/>
+      <c r="DI49" s="3"/>
+      <c r="DJ49" s="3"/>
+      <c r="DK49" s="3"/>
+      <c r="DL49" s="3"/>
+      <c r="DM49" s="3"/>
+      <c r="DN49" s="3"/>
+      <c r="DO49" s="3"/>
+      <c r="DP49" s="3"/>
+      <c r="DQ49" s="3"/>
+      <c r="DR49" s="3"/>
+    </row>
+    <row r="50" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3"/>
+      <c r="AB50" s="3"/>
+      <c r="AC50" s="3"/>
+      <c r="AD50" s="3"/>
+      <c r="AE50" s="3"/>
+      <c r="AF50" s="3"/>
+      <c r="AG50" s="3"/>
+      <c r="AH50" s="3"/>
+      <c r="AI50" s="3"/>
+      <c r="AJ50" s="3"/>
+      <c r="AK50" s="3"/>
+      <c r="AL50" s="3"/>
+      <c r="AM50" s="3"/>
+      <c r="AN50" s="3"/>
+      <c r="AO50" s="3"/>
+      <c r="AP50" s="3"/>
+      <c r="AQ50" s="3"/>
+      <c r="AR50" s="3"/>
+      <c r="AS50" s="3"/>
+      <c r="AT50" s="3"/>
+      <c r="AU50" s="3"/>
+      <c r="AV50" s="3"/>
+      <c r="AW50" s="3"/>
+      <c r="AX50" s="3"/>
+      <c r="AY50" s="3"/>
+      <c r="AZ50" s="3"/>
+      <c r="BA50" s="3"/>
+      <c r="BB50" s="3"/>
+      <c r="BC50" s="3"/>
+      <c r="BD50" s="3"/>
+      <c r="BE50" s="3"/>
+      <c r="BF50" s="3"/>
+      <c r="BG50" s="3"/>
+      <c r="BH50" s="3"/>
+      <c r="BI50" s="3"/>
+      <c r="BJ50" s="3"/>
+      <c r="BK50" s="3"/>
+      <c r="BL50" s="3"/>
+      <c r="BM50" s="3"/>
+      <c r="BN50" s="3"/>
+      <c r="BO50" s="3"/>
+      <c r="BP50" s="3"/>
+      <c r="BQ50" s="3"/>
+      <c r="BR50" s="3"/>
+      <c r="BS50" s="3"/>
+      <c r="BT50" s="3"/>
+      <c r="BU50" s="3"/>
+      <c r="BV50" s="3"/>
+      <c r="BW50" s="3"/>
+      <c r="BX50" s="3"/>
+      <c r="BY50" s="3"/>
+      <c r="BZ50" s="3"/>
+      <c r="CA50" s="3"/>
+      <c r="CB50" s="3"/>
+      <c r="CC50" s="3"/>
+      <c r="CD50" s="3"/>
+      <c r="CE50" s="3"/>
+      <c r="CF50" s="3"/>
+      <c r="CG50" s="3"/>
+      <c r="CH50" s="3"/>
+      <c r="CI50" s="3"/>
+      <c r="CJ50" s="3"/>
+      <c r="CK50" s="3"/>
+      <c r="CL50" s="3"/>
+      <c r="CM50" s="3"/>
+      <c r="CN50" s="3"/>
+      <c r="CO50" s="3"/>
+      <c r="CP50" s="3"/>
+      <c r="CQ50" s="3"/>
+      <c r="CR50" s="3"/>
+      <c r="CS50" s="3"/>
+      <c r="CT50" s="3"/>
+      <c r="CU50" s="3"/>
+      <c r="CV50" s="3"/>
+      <c r="CW50" s="3"/>
+      <c r="CX50" s="3"/>
+      <c r="CY50" s="3"/>
+      <c r="CZ50" s="3"/>
+      <c r="DA50" s="3"/>
+      <c r="DB50" s="3"/>
+      <c r="DC50" s="3"/>
+      <c r="DD50" s="3"/>
+      <c r="DE50" s="3"/>
+      <c r="DF50" s="3"/>
+      <c r="DG50" s="3"/>
+      <c r="DH50" s="3"/>
+      <c r="DI50" s="3"/>
+      <c r="DJ50" s="3"/>
+      <c r="DK50" s="3"/>
+      <c r="DL50" s="3"/>
+      <c r="DM50" s="3"/>
+      <c r="DN50" s="3"/>
+      <c r="DO50" s="3"/>
+      <c r="DP50" s="3"/>
+      <c r="DQ50" s="3"/>
+      <c r="DR50" s="3"/>
+    </row>
+    <row r="51" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
+      <c r="AA51" s="3"/>
+      <c r="AB51" s="3"/>
+      <c r="AC51" s="3"/>
+      <c r="AD51" s="3"/>
+      <c r="AE51" s="3"/>
+      <c r="AF51" s="3"/>
+      <c r="AG51" s="3"/>
+      <c r="AH51" s="3"/>
+      <c r="AI51" s="3"/>
+      <c r="AJ51" s="3"/>
+      <c r="AK51" s="3"/>
+      <c r="AL51" s="3"/>
+      <c r="AM51" s="3"/>
+      <c r="AN51" s="3"/>
+      <c r="AO51" s="3"/>
+      <c r="AP51" s="3"/>
+      <c r="AQ51" s="3"/>
+      <c r="AR51" s="3"/>
+      <c r="AS51" s="3"/>
+      <c r="AT51" s="3"/>
+      <c r="AU51" s="3"/>
+      <c r="AV51" s="3"/>
+      <c r="AW51" s="3"/>
+      <c r="AX51" s="3"/>
+      <c r="AY51" s="3"/>
+      <c r="AZ51" s="3"/>
+      <c r="BA51" s="3"/>
+      <c r="BB51" s="3"/>
+      <c r="BC51" s="3"/>
+      <c r="BD51" s="3"/>
+      <c r="BE51" s="3"/>
+      <c r="BF51" s="3"/>
+      <c r="BG51" s="3"/>
+      <c r="BH51" s="3"/>
+      <c r="BI51" s="3"/>
+      <c r="BJ51" s="3"/>
+      <c r="BK51" s="3"/>
+      <c r="BL51" s="3"/>
+      <c r="BM51" s="3"/>
+      <c r="BN51" s="3"/>
+      <c r="BO51" s="3"/>
+      <c r="BP51" s="3"/>
+      <c r="BQ51" s="3"/>
+      <c r="BR51" s="3"/>
+      <c r="BS51" s="3"/>
+      <c r="BT51" s="3"/>
+      <c r="BU51" s="3"/>
+      <c r="BV51" s="3"/>
+      <c r="BW51" s="3"/>
+      <c r="BX51" s="3"/>
+      <c r="BY51" s="3"/>
+      <c r="BZ51" s="3"/>
+      <c r="CA51" s="3"/>
+      <c r="CB51" s="3"/>
+      <c r="CC51" s="3"/>
+      <c r="CD51" s="3"/>
+      <c r="CE51" s="3"/>
+      <c r="CF51" s="3"/>
+      <c r="CG51" s="3"/>
+      <c r="CH51" s="3"/>
+      <c r="CI51" s="3"/>
+      <c r="CJ51" s="3"/>
+      <c r="CK51" s="3"/>
+      <c r="CL51" s="3"/>
+      <c r="CM51" s="3"/>
+      <c r="CN51" s="3"/>
+      <c r="CO51" s="3"/>
+      <c r="CP51" s="3"/>
+      <c r="CQ51" s="3"/>
+      <c r="CR51" s="3"/>
+      <c r="CS51" s="3"/>
+      <c r="CT51" s="3"/>
+      <c r="CU51" s="3"/>
+      <c r="CV51" s="3"/>
+      <c r="CW51" s="3"/>
+      <c r="CX51" s="3"/>
+      <c r="CY51" s="3"/>
+      <c r="CZ51" s="3"/>
+      <c r="DA51" s="3"/>
+      <c r="DB51" s="3"/>
+      <c r="DC51" s="3"/>
+      <c r="DD51" s="3"/>
+      <c r="DE51" s="3"/>
+      <c r="DF51" s="3"/>
+      <c r="DG51" s="3"/>
+      <c r="DH51" s="3"/>
+      <c r="DI51" s="3"/>
+      <c r="DJ51" s="3"/>
+      <c r="DK51" s="3"/>
+      <c r="DL51" s="3"/>
+      <c r="DM51" s="3"/>
+      <c r="DN51" s="3"/>
+      <c r="DO51" s="3"/>
+      <c r="DP51" s="3"/>
+      <c r="DQ51" s="3"/>
+      <c r="DR51" s="3"/>
+    </row>
+    <row r="52" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B4:DR51">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="60"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A3:DR52"/>
+  <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -205,8 +205,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -234,10 +242,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -692,7 +701,7 @@
   <dimension ref="A4:AX313"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A5" sqref="A5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,2474 +865,2474 @@
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>43450</v>
+        <v>43717</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>43451</v>
+        <v>43718</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>43452</v>
+        <v>43719</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>43453</v>
+        <v>43720</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>43454</v>
+        <v>43721</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>43455</v>
+        <v>43722</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>43456</v>
+        <v>43723</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>43457</v>
+        <v>43724</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>43458</v>
+        <v>43725</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>43459</v>
+        <v>43726</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>43460</v>
+        <v>43727</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>43461</v>
+        <v>43728</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>43462</v>
+        <v>43729</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>43463</v>
+        <v>43730</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>43464</v>
+        <v>43731</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>43465</v>
+        <v>43732</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>43466</v>
+        <v>43733</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>43467</v>
+        <v>43734</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>43468</v>
+        <v>43735</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>43469</v>
+        <v>43736</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>43470</v>
+        <v>43737</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>43471</v>
+        <v>43738</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>43472</v>
+        <v>43739</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>43473</v>
+        <v>43740</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>43474</v>
+        <v>43741</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>43475</v>
+        <v>43742</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>43476</v>
+        <v>43743</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>43477</v>
+        <v>43744</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>43478</v>
+        <v>43745</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>43479</v>
+        <v>43746</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>43480</v>
+        <v>43747</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>43481</v>
+        <v>43748</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>43482</v>
+        <v>43749</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>43483</v>
+        <v>43750</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>43484</v>
+        <v>43751</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>43485</v>
+        <v>43752</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>43486</v>
+        <v>43753</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>43487</v>
+        <v>43754</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>43488</v>
+        <v>43755</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>43489</v>
+        <v>43756</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>43490</v>
+        <v>43757</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>43491</v>
+        <v>43758</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>43492</v>
+        <v>43759</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>43493</v>
+        <v>43760</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>43494</v>
+        <v>43761</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>43495</v>
+        <v>43762</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>43496</v>
+        <v>43763</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>43497</v>
+        <v>43764</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>43498</v>
+        <v>43765</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>43499</v>
+        <v>43766</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>43500</v>
+        <v>43767</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>43501</v>
+        <v>43768</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>43502</v>
+        <v>43769</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>43503</v>
+        <v>43770</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>43504</v>
+        <v>43771</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>43505</v>
+        <v>43772</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>43506</v>
+        <v>43773</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>43507</v>
+        <v>43774</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>43508</v>
+        <v>43775</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>43509</v>
+        <v>43776</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>43510</v>
+        <v>43777</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>43511</v>
+        <v>43778</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>43512</v>
+        <v>43779</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>43513</v>
+        <v>43780</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>43514</v>
+        <v>43781</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>43515</v>
+        <v>43782</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>43516</v>
+        <v>43783</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>43517</v>
+        <v>43784</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>43518</v>
+        <v>43785</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>43519</v>
+        <v>43786</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>43520</v>
+        <v>43787</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>43521</v>
+        <v>43788</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>43522</v>
+        <v>43789</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>43523</v>
+        <v>43790</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>43524</v>
+        <v>43791</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>43525</v>
+        <v>43792</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>43526</v>
+        <v>43793</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>43527</v>
+        <v>43794</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>43528</v>
+        <v>43795</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>43529</v>
+        <v>43796</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>43530</v>
+        <v>43797</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>43531</v>
+        <v>43798</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>43532</v>
+        <v>43799</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>43533</v>
+        <v>43800</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>43534</v>
+        <v>43801</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>43535</v>
+        <v>43802</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>43536</v>
+        <v>43803</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>43537</v>
+        <v>43804</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>43538</v>
+        <v>43805</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>43539</v>
+        <v>43806</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>43540</v>
+        <v>43807</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>43541</v>
+        <v>43808</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>43542</v>
+        <v>43809</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>43543</v>
+        <v>43810</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>43544</v>
+        <v>43811</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>43545</v>
+        <v>43812</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>43546</v>
+        <v>43813</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>43547</v>
+        <v>43814</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>43548</v>
+        <v>43815</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>43549</v>
+        <v>43816</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>43550</v>
+        <v>43817</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>43551</v>
+        <v>43818</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>43552</v>
+        <v>43819</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>43553</v>
+        <v>43820</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>43554</v>
+        <v>43821</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>43555</v>
+        <v>43822</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>43556</v>
+        <v>43823</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>43557</v>
+        <v>43824</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>43558</v>
+        <v>43825</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>43559</v>
+        <v>43826</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>43560</v>
+        <v>43827</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>43561</v>
+        <v>43828</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>43562</v>
+        <v>43829</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>43563</v>
+        <v>43830</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>43564</v>
+        <v>43831</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>43565</v>
+        <v>43832</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>43566</v>
+        <v>43833</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>43567</v>
+        <v>43834</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>43568</v>
+        <v>43835</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>43569</v>
+        <v>43836</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>43570</v>
+        <v>43837</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>43571</v>
+        <v>43838</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>43572</v>
+        <v>43839</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>43573</v>
+        <v>43840</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>43574</v>
+        <v>43841</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>43575</v>
+        <v>43842</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>43576</v>
+        <v>43843</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>43577</v>
+        <v>43844</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>43578</v>
+        <v>43845</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>43579</v>
+        <v>43846</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <v>43580</v>
+        <v>43847</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
-        <v>43581</v>
+        <v>43848</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <v>43582</v>
+        <v>43849</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <v>43583</v>
+        <v>43850</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
-        <v>43584</v>
+        <v>43851</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
-        <v>43585</v>
+        <v>43852</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>43586</v>
+        <v>43853</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
-        <v>43587</v>
+        <v>43854</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
-        <v>43588</v>
+        <v>43855</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>43589</v>
+        <v>43856</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
-        <v>43590</v>
+        <v>43857</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>43591</v>
+        <v>43858</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
-        <v>43592</v>
+        <v>43859</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>43593</v>
+        <v>43860</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
-        <v>43594</v>
+        <v>43861</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>43595</v>
+        <v>43862</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
-        <v>43596</v>
+        <v>43863</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
-        <v>43597</v>
+        <v>43864</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>43598</v>
+        <v>43865</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>43599</v>
+        <v>43866</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>43600</v>
+        <v>43867</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
-        <v>43601</v>
+        <v>43868</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
-        <v>43602</v>
+        <v>43869</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
-        <v>43603</v>
+        <v>43870</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
-        <v>43604</v>
+        <v>43871</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
-        <v>43605</v>
+        <v>43872</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
-        <v>43606</v>
+        <v>43873</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
-        <v>43607</v>
+        <v>43874</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
-        <v>43608</v>
+        <v>43875</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
-        <v>43609</v>
+        <v>43876</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
-        <v>43610</v>
+        <v>43877</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
-        <v>43611</v>
+        <v>43878</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
-        <v>43612</v>
+        <v>43879</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
-        <v>43613</v>
+        <v>43880</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
-        <v>43614</v>
+        <v>43881</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
-        <v>43615</v>
+        <v>43882</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
-        <v>43616</v>
+        <v>43883</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
-        <v>43617</v>
+        <v>43884</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
-        <v>43618</v>
+        <v>43885</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
-        <v>43619</v>
+        <v>43886</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
-        <v>43620</v>
+        <v>43887</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
-        <v>43621</v>
+        <v>43888</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
-        <v>43622</v>
+        <v>43889</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
-        <v>43623</v>
+        <v>43890</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
-        <v>43624</v>
+        <v>43891</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
-        <v>43625</v>
+        <v>43892</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
-        <v>43626</v>
+        <v>43893</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
-        <v>43627</v>
+        <v>43894</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
-        <v>43628</v>
+        <v>43895</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
-        <v>43629</v>
+        <v>43896</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
-        <v>43630</v>
+        <v>43897</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
-        <v>43631</v>
+        <v>43898</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
-        <v>43632</v>
+        <v>43899</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
-        <v>43633</v>
+        <v>43900</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
-        <v>43634</v>
+        <v>43901</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
-        <v>43635</v>
+        <v>43902</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
-        <v>43636</v>
+        <v>43903</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
-        <v>43637</v>
+        <v>43904</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
-        <v>43638</v>
+        <v>43905</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
-        <v>43639</v>
+        <v>43906</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
-        <v>43640</v>
+        <v>43907</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
-        <v>43641</v>
+        <v>43908</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
-        <v>43642</v>
+        <v>43909</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
-        <v>43643</v>
+        <v>43910</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
-        <v>43644</v>
+        <v>43911</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
-        <v>43645</v>
+        <v>43912</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
-        <v>43646</v>
+        <v>43913</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
-        <v>43647</v>
+        <v>43914</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
-        <v>43648</v>
+        <v>43915</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
-        <v>43649</v>
+        <v>43916</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
-        <v>43650</v>
+        <v>43917</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
-        <v>43651</v>
+        <v>43918</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
-        <v>43652</v>
+        <v>43919</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
-        <v>43653</v>
+        <v>43920</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
-        <v>43654</v>
+        <v>43921</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
-        <v>43655</v>
+        <v>43922</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
-        <v>43656</v>
+        <v>43923</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
-        <v>43657</v>
+        <v>43924</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
-        <v>43658</v>
+        <v>43925</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
-        <v>43659</v>
+        <v>43926</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
-        <v>43660</v>
+        <v>43927</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
-        <v>43661</v>
+        <v>43928</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
-        <v>43662</v>
+        <v>43929</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
-        <v>43663</v>
+        <v>43930</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
-        <v>43664</v>
+        <v>43931</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
-        <v>43665</v>
+        <v>43932</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
-        <v>43666</v>
+        <v>43933</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
-        <v>43667</v>
+        <v>43934</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
-        <v>43668</v>
+        <v>43935</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
-        <v>43669</v>
+        <v>43936</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
-        <v>43670</v>
+        <v>43937</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
-        <v>43671</v>
+        <v>43938</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
-        <v>43672</v>
+        <v>43939</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
-        <v>43673</v>
+        <v>43940</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
-        <v>43674</v>
+        <v>43941</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
-        <v>43675</v>
+        <v>43942</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
-        <v>43676</v>
+        <v>43943</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
-        <v>43677</v>
+        <v>43944</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
-        <v>43678</v>
+        <v>43945</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
-        <v>43679</v>
+        <v>43946</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
-        <v>43680</v>
+        <v>43947</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
-        <v>43681</v>
+        <v>43948</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
-        <v>43682</v>
+        <v>43949</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
-        <v>43683</v>
+        <v>43950</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
-        <v>43684</v>
+        <v>43951</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
-        <v>43685</v>
+        <v>43952</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
-        <v>43686</v>
+        <v>43953</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
-        <v>43687</v>
+        <v>43954</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
-        <v>43688</v>
+        <v>43955</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
-        <v>43689</v>
+        <v>43956</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
-        <v>43690</v>
+        <v>43957</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
-        <v>43691</v>
+        <v>43958</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
-        <v>43692</v>
+        <v>43959</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
-        <v>43693</v>
+        <v>43960</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
-        <v>43694</v>
+        <v>43961</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
-        <v>43695</v>
+        <v>43962</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
-        <v>43696</v>
+        <v>43963</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
-        <v>43697</v>
+        <v>43964</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
-        <v>43698</v>
+        <v>43965</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
-        <v>43699</v>
+        <v>43966</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
-        <v>43700</v>
+        <v>43967</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
-        <v>43701</v>
+        <v>43968</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
-        <v>43702</v>
+        <v>43969</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
-        <v>43703</v>
+        <v>43970</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
-        <v>43704</v>
+        <v>43971</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
-        <v>43705</v>
+        <v>43972</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
-        <v>43706</v>
+        <v>43973</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
-        <v>43707</v>
+        <v>43974</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
-        <v>43708</v>
+        <v>43975</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
-        <v>43709</v>
+        <v>43976</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
-        <v>43710</v>
+        <v>43977</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
-        <v>43711</v>
+        <v>43978</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
-        <v>43712</v>
+        <v>43979</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
-        <v>43713</v>
+        <v>43980</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
-        <v>43714</v>
+        <v>43981</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
-        <v>43715</v>
+        <v>43982</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
-        <v>43716</v>
+        <v>43983</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
-        <v>43717</v>
+        <v>43984</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
-        <v>43718</v>
+        <v>43985</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
-        <v>43719</v>
+        <v>43986</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
-        <v>43720</v>
+        <v>43987</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
-        <v>43721</v>
+        <v>43988</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
-        <v>43722</v>
+        <v>43989</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
-        <v>43723</v>
+        <v>43990</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
-        <v>43724</v>
+        <v>43991</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
-        <v>43725</v>
+        <v>43992</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
-        <v>43726</v>
+        <v>43993</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
-        <v>43727</v>
+        <v>43994</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
-        <v>43728</v>
+        <v>43995</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
-        <v>43729</v>
+        <v>43996</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
-        <v>43730</v>
+        <v>43997</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
-        <v>43731</v>
+        <v>43998</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
-        <v>43732</v>
+        <v>43999</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
-        <v>43733</v>
+        <v>44000</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
-        <v>43734</v>
+        <v>44001</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
-        <v>43735</v>
+        <v>44002</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
-        <v>43736</v>
+        <v>44003</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
-        <v>43737</v>
+        <v>44004</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
-        <v>43738</v>
+        <v>44005</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
-        <v>43739</v>
+        <v>44006</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
-        <v>43740</v>
+        <v>44007</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
-        <v>43741</v>
+        <v>44008</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
-        <v>43742</v>
+        <v>44009</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
-        <v>43743</v>
+        <v>44010</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
-        <v>43744</v>
+        <v>44011</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
-        <v>43745</v>
+        <v>44012</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
-        <v>43746</v>
+        <v>44013</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
-        <v>43747</v>
+        <v>44014</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
-        <v>43748</v>
+        <v>44015</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
-        <v>43749</v>
+        <v>44016</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
-        <v>43750</v>
+        <v>44017</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
-        <v>43751</v>
+        <v>44018</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
-        <v>43752</v>
+        <v>44019</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
-        <v>43753</v>
+        <v>44020</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
-        <v>43754</v>
+        <v>44021</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
-        <v>43755</v>
+        <v>44022</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
-        <v>43756</v>
+        <v>44023</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
-        <v>43757</v>
+        <v>44024</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
-        <v>43758</v>
+        <v>44025</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -3356,7 +3365,7 @@
   <dimension ref="A4:AX313"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3520,2474 +3529,2475 @@
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>43450</v>
+        <v>43717</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>43451</v>
+        <v>43718</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>43452</v>
+        <v>43719</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>43453</v>
+        <v>43720</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>43454</v>
+        <v>43721</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>43455</v>
+        <v>43722</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>43456</v>
+        <v>43723</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>43457</v>
+        <v>43724</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>43458</v>
+        <v>43725</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>43459</v>
+        <v>43726</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>43460</v>
+        <v>43727</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>43461</v>
+        <v>43728</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>43462</v>
+        <v>43729</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>43463</v>
+        <v>43730</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>43464</v>
+        <v>43731</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>43465</v>
+        <v>43732</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>43466</v>
+        <v>43733</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>43467</v>
+        <v>43734</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>43468</v>
+        <v>43735</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>43469</v>
+        <v>43736</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>43470</v>
+        <v>43737</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>43471</v>
+        <v>43738</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>43472</v>
+        <v>43739</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>43473</v>
+        <v>43740</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>43474</v>
+        <v>43741</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>43475</v>
+        <v>43742</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>43476</v>
+        <v>43743</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>43477</v>
+        <v>43744</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>43478</v>
+        <v>43745</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>43479</v>
+        <v>43746</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>43480</v>
+        <v>43747</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>43481</v>
+        <v>43748</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>43482</v>
+        <v>43749</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>43483</v>
+        <v>43750</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>43484</v>
+        <v>43751</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>43485</v>
+        <v>43752</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>43486</v>
+        <v>43753</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>43487</v>
+        <v>43754</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>43488</v>
+        <v>43755</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>43489</v>
+        <v>43756</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>43490</v>
+        <v>43757</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>43491</v>
+        <v>43758</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>43492</v>
+        <v>43759</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>43493</v>
+        <v>43760</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>43494</v>
+        <v>43761</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>43495</v>
+        <v>43762</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>43496</v>
+        <v>43763</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>43497</v>
+        <v>43764</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>43498</v>
+        <v>43765</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>43499</v>
+        <v>43766</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>43500</v>
+        <v>43767</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>43501</v>
+        <v>43768</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>43502</v>
+        <v>43769</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>43503</v>
+        <v>43770</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>43504</v>
+        <v>43771</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>43505</v>
+        <v>43772</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>43506</v>
+        <v>43773</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>43507</v>
+        <v>43774</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>43508</v>
+        <v>43775</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>43509</v>
+        <v>43776</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>43510</v>
+        <v>43777</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>43511</v>
+        <v>43778</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>43512</v>
+        <v>43779</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>43513</v>
+        <v>43780</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>43514</v>
+        <v>43781</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>43515</v>
+        <v>43782</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>43516</v>
+        <v>43783</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>43517</v>
+        <v>43784</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>43518</v>
+        <v>43785</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>43519</v>
+        <v>43786</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>43520</v>
+        <v>43787</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>43521</v>
+        <v>43788</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>43522</v>
+        <v>43789</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>43523</v>
+        <v>43790</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>43524</v>
+        <v>43791</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>43525</v>
+        <v>43792</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>43526</v>
+        <v>43793</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>43527</v>
+        <v>43794</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>43528</v>
+        <v>43795</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>43529</v>
+        <v>43796</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>43530</v>
+        <v>43797</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>43531</v>
+        <v>43798</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>43532</v>
+        <v>43799</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>43533</v>
+        <v>43800</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>43534</v>
+        <v>43801</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>43535</v>
+        <v>43802</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>43536</v>
+        <v>43803</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>43537</v>
+        <v>43804</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>43538</v>
+        <v>43805</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>43539</v>
+        <v>43806</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>43540</v>
+        <v>43807</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>43541</v>
+        <v>43808</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>43542</v>
+        <v>43809</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>43543</v>
+        <v>43810</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>43544</v>
+        <v>43811</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>43545</v>
+        <v>43812</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>43546</v>
+        <v>43813</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>43547</v>
+        <v>43814</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>43548</v>
+        <v>43815</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>43549</v>
+        <v>43816</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>43550</v>
+        <v>43817</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>43551</v>
+        <v>43818</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>43552</v>
+        <v>43819</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>43553</v>
+        <v>43820</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>43554</v>
+        <v>43821</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>43555</v>
+        <v>43822</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>43556</v>
+        <v>43823</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>43557</v>
+        <v>43824</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>43558</v>
+        <v>43825</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>43559</v>
+        <v>43826</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>43560</v>
+        <v>43827</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>43561</v>
+        <v>43828</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>43562</v>
+        <v>43829</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>43563</v>
+        <v>43830</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>43564</v>
+        <v>43831</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>43565</v>
+        <v>43832</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>43566</v>
+        <v>43833</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>43567</v>
+        <v>43834</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>43568</v>
+        <v>43835</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>43569</v>
+        <v>43836</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>43570</v>
+        <v>43837</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>43571</v>
+        <v>43838</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>43572</v>
+        <v>43839</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>43573</v>
+        <v>43840</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>43574</v>
+        <v>43841</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>43575</v>
+        <v>43842</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>43576</v>
+        <v>43843</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>43577</v>
+        <v>43844</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>43578</v>
+        <v>43845</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>43579</v>
+        <v>43846</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <v>43580</v>
+        <v>43847</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
-        <v>43581</v>
+        <v>43848</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <v>43582</v>
+        <v>43849</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <v>43583</v>
+        <v>43850</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
-        <v>43584</v>
+        <v>43851</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
-        <v>43585</v>
+        <v>43852</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>43586</v>
+        <v>43853</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
-        <v>43587</v>
+        <v>43854</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
-        <v>43588</v>
+        <v>43855</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>43589</v>
+        <v>43856</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
-        <v>43590</v>
+        <v>43857</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>43591</v>
+        <v>43858</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
-        <v>43592</v>
+        <v>43859</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>43593</v>
+        <v>43860</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
-        <v>43594</v>
+        <v>43861</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>43595</v>
+        <v>43862</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
-        <v>43596</v>
+        <v>43863</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
-        <v>43597</v>
+        <v>43864</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>43598</v>
+        <v>43865</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>43599</v>
+        <v>43866</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>43600</v>
+        <v>43867</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
-        <v>43601</v>
+        <v>43868</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
-        <v>43602</v>
+        <v>43869</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
-        <v>43603</v>
+        <v>43870</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
-        <v>43604</v>
+        <v>43871</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
-        <v>43605</v>
+        <v>43872</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
-        <v>43606</v>
+        <v>43873</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
-        <v>43607</v>
+        <v>43874</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
-        <v>43608</v>
+        <v>43875</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
-        <v>43609</v>
+        <v>43876</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
-        <v>43610</v>
+        <v>43877</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
-        <v>43611</v>
+        <v>43878</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
-        <v>43612</v>
+        <v>43879</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
-        <v>43613</v>
+        <v>43880</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
-        <v>43614</v>
+        <v>43881</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
-        <v>43615</v>
+        <v>43882</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
-        <v>43616</v>
+        <v>43883</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
-        <v>43617</v>
+        <v>43884</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
-        <v>43618</v>
+        <v>43885</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
-        <v>43619</v>
+        <v>43886</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
-        <v>43620</v>
+        <v>43887</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
-        <v>43621</v>
+        <v>43888</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
-        <v>43622</v>
+        <v>43889</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
-        <v>43623</v>
+        <v>43890</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
-        <v>43624</v>
+        <v>43891</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
-        <v>43625</v>
+        <v>43892</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
-        <v>43626</v>
+        <v>43893</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
-        <v>43627</v>
+        <v>43894</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
-        <v>43628</v>
+        <v>43895</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
-        <v>43629</v>
+        <v>43896</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
-        <v>43630</v>
+        <v>43897</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
-        <v>43631</v>
+        <v>43898</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
-        <v>43632</v>
+        <v>43899</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
-        <v>43633</v>
+        <v>43900</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
-        <v>43634</v>
+        <v>43901</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
-        <v>43635</v>
+        <v>43902</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
-        <v>43636</v>
+        <v>43903</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
-        <v>43637</v>
+        <v>43904</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
-        <v>43638</v>
+        <v>43905</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
-        <v>43639</v>
+        <v>43906</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
-        <v>43640</v>
+        <v>43907</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
-        <v>43641</v>
+        <v>43908</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
-        <v>43642</v>
+        <v>43909</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
-        <v>43643</v>
+        <v>43910</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
-        <v>43644</v>
+        <v>43911</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
-        <v>43645</v>
+        <v>43912</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
-        <v>43646</v>
+        <v>43913</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
-        <v>43647</v>
+        <v>43914</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
-        <v>43648</v>
+        <v>43915</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
-        <v>43649</v>
+        <v>43916</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
-        <v>43650</v>
+        <v>43917</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
-        <v>43651</v>
+        <v>43918</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
-        <v>43652</v>
+        <v>43919</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
-        <v>43653</v>
+        <v>43920</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
-        <v>43654</v>
+        <v>43921</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
-        <v>43655</v>
+        <v>43922</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
-        <v>43656</v>
+        <v>43923</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
-        <v>43657</v>
+        <v>43924</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
-        <v>43658</v>
+        <v>43925</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
-        <v>43659</v>
+        <v>43926</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
-        <v>43660</v>
+        <v>43927</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
-        <v>43661</v>
+        <v>43928</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
-        <v>43662</v>
+        <v>43929</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
-        <v>43663</v>
+        <v>43930</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
-        <v>43664</v>
+        <v>43931</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
-        <v>43665</v>
+        <v>43932</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
-        <v>43666</v>
+        <v>43933</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
-        <v>43667</v>
+        <v>43934</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
-        <v>43668</v>
+        <v>43935</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
-        <v>43669</v>
+        <v>43936</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
-        <v>43670</v>
+        <v>43937</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
-        <v>43671</v>
+        <v>43938</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
-        <v>43672</v>
+        <v>43939</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
-        <v>43673</v>
+        <v>43940</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
-        <v>43674</v>
+        <v>43941</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
-        <v>43675</v>
+        <v>43942</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
-        <v>43676</v>
+        <v>43943</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
-        <v>43677</v>
+        <v>43944</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
-        <v>43678</v>
+        <v>43945</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
-        <v>43679</v>
+        <v>43946</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
-        <v>43680</v>
+        <v>43947</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
-        <v>43681</v>
+        <v>43948</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
-        <v>43682</v>
+        <v>43949</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
-        <v>43683</v>
+        <v>43950</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
-        <v>43684</v>
+        <v>43951</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
-        <v>43685</v>
+        <v>43952</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
-        <v>43686</v>
+        <v>43953</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
-        <v>43687</v>
+        <v>43954</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
-        <v>43688</v>
+        <v>43955</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
-        <v>43689</v>
+        <v>43956</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
-        <v>43690</v>
+        <v>43957</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
-        <v>43691</v>
+        <v>43958</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
-        <v>43692</v>
+        <v>43959</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
-        <v>43693</v>
+        <v>43960</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
-        <v>43694</v>
+        <v>43961</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
-        <v>43695</v>
+        <v>43962</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
-        <v>43696</v>
+        <v>43963</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
-        <v>43697</v>
+        <v>43964</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
-        <v>43698</v>
+        <v>43965</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
-        <v>43699</v>
+        <v>43966</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
-        <v>43700</v>
+        <v>43967</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
-        <v>43701</v>
+        <v>43968</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
-        <v>43702</v>
+        <v>43969</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
-        <v>43703</v>
+        <v>43970</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
-        <v>43704</v>
+        <v>43971</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
-        <v>43705</v>
+        <v>43972</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
-        <v>43706</v>
+        <v>43973</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
-        <v>43707</v>
+        <v>43974</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
-        <v>43708</v>
+        <v>43975</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
-        <v>43709</v>
+        <v>43976</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
-        <v>43710</v>
+        <v>43977</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
-        <v>43711</v>
+        <v>43978</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
-        <v>43712</v>
+        <v>43979</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
-        <v>43713</v>
+        <v>43980</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
-        <v>43714</v>
+        <v>43981</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
-        <v>43715</v>
+        <v>43982</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
-        <v>43716</v>
+        <v>43983</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
-        <v>43717</v>
+        <v>43984</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
-        <v>43718</v>
+        <v>43985</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
-        <v>43719</v>
+        <v>43986</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
-        <v>43720</v>
+        <v>43987</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
-        <v>43721</v>
+        <v>43988</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
-        <v>43722</v>
+        <v>43989</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
-        <v>43723</v>
+        <v>43990</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
-        <v>43724</v>
+        <v>43991</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
-        <v>43725</v>
+        <v>43992</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
-        <v>43726</v>
+        <v>43993</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
-        <v>43727</v>
+        <v>43994</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
-        <v>43728</v>
+        <v>43995</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
-        <v>43729</v>
+        <v>43996</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
-        <v>43730</v>
+        <v>43997</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
-        <v>43731</v>
+        <v>43998</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
-        <v>43732</v>
+        <v>43999</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
-        <v>43733</v>
+        <v>44000</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
-        <v>43734</v>
+        <v>44001</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
-        <v>43735</v>
+        <v>44002</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
-        <v>43736</v>
+        <v>44003</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
-        <v>43737</v>
+        <v>44004</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
-        <v>43738</v>
+        <v>44005</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
-        <v>43739</v>
+        <v>44006</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
-        <v>43740</v>
+        <v>44007</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
-        <v>43741</v>
+        <v>44008</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
-        <v>43742</v>
+        <v>44009</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
-        <v>43743</v>
+        <v>44010</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
-        <v>43744</v>
+        <v>44011</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
-        <v>43745</v>
+        <v>44012</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
-        <v>43746</v>
+        <v>44013</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
-        <v>43747</v>
+        <v>44014</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
-        <v>43748</v>
+        <v>44015</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
-        <v>43749</v>
+        <v>44016</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
-        <v>43750</v>
+        <v>44017</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
-        <v>43751</v>
+        <v>44018</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
-        <v>43752</v>
+        <v>44019</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
-        <v>43753</v>
+        <v>44020</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
-        <v>43754</v>
+        <v>44021</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
-        <v>43755</v>
+        <v>44022</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
-        <v>43756</v>
+        <v>44023</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
-        <v>43757</v>
+        <v>44024</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
-        <v>43758</v>
+        <v>44025</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
